--- a/protocols/1 ЗК-711.xlsx
+++ b/protocols/1 ЗК-711.xlsx
@@ -15,7 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="11">
     <font>
       <name val="Calibri"/>
@@ -906,12 +909,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -959,9 +959,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -982,6 +979,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -997,12 +1006,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1083,6 +1134,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1192,88 +1252,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1319,14 +1331,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1339,11 +1351,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1695,1833 +1713,1844 @@
   </sheetPr>
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.7109375" customWidth="1" style="23" min="1" max="1"/>
-    <col width="7.28515625" customWidth="1" style="23" min="2" max="2"/>
-    <col width="6.7109375" customWidth="1" style="23" min="3" max="14"/>
-    <col width="9.140625" customWidth="1" style="23" min="15" max="16384"/>
+    <col width="6.7109375" customWidth="1" style="22" min="1" max="1"/>
+    <col width="7.28515625" customWidth="1" style="22" min="2" max="2"/>
+    <col width="6.7109375" customWidth="1" style="22" min="3" max="14"/>
+    <col width="9.140625" customWidth="1" style="22" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="83" t="inlineStr">
+      <c r="B1" s="102" t="inlineStr">
         <is>
           <t>ПРОТОКОЛ КАЛИБРОВКИ №</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1" s="28">
-      <c r="B2" s="83" t="n"/>
-      <c r="C2" s="83" t="n"/>
-      <c r="D2" s="83" t="n"/>
-      <c r="E2" s="83" t="n"/>
-      <c r="F2" s="83" t="n"/>
-      <c r="G2" s="83" t="n"/>
-      <c r="H2" s="83" t="n"/>
-      <c r="I2" s="83" t="n"/>
-      <c r="J2" s="83" t="n"/>
-      <c r="K2" s="83" t="n"/>
-      <c r="L2" s="83" t="n"/>
-      <c r="M2" s="83" t="n"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="28">
-      <c r="A3" s="23" t="inlineStr">
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="P1" t="n">
+        <v>6.247</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="27">
+      <c r="B2" s="102" t="n"/>
+      <c r="C2" s="102" t="n"/>
+      <c r="D2" s="102" t="n"/>
+      <c r="E2" s="102" t="n"/>
+      <c r="F2" s="102" t="n"/>
+      <c r="G2" s="102" t="n"/>
+      <c r="H2" s="102" t="n"/>
+      <c r="I2" s="102" t="n"/>
+      <c r="J2" s="102" t="n"/>
+      <c r="K2" s="102" t="n"/>
+      <c r="L2" s="102" t="n"/>
+      <c r="M2" s="102" t="n"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="27">
+      <c r="A3" s="22" t="inlineStr">
         <is>
           <t>Дата калибровки:</t>
         </is>
       </c>
-      <c r="B3" s="83" t="n"/>
-      <c r="C3" s="83" t="n"/>
-      <c r="D3" s="120" t="inlineStr">
-        <is>
-          <t>23.12.2020</t>
-        </is>
-      </c>
-      <c r="E3" s="83" t="n"/>
-      <c r="F3" s="83" t="n"/>
-      <c r="G3" s="83" t="n"/>
-      <c r="J3" s="46" t="n"/>
-      <c r="K3" s="22" t="n"/>
-      <c r="M3" s="83" t="n"/>
-    </row>
-    <row r="4" hidden="1" ht="12.75" customHeight="1" s="28">
-      <c r="B4" s="5" t="n"/>
-      <c r="C4" s="5" t="n"/>
-      <c r="D4" s="14" t="n"/>
-      <c r="E4" s="5" t="n"/>
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="J4" s="46" t="n"/>
-      <c r="K4" s="22" t="n"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="28">
-      <c r="C5" s="22" t="n"/>
-      <c r="I5" s="23" t="n"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="28">
-      <c r="A6" s="45" t="inlineStr">
+      <c r="B3" s="102" t="n"/>
+      <c r="C3" s="102" t="n"/>
+      <c r="D3" s="50" t="inlineStr">
+        <is>
+          <t>27.12.2020</t>
+        </is>
+      </c>
+      <c r="E3" s="102" t="n"/>
+      <c r="F3" s="102" t="n"/>
+      <c r="G3" s="102" t="n"/>
+      <c r="J3" s="44" t="n"/>
+      <c r="K3" s="21" t="n"/>
+      <c r="M3" s="102" t="n"/>
+    </row>
+    <row r="4" hidden="1" ht="12.75" customHeight="1" s="27">
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="13" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="4" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="J4" s="44" t="n"/>
+      <c r="K4" s="21" t="n"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="27">
+      <c r="C5" s="21" t="n"/>
+      <c r="I5" s="22" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="27">
+      <c r="A6" s="43" t="inlineStr">
         <is>
           <t>МЕСТОПОЛОЖЕНИЕ</t>
         </is>
       </c>
-      <c r="B6" s="45" t="n"/>
-      <c r="C6" s="45" t="n"/>
-      <c r="H6" s="45" t="inlineStr">
+      <c r="B6" s="43" t="n"/>
+      <c r="C6" s="43" t="n"/>
+      <c r="H6" s="43" t="inlineStr">
         <is>
           <t>СРЕДСТВО ИЗМЕРЕНИЯ</t>
         </is>
       </c>
-      <c r="P6" s="23" t="n"/>
-      <c r="R6" s="22" t="n"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" s="28">
-      <c r="B7" s="23" t="n"/>
-      <c r="C7" s="23" t="n"/>
-      <c r="D7" s="22" t="n"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" s="28">
-      <c r="A8" s="15" t="inlineStr">
+      <c r="P6" s="22" t="n"/>
+      <c r="R6" s="21" t="n"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="27">
+      <c r="B7" s="22" t="n"/>
+      <c r="C7" s="22" t="n"/>
+      <c r="D7" s="21" t="n"/>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="27">
+      <c r="A8" s="14" t="inlineStr">
         <is>
           <t>Предприятие:</t>
         </is>
       </c>
-      <c r="D8" s="119" t="inlineStr">
+      <c r="D8" s="49" t="inlineStr">
         <is>
           <t>Рефтинская ГРЭС</t>
         </is>
       </c>
-      <c r="H8" s="15" t="inlineStr">
+      <c r="H8" s="14" t="inlineStr">
         <is>
           <t>Тип, модель ИП:</t>
         </is>
       </c>
-      <c r="K8" s="120" t="inlineStr">
+      <c r="K8" s="50" t="inlineStr">
         <is>
           <t>ИРТ 5920Н</t>
         </is>
       </c>
-      <c r="P8" s="14" t="n"/>
-      <c r="R8" s="14" t="n"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" s="28">
-      <c r="A9" s="15" t="inlineStr">
+      <c r="P8" s="13" t="n"/>
+      <c r="R8" s="13" t="n"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="27">
+      <c r="A9" s="14" t="inlineStr">
         <is>
           <t>Подразделение:</t>
         </is>
       </c>
-      <c r="D9" s="120" t="inlineStr">
+      <c r="D9" s="50" t="inlineStr">
         <is>
           <t>ЛМКИП</t>
         </is>
       </c>
-      <c r="F9" s="23" t="n"/>
-      <c r="G9" s="23" t="n"/>
-      <c r="H9" s="15" t="inlineStr">
+      <c r="F9" s="22" t="n"/>
+      <c r="G9" s="22" t="n"/>
+      <c r="H9" s="14" t="inlineStr">
         <is>
           <t>Заводской номер:</t>
         </is>
       </c>
-      <c r="K9" s="120" t="inlineStr">
+      <c r="K9" s="50" t="inlineStr">
         <is>
           <t>12345</t>
         </is>
       </c>
-      <c r="P9" s="14" t="n"/>
-      <c r="Q9" s="23" t="n"/>
-      <c r="R9" s="23" t="n"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" s="28">
-      <c r="A10" s="15" t="inlineStr">
+      <c r="P9" s="13" t="n"/>
+      <c r="Q9" s="22" t="n"/>
+      <c r="R9" s="22" t="n"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="27">
+      <c r="A10" s="14" t="inlineStr">
         <is>
           <t>Позиция:</t>
         </is>
       </c>
-      <c r="D10" s="120" t="inlineStr">
+      <c r="D10" s="50" t="inlineStr">
         <is>
           <t>1 ЗК-711</t>
         </is>
       </c>
-      <c r="H10" s="15" t="inlineStr">
+      <c r="H10" s="14" t="inlineStr">
         <is>
           <t>Год выпуска:</t>
         </is>
       </c>
-      <c r="K10" s="120" t="inlineStr">
+      <c r="K10" s="50" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="P10" s="45" t="n"/>
-      <c r="Q10" s="45" t="n"/>
-      <c r="R10" s="23" t="n"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" s="28">
-      <c r="E11" s="120" t="n"/>
-      <c r="K11" s="22" t="n"/>
-      <c r="O11" s="17" t="n"/>
-      <c r="P11" s="23" t="n"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" s="28">
-      <c r="A12" s="45" t="inlineStr">
+      <c r="P10" s="43" t="n"/>
+      <c r="Q10" s="43" t="n"/>
+      <c r="R10" s="22" t="n"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="27">
+      <c r="E11" s="50" t="n"/>
+      <c r="K11" s="21" t="n"/>
+      <c r="O11" s="16" t="n"/>
+      <c r="P11" s="22" t="n"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="27">
+      <c r="A12" s="43" t="inlineStr">
         <is>
           <t>КАЛИБРОВКА</t>
         </is>
       </c>
-      <c r="B12" s="45" t="n"/>
-      <c r="E12" s="22" t="n"/>
-      <c r="H12" s="45" t="inlineStr">
+      <c r="B12" s="43" t="n"/>
+      <c r="E12" s="21" t="n"/>
+      <c r="H12" s="43" t="inlineStr">
         <is>
           <t>КАЛИБРАТОР</t>
         </is>
       </c>
-      <c r="I12" s="45" t="n"/>
-      <c r="K12" s="20" t="n"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="28">
-      <c r="A13" s="23" t="n"/>
-      <c r="B13" s="23" t="n"/>
-      <c r="E13" s="22" t="n"/>
-      <c r="H13" s="23" t="n"/>
-      <c r="I13" s="23" t="n"/>
-      <c r="K13" s="22" t="n"/>
+      <c r="I12" s="43" t="n"/>
+      <c r="K12" s="19" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="27">
+      <c r="A13" s="22" t="n"/>
+      <c r="B13" s="22" t="n"/>
+      <c r="E13" s="21" t="n"/>
+      <c r="H13" s="22" t="n"/>
+      <c r="I13" s="22" t="n"/>
+      <c r="K13" s="21" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="inlineStr">
+      <c r="A14" s="14" t="inlineStr">
         <is>
           <t>Тип калибровки:</t>
         </is>
       </c>
-      <c r="B14" s="23" t="n"/>
-      <c r="E14" s="120" t="inlineStr">
+      <c r="B14" s="22" t="n"/>
+      <c r="E14" s="50" t="inlineStr">
         <is>
           <t>периодическая</t>
         </is>
       </c>
-      <c r="H14" s="14" t="inlineStr">
+      <c r="H14" s="13" t="inlineStr">
         <is>
           <t>Модель:</t>
         </is>
       </c>
-      <c r="I14" s="14" t="n"/>
+      <c r="I14" s="13" t="n"/>
       <c r="J14" t="inlineStr">
         <is>
           <t>ИКСУ-2000</t>
         </is>
       </c>
-      <c r="K14" s="120" t="n"/>
+      <c r="K14" s="50" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="inlineStr">
+      <c r="A15" s="14" t="inlineStr">
         <is>
           <t>Межкалибровочный интервал:</t>
         </is>
       </c>
-      <c r="B15" s="23" t="n"/>
-      <c r="E15" s="120" t="n">
+      <c r="B15" s="22" t="n"/>
+      <c r="E15" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="14" t="inlineStr">
+      <c r="H15" s="13" t="inlineStr">
         <is>
           <t>Заводской номер:</t>
         </is>
       </c>
-      <c r="I15" s="14" t="n"/>
-      <c r="K15" s="120" t="inlineStr">
+      <c r="I15" s="13" t="n"/>
+      <c r="K15" s="50" t="inlineStr">
         <is>
           <t>00123</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="inlineStr">
+      <c r="A16" s="14" t="inlineStr">
         <is>
           <t>Температура окр.среды:</t>
         </is>
       </c>
-      <c r="B16" s="23" t="n"/>
-      <c r="E16" s="120" t="inlineStr">
+      <c r="B16" s="22" t="n"/>
+      <c r="E16" s="50" t="inlineStr">
         <is>
           <t>23.2</t>
         </is>
       </c>
-      <c r="H16" s="14" t="n"/>
-      <c r="I16" s="14" t="n"/>
-      <c r="K16" s="14" t="n"/>
+      <c r="H16" s="13" t="n"/>
+      <c r="I16" s="13" t="n"/>
+      <c r="K16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="inlineStr">
+      <c r="A17" s="14" t="inlineStr">
         <is>
           <t>Отн. влажность воздуха:</t>
         </is>
       </c>
-      <c r="B17" s="23" t="n"/>
-      <c r="E17" s="120" t="inlineStr">
+      <c r="B17" s="22" t="n"/>
+      <c r="E17" s="50" t="inlineStr">
         <is>
           <t>83.1</t>
         </is>
       </c>
-      <c r="H17" s="14" t="n"/>
-      <c r="I17" s="14" t="n"/>
-      <c r="K17" s="14" t="n"/>
+      <c r="H17" s="13" t="n"/>
+      <c r="I17" s="13" t="n"/>
+      <c r="K17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="inlineStr">
+      <c r="A18" s="14" t="inlineStr">
         <is>
           <t>Атмосферное давление:</t>
         </is>
       </c>
-      <c r="B18" s="23" t="n"/>
-      <c r="E18" s="120" t="inlineStr">
+      <c r="B18" s="22" t="n"/>
+      <c r="E18" s="50" t="inlineStr">
         <is>
           <t>92.6</t>
         </is>
       </c>
-      <c r="H18" s="14" t="n"/>
-      <c r="I18" s="14" t="n"/>
-      <c r="K18" s="14" t="n"/>
+      <c r="H18" s="13" t="n"/>
+      <c r="I18" s="13" t="n"/>
+      <c r="K18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="23" t="n"/>
-      <c r="B19" s="23" t="n"/>
-      <c r="C19" s="23" t="n"/>
-      <c r="D19" s="23" t="n"/>
-      <c r="E19" s="23" t="n"/>
-      <c r="F19" s="23" t="n"/>
-      <c r="G19" s="23" t="n"/>
-      <c r="H19" s="23" t="n"/>
-      <c r="I19" s="23" t="n"/>
+      <c r="A19" s="22" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="22" t="n"/>
+      <c r="D19" s="22" t="n"/>
+      <c r="E19" s="22" t="n"/>
+      <c r="F19" s="22" t="n"/>
+      <c r="G19" s="22" t="n"/>
+      <c r="H19" s="22" t="n"/>
+      <c r="I19" s="22" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="23" t="n"/>
-      <c r="B20" s="83" t="inlineStr">
+      <c r="A20" s="22" t="n"/>
+      <c r="B20" s="102" t="inlineStr">
         <is>
           <t>Операции калибровки</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A21" s="23" t="n"/>
-      <c r="B21" s="23" t="n"/>
-      <c r="C21" s="23" t="n"/>
-      <c r="D21" s="23" t="n"/>
-      <c r="E21" s="23" t="n"/>
-      <c r="F21" s="23" t="n"/>
-      <c r="G21" s="23" t="n"/>
-      <c r="H21" s="23" t="n"/>
-      <c r="I21" s="23" t="n"/>
+    <row r="21" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A21" s="22" t="n"/>
+      <c r="B21" s="22" t="n"/>
+      <c r="C21" s="22" t="n"/>
+      <c r="D21" s="22" t="n"/>
+      <c r="E21" s="22" t="n"/>
+      <c r="F21" s="22" t="n"/>
+      <c r="G21" s="22" t="n"/>
+      <c r="H21" s="22" t="n"/>
+      <c r="I21" s="22" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="84" t="inlineStr">
+      <c r="A22" s="103" t="inlineStr">
         <is>
           <t>Наименование операции</t>
         </is>
       </c>
-      <c r="B22" s="147" t="n"/>
-      <c r="C22" s="147" t="n"/>
-      <c r="D22" s="147" t="n"/>
-      <c r="E22" s="147" t="n"/>
-      <c r="F22" s="148" t="n"/>
-      <c r="G22" s="149" t="inlineStr">
+      <c r="B22" s="150" t="n"/>
+      <c r="C22" s="150" t="n"/>
+      <c r="D22" s="150" t="n"/>
+      <c r="E22" s="150" t="n"/>
+      <c r="F22" s="151" t="n"/>
+      <c r="G22" s="152" t="inlineStr">
         <is>
           <t>Результат</t>
         </is>
       </c>
-      <c r="H22" s="147" t="n"/>
-      <c r="I22" s="147" t="n"/>
-      <c r="J22" s="147" t="n"/>
-      <c r="K22" s="147" t="n"/>
-      <c r="L22" s="147" t="n"/>
-      <c r="M22" s="147" t="n"/>
-      <c r="N22" s="150" t="n"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A23" s="151" t="n"/>
-      <c r="B23" s="152" t="n"/>
-      <c r="C23" s="152" t="n"/>
-      <c r="D23" s="152" t="n"/>
-      <c r="E23" s="152" t="n"/>
-      <c r="F23" s="153" t="n"/>
-      <c r="G23" s="154" t="n"/>
-      <c r="H23" s="155" t="n"/>
-      <c r="I23" s="155" t="n"/>
-      <c r="J23" s="155" t="n"/>
-      <c r="K23" s="155" t="n"/>
-      <c r="L23" s="155" t="n"/>
-      <c r="M23" s="155" t="n"/>
-      <c r="N23" s="156" t="n"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1" s="28">
-      <c r="A24" s="96" t="inlineStr">
+      <c r="H22" s="150" t="n"/>
+      <c r="I22" s="150" t="n"/>
+      <c r="J22" s="150" t="n"/>
+      <c r="K22" s="150" t="n"/>
+      <c r="L22" s="150" t="n"/>
+      <c r="M22" s="150" t="n"/>
+      <c r="N22" s="153" t="n"/>
+    </row>
+    <row r="23" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A23" s="154" t="n"/>
+      <c r="B23" s="155" t="n"/>
+      <c r="C23" s="155" t="n"/>
+      <c r="D23" s="155" t="n"/>
+      <c r="E23" s="155" t="n"/>
+      <c r="F23" s="156" t="n"/>
+      <c r="G23" s="157" t="n"/>
+      <c r="H23" s="158" t="n"/>
+      <c r="I23" s="158" t="n"/>
+      <c r="J23" s="158" t="n"/>
+      <c r="K23" s="158" t="n"/>
+      <c r="L23" s="158" t="n"/>
+      <c r="M23" s="158" t="n"/>
+      <c r="N23" s="159" t="n"/>
+    </row>
+    <row r="24" ht="12.75" customHeight="1" s="27">
+      <c r="A24" s="115" t="inlineStr">
         <is>
           <t>Внешний осмотр</t>
         </is>
       </c>
-      <c r="F24" s="157" t="n"/>
-      <c r="G24" s="158" t="inlineStr">
+      <c r="F24" s="160" t="n"/>
+      <c r="G24" s="161" t="inlineStr">
         <is>
           <t>соответствует</t>
         </is>
       </c>
-      <c r="H24" s="147" t="n"/>
-      <c r="I24" s="147" t="n"/>
-      <c r="J24" s="147" t="n"/>
-      <c r="K24" s="147" t="n"/>
-      <c r="L24" s="147" t="n"/>
-      <c r="M24" s="147" t="n"/>
-      <c r="N24" s="150" t="n"/>
+      <c r="H24" s="150" t="n"/>
+      <c r="I24" s="150" t="n"/>
+      <c r="J24" s="150" t="n"/>
+      <c r="K24" s="150" t="n"/>
+      <c r="L24" s="150" t="n"/>
+      <c r="M24" s="150" t="n"/>
+      <c r="N24" s="153" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="151" t="n"/>
-      <c r="B25" s="152" t="n"/>
-      <c r="C25" s="152" t="n"/>
-      <c r="D25" s="152" t="n"/>
-      <c r="E25" s="152" t="n"/>
-      <c r="F25" s="153" t="n"/>
-      <c r="G25" s="159" t="n"/>
-      <c r="H25" s="160" t="n"/>
-      <c r="I25" s="160" t="n"/>
-      <c r="J25" s="160" t="n"/>
-      <c r="K25" s="160" t="n"/>
-      <c r="L25" s="160" t="n"/>
-      <c r="M25" s="160" t="n"/>
-      <c r="N25" s="161" t="n"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1" s="28">
-      <c r="A26" s="109" t="inlineStr">
+      <c r="A25" s="154" t="n"/>
+      <c r="B25" s="155" t="n"/>
+      <c r="C25" s="155" t="n"/>
+      <c r="D25" s="155" t="n"/>
+      <c r="E25" s="155" t="n"/>
+      <c r="F25" s="156" t="n"/>
+      <c r="G25" s="162" t="n"/>
+      <c r="H25" s="163" t="n"/>
+      <c r="I25" s="163" t="n"/>
+      <c r="J25" s="163" t="n"/>
+      <c r="K25" s="163" t="n"/>
+      <c r="L25" s="163" t="n"/>
+      <c r="M25" s="163" t="n"/>
+      <c r="N25" s="164" t="n"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1" s="27">
+      <c r="A26" s="128" t="inlineStr">
         <is>
           <t>Опробование</t>
         </is>
       </c>
-      <c r="F26" s="157" t="n"/>
-      <c r="G26" s="162" t="inlineStr">
+      <c r="F26" s="160" t="n"/>
+      <c r="G26" s="165" t="inlineStr">
         <is>
           <t>соответствует</t>
         </is>
       </c>
-      <c r="N26" s="163" t="n"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A27" s="151" t="n"/>
-      <c r="B27" s="152" t="n"/>
-      <c r="C27" s="152" t="n"/>
-      <c r="D27" s="152" t="n"/>
-      <c r="E27" s="152" t="n"/>
-      <c r="F27" s="153" t="n"/>
-      <c r="G27" s="154" t="n"/>
-      <c r="H27" s="155" t="n"/>
-      <c r="I27" s="155" t="n"/>
-      <c r="J27" s="155" t="n"/>
-      <c r="K27" s="155" t="n"/>
-      <c r="L27" s="155" t="n"/>
-      <c r="M27" s="155" t="n"/>
-      <c r="N27" s="156" t="n"/>
+      <c r="N26" s="166" t="n"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A27" s="154" t="n"/>
+      <c r="B27" s="155" t="n"/>
+      <c r="C27" s="155" t="n"/>
+      <c r="D27" s="155" t="n"/>
+      <c r="E27" s="155" t="n"/>
+      <c r="F27" s="156" t="n"/>
+      <c r="G27" s="157" t="n"/>
+      <c r="H27" s="158" t="n"/>
+      <c r="I27" s="158" t="n"/>
+      <c r="J27" s="158" t="n"/>
+      <c r="K27" s="158" t="n"/>
+      <c r="L27" s="158" t="n"/>
+      <c r="M27" s="158" t="n"/>
+      <c r="N27" s="159" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="24" t="n"/>
-      <c r="B28" s="24" t="n"/>
-      <c r="C28" s="24" t="n"/>
-      <c r="D28" s="24" t="n"/>
-      <c r="E28" s="24" t="n"/>
-      <c r="F28" s="24" t="n"/>
-      <c r="G28" s="25" t="n"/>
-      <c r="H28" s="25" t="n"/>
-      <c r="I28" s="25" t="n"/>
-      <c r="J28" s="25" t="n"/>
-      <c r="K28" s="25" t="n"/>
-      <c r="L28" s="25" t="n"/>
-      <c r="M28" s="25" t="n"/>
-      <c r="N28" s="25" t="n"/>
-      <c r="O28" s="25" t="n"/>
-    </row>
-    <row r="29" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A29" s="45" t="inlineStr">
+      <c r="A28" s="23" t="n"/>
+      <c r="B28" s="23" t="n"/>
+      <c r="C28" s="23" t="n"/>
+      <c r="D28" s="23" t="n"/>
+      <c r="E28" s="23" t="n"/>
+      <c r="F28" s="23" t="n"/>
+      <c r="G28" s="24" t="n"/>
+      <c r="H28" s="24" t="n"/>
+      <c r="I28" s="24" t="n"/>
+      <c r="J28" s="24" t="n"/>
+      <c r="K28" s="24" t="n"/>
+      <c r="L28" s="24" t="n"/>
+      <c r="M28" s="24" t="n"/>
+      <c r="N28" s="24" t="n"/>
+      <c r="O28" s="24" t="n"/>
+    </row>
+    <row r="29" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A29" s="43" t="inlineStr">
         <is>
           <t>Проверка основной погрешности измерительного  канала ИРТ</t>
         </is>
       </c>
-      <c r="B29" s="27" t="n"/>
+      <c r="B29" s="26" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="164" t="n"/>
-      <c r="B30" s="147" t="n"/>
-      <c r="C30" s="147" t="n"/>
-      <c r="D30" s="147" t="n"/>
-      <c r="E30" s="147" t="n"/>
-      <c r="F30" s="147" t="n"/>
-      <c r="G30" s="150" t="n"/>
-      <c r="H30" s="165" t="inlineStr">
+      <c r="A30" s="167" t="n"/>
+      <c r="B30" s="150" t="n"/>
+      <c r="C30" s="150" t="n"/>
+      <c r="D30" s="150" t="n"/>
+      <c r="E30" s="150" t="n"/>
+      <c r="F30" s="150" t="n"/>
+      <c r="G30" s="153" t="n"/>
+      <c r="H30" s="168" t="inlineStr">
         <is>
           <t>тип</t>
         </is>
       </c>
-      <c r="I30" s="147" t="n"/>
-      <c r="J30" s="147" t="n"/>
-      <c r="K30" s="166" t="inlineStr">
+      <c r="I30" s="150" t="n"/>
+      <c r="J30" s="150" t="n"/>
+      <c r="K30" s="169" t="inlineStr">
         <is>
           <t>значение</t>
         </is>
       </c>
-      <c r="L30" s="167" t="n"/>
-      <c r="M30" s="167" t="n"/>
-      <c r="N30" s="168" t="n"/>
-    </row>
-    <row r="31" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A31" s="154" t="n"/>
-      <c r="B31" s="155" t="n"/>
-      <c r="C31" s="155" t="n"/>
-      <c r="D31" s="155" t="n"/>
-      <c r="E31" s="155" t="n"/>
-      <c r="F31" s="155" t="n"/>
-      <c r="G31" s="156" t="n"/>
-      <c r="H31" s="155" t="n"/>
-      <c r="I31" s="155" t="n"/>
-      <c r="J31" s="155" t="n"/>
-      <c r="K31" s="169" t="inlineStr">
+      <c r="L30" s="170" t="n"/>
+      <c r="M30" s="170" t="n"/>
+      <c r="N30" s="171" t="n"/>
+    </row>
+    <row r="31" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A31" s="157" t="n"/>
+      <c r="B31" s="158" t="n"/>
+      <c r="C31" s="158" t="n"/>
+      <c r="D31" s="158" t="n"/>
+      <c r="E31" s="158" t="n"/>
+      <c r="F31" s="158" t="n"/>
+      <c r="G31" s="159" t="n"/>
+      <c r="H31" s="158" t="n"/>
+      <c r="I31" s="158" t="n"/>
+      <c r="J31" s="158" t="n"/>
+      <c r="K31" s="172" t="inlineStr">
         <is>
           <t>нижнее</t>
         </is>
       </c>
-      <c r="L31" s="170" t="n"/>
-      <c r="M31" s="171" t="inlineStr">
+      <c r="L31" s="173" t="n"/>
+      <c r="M31" s="174" t="inlineStr">
         <is>
           <t>верхнее</t>
         </is>
       </c>
-      <c r="N31" s="156" t="n"/>
+      <c r="N31" s="159" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="29" t="inlineStr">
+      <c r="A32" s="28" t="inlineStr">
         <is>
           <t>входной сигнал</t>
         </is>
       </c>
-      <c r="B32" s="31" t="n"/>
-      <c r="C32" s="31" t="n"/>
-      <c r="D32" s="31" t="n"/>
-      <c r="E32" s="31" t="n"/>
-      <c r="F32" s="31" t="n"/>
-      <c r="G32" s="32" t="n"/>
-      <c r="H32" s="54" t="inlineStr">
+      <c r="B32" s="30" t="n"/>
+      <c r="C32" s="30" t="n"/>
+      <c r="D32" s="30" t="n"/>
+      <c r="E32" s="30" t="n"/>
+      <c r="F32" s="30" t="n"/>
+      <c r="G32" s="31" t="n"/>
+      <c r="H32" s="60" t="inlineStr">
         <is>
           <t>ТП-ХК</t>
         </is>
       </c>
-      <c r="I32" s="167" t="n"/>
-      <c r="J32" s="167" t="n"/>
-      <c r="K32" s="128" t="inlineStr">
+      <c r="I32" s="170" t="n"/>
+      <c r="J32" s="170" t="n"/>
+      <c r="K32" s="100" t="inlineStr">
         <is>
           <t>-50</t>
         </is>
       </c>
-      <c r="L32" s="172" t="n"/>
-      <c r="M32" s="130" t="inlineStr">
+      <c r="L32" s="175" t="n"/>
+      <c r="M32" s="101" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N32" s="168" t="n"/>
+      <c r="N32" s="171" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="33" t="inlineStr">
+      <c r="A33" s="32" t="inlineStr">
         <is>
           <t>выходной сигнал</t>
         </is>
       </c>
-      <c r="B33" s="35" t="n"/>
-      <c r="C33" s="35" t="n"/>
-      <c r="D33" s="35" t="n"/>
-      <c r="E33" s="35" t="n"/>
-      <c r="F33" s="35" t="n"/>
-      <c r="G33" s="67" t="n"/>
-      <c r="H33" s="55" t="inlineStr">
+      <c r="B33" s="34" t="n"/>
+      <c r="C33" s="34" t="n"/>
+      <c r="D33" s="34" t="n"/>
+      <c r="E33" s="34" t="n"/>
+      <c r="F33" s="34" t="n"/>
+      <c r="G33" s="83" t="n"/>
+      <c r="H33" s="64" t="inlineStr">
         <is>
           <t>°С</t>
         </is>
       </c>
-      <c r="I33" s="173" t="n"/>
-      <c r="J33" s="173" t="n"/>
-      <c r="K33" s="123" t="inlineStr">
+      <c r="I33" s="176" t="n"/>
+      <c r="J33" s="176" t="n"/>
+      <c r="K33" s="82" t="inlineStr">
         <is>
           <t>-50</t>
         </is>
       </c>
-      <c r="L33" s="173" t="n"/>
-      <c r="M33" s="174" t="inlineStr">
+      <c r="L33" s="176" t="n"/>
+      <c r="M33" s="177" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="N33" s="175" t="n"/>
+      <c r="N33" s="178" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="33" t="inlineStr">
+      <c r="A34" s="32" t="inlineStr">
         <is>
           <t>передаточная характеристика</t>
         </is>
       </c>
-      <c r="B34" s="35" t="n"/>
-      <c r="C34" s="38" t="n"/>
-      <c r="D34" s="35" t="n"/>
-      <c r="E34" s="35" t="n"/>
-      <c r="F34" s="35" t="n"/>
-      <c r="G34" s="38" t="n"/>
-      <c r="H34" s="176" t="inlineStr">
+      <c r="B34" s="34" t="n"/>
+      <c r="C34" s="36" t="n"/>
+      <c r="D34" s="34" t="n"/>
+      <c r="E34" s="34" t="n"/>
+      <c r="F34" s="34" t="n"/>
+      <c r="G34" s="36" t="n"/>
+      <c r="H34" s="179" t="inlineStr">
         <is>
           <t>линейная</t>
         </is>
       </c>
-      <c r="I34" s="173" t="n"/>
-      <c r="J34" s="173" t="n"/>
-      <c r="K34" s="173" t="n"/>
-      <c r="L34" s="173" t="n"/>
-      <c r="M34" s="173" t="n"/>
-      <c r="N34" s="175" t="n"/>
-    </row>
-    <row r="35" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A35" s="39" t="inlineStr">
+      <c r="I34" s="176" t="n"/>
+      <c r="J34" s="176" t="n"/>
+      <c r="K34" s="176" t="n"/>
+      <c r="L34" s="176" t="n"/>
+      <c r="M34" s="176" t="n"/>
+      <c r="N34" s="178" t="n"/>
+    </row>
+    <row r="35" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A35" s="37" t="inlineStr">
         <is>
           <t>допускаемая основная приведенная погрешность, %</t>
         </is>
       </c>
-      <c r="B35" s="40" t="n"/>
-      <c r="C35" s="40" t="n"/>
-      <c r="D35" s="40" t="n"/>
-      <c r="E35" s="40" t="n"/>
-      <c r="F35" s="40" t="n"/>
-      <c r="G35" s="41" t="n"/>
-      <c r="H35" s="177" t="n"/>
-      <c r="I35" s="178" t="n"/>
-      <c r="J35" s="178" t="n"/>
-      <c r="K35" s="178" t="n"/>
-      <c r="L35" s="178" t="n"/>
-      <c r="M35" s="178" t="n"/>
-      <c r="N35" s="179" t="n"/>
+      <c r="B35" s="38" t="n"/>
+      <c r="C35" s="38" t="n"/>
+      <c r="D35" s="38" t="n"/>
+      <c r="E35" s="38" t="n"/>
+      <c r="F35" s="38" t="n"/>
+      <c r="G35" s="39" t="n"/>
+      <c r="H35" s="180" t="n"/>
+      <c r="I35" s="181" t="n"/>
+      <c r="J35" s="181" t="n"/>
+      <c r="K35" s="181" t="n"/>
+      <c r="L35" s="181" t="n"/>
+      <c r="M35" s="181" t="n"/>
+      <c r="N35" s="182" t="n"/>
     </row>
     <row r="36">
-      <c r="C36" s="42" t="n"/>
-      <c r="D36" s="42" t="n"/>
-      <c r="E36" s="42" t="n"/>
-      <c r="F36" s="42" t="n"/>
-      <c r="G36" s="42" t="n"/>
-    </row>
-    <row r="37" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A37" s="23" t="inlineStr">
+      <c r="C36" s="40" t="n"/>
+      <c r="D36" s="40" t="n"/>
+      <c r="E36" s="40" t="n"/>
+      <c r="F36" s="40" t="n"/>
+      <c r="G36" s="40" t="n"/>
+    </row>
+    <row r="37" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A37" s="22" t="inlineStr">
         <is>
           <t>Данные калибровки</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="68" t="inlineStr">
+      <c r="A38" s="84" t="inlineStr">
         <is>
           <t>поверяемая точка</t>
         </is>
       </c>
-      <c r="B38" s="167" t="n"/>
-      <c r="C38" s="167" t="n"/>
-      <c r="D38" s="172" t="n"/>
-      <c r="E38" s="180" t="inlineStr">
+      <c r="B38" s="170" t="n"/>
+      <c r="C38" s="170" t="n"/>
+      <c r="D38" s="175" t="n"/>
+      <c r="E38" s="183" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное  выходного сигнала, </t>
         </is>
       </c>
-      <c r="F38" s="148" t="n"/>
-      <c r="G38" s="180" t="inlineStr">
+      <c r="F38" s="151" t="n"/>
+      <c r="G38" s="183" t="inlineStr">
         <is>
           <t xml:space="preserve">значение выходного сигнала, </t>
         </is>
       </c>
-      <c r="H38" s="148" t="n"/>
-      <c r="I38" s="69" t="inlineStr">
+      <c r="H38" s="151" t="n"/>
+      <c r="I38" s="85" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное отклонение, </t>
         </is>
       </c>
-      <c r="J38" s="148" t="n"/>
-      <c r="K38" s="69" t="inlineStr">
+      <c r="J38" s="151" t="n"/>
+      <c r="K38" s="85" t="inlineStr">
         <is>
           <t xml:space="preserve">допускаемое абсолютное отклонение, </t>
         </is>
       </c>
-      <c r="L38" s="148" t="n"/>
-      <c r="M38" s="69" t="inlineStr">
+      <c r="L38" s="151" t="n"/>
+      <c r="M38" s="85" t="inlineStr">
         <is>
           <t>относительное отклонение (приведенное), %</t>
         </is>
       </c>
-      <c r="N38" s="148" t="n"/>
-      <c r="O38" s="43" t="n"/>
+      <c r="N38" s="151" t="n"/>
+      <c r="O38" s="41" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="81" t="inlineStr">
+      <c r="A39" s="97" t="inlineStr">
         <is>
           <t>% от диапа-зона входного сигнала</t>
         </is>
       </c>
-      <c r="B39" s="181" t="n"/>
-      <c r="C39" s="62" t="inlineStr">
+      <c r="B39" s="184" t="n"/>
+      <c r="C39" s="78" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение входного, </t>
         </is>
       </c>
-      <c r="D39" s="181" t="n"/>
-      <c r="E39" s="182" t="n"/>
-      <c r="F39" s="157" t="n"/>
-      <c r="G39" s="182" t="n"/>
-      <c r="H39" s="157" t="n"/>
-      <c r="I39" s="182" t="n"/>
-      <c r="J39" s="157" t="n"/>
-      <c r="K39" s="182" t="n"/>
-      <c r="L39" s="157" t="n"/>
-      <c r="M39" s="182" t="n"/>
-      <c r="N39" s="157" t="n"/>
-      <c r="O39" s="43" t="n"/>
+      <c r="D39" s="184" t="n"/>
+      <c r="E39" s="185" t="n"/>
+      <c r="F39" s="160" t="n"/>
+      <c r="G39" s="185" t="n"/>
+      <c r="H39" s="160" t="n"/>
+      <c r="I39" s="185" t="n"/>
+      <c r="J39" s="160" t="n"/>
+      <c r="K39" s="185" t="n"/>
+      <c r="L39" s="160" t="n"/>
+      <c r="M39" s="185" t="n"/>
+      <c r="N39" s="160" t="n"/>
+      <c r="O39" s="41" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="183" t="n"/>
-      <c r="B40" s="157" t="n"/>
-      <c r="C40" s="182" t="n"/>
-      <c r="D40" s="157" t="n"/>
-      <c r="E40" s="182" t="n"/>
-      <c r="F40" s="157" t="n"/>
-      <c r="G40" s="182" t="n"/>
-      <c r="H40" s="157" t="n"/>
-      <c r="I40" s="182" t="n"/>
-      <c r="J40" s="157" t="n"/>
-      <c r="K40" s="182" t="n"/>
-      <c r="L40" s="157" t="n"/>
-      <c r="M40" s="182" t="n"/>
-      <c r="N40" s="157" t="n"/>
-      <c r="O40" s="43" t="n"/>
-    </row>
-    <row r="41" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A41" s="151" t="n"/>
-      <c r="B41" s="153" t="n"/>
-      <c r="C41" s="184" t="n"/>
-      <c r="D41" s="153" t="n"/>
-      <c r="E41" s="185" t="n"/>
-      <c r="F41" s="170" t="n"/>
-      <c r="G41" s="185" t="n"/>
-      <c r="H41" s="170" t="n"/>
-      <c r="I41" s="184" t="n"/>
-      <c r="J41" s="153" t="n"/>
-      <c r="K41" s="184" t="n"/>
-      <c r="L41" s="153" t="n"/>
-      <c r="M41" s="184" t="n"/>
-      <c r="N41" s="153" t="n"/>
-      <c r="O41" s="43" t="n"/>
-    </row>
-    <row r="42" ht="15" customHeight="1" s="28">
-      <c r="A42" s="127" t="n">
+      <c r="A40" s="186" t="n"/>
+      <c r="B40" s="160" t="n"/>
+      <c r="C40" s="185" t="n"/>
+      <c r="D40" s="160" t="n"/>
+      <c r="E40" s="185" t="n"/>
+      <c r="F40" s="160" t="n"/>
+      <c r="G40" s="185" t="n"/>
+      <c r="H40" s="160" t="n"/>
+      <c r="I40" s="185" t="n"/>
+      <c r="J40" s="160" t="n"/>
+      <c r="K40" s="185" t="n"/>
+      <c r="L40" s="160" t="n"/>
+      <c r="M40" s="185" t="n"/>
+      <c r="N40" s="160" t="n"/>
+      <c r="O40" s="41" t="n"/>
+    </row>
+    <row r="41" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A41" s="154" t="n"/>
+      <c r="B41" s="156" t="n"/>
+      <c r="C41" s="187" t="n"/>
+      <c r="D41" s="156" t="n"/>
+      <c r="E41" s="188" t="n"/>
+      <c r="F41" s="173" t="n"/>
+      <c r="G41" s="188" t="n"/>
+      <c r="H41" s="173" t="n"/>
+      <c r="I41" s="187" t="n"/>
+      <c r="J41" s="156" t="n"/>
+      <c r="K41" s="187" t="n"/>
+      <c r="L41" s="156" t="n"/>
+      <c r="M41" s="187" t="n"/>
+      <c r="N41" s="156" t="n"/>
+      <c r="O41" s="41" t="n"/>
+    </row>
+    <row r="42" ht="15" customHeight="1" s="27">
+      <c r="A42" s="138" t="n">
         <v>5</v>
       </c>
-      <c r="B42" s="172" t="n"/>
-      <c r="C42" s="129" t="inlineStr">
-        <is>
-          <t>-17.5</t>
-        </is>
-      </c>
-      <c r="D42" s="172" t="n"/>
-      <c r="E42" s="128" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F42" s="172" t="n"/>
-      <c r="G42" s="128" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="H42" s="172" t="n"/>
-      <c r="I42" s="128" t="n"/>
-      <c r="J42" s="172" t="n"/>
-      <c r="K42" s="128" t="n"/>
-      <c r="L42" s="172" t="n"/>
-      <c r="M42" s="128" t="n"/>
-      <c r="N42" s="172" t="n"/>
-      <c r="O42" s="43" t="n"/>
-    </row>
-    <row r="43" ht="15" customHeight="1" s="28">
-      <c r="A43" s="131" t="n">
+      <c r="B42" s="175" t="n"/>
+      <c r="C42" s="147" t="inlineStr">
+        <is>
+          <t>-17,500</t>
+        </is>
+      </c>
+      <c r="D42" s="175" t="n"/>
+      <c r="E42" s="189" t="inlineStr">
+        <is>
+          <t>2,500</t>
+        </is>
+      </c>
+      <c r="F42" s="175" t="n"/>
+      <c r="G42" s="189" t="inlineStr">
+        <is>
+          <t>2,300</t>
+        </is>
+      </c>
+      <c r="H42" s="175" t="n"/>
+      <c r="I42" s="100" t="n"/>
+      <c r="J42" s="175" t="n"/>
+      <c r="K42" s="100" t="n"/>
+      <c r="L42" s="175" t="n"/>
+      <c r="M42" s="100" t="n"/>
+      <c r="N42" s="175" t="n"/>
+      <c r="O42" s="41" t="n"/>
+    </row>
+    <row r="43" ht="15" customHeight="1" s="27">
+      <c r="A43" s="68" t="n">
         <v>25</v>
       </c>
-      <c r="B43" s="153" t="n"/>
-      <c r="C43" s="133" t="inlineStr">
-        <is>
-          <t>112.5</t>
-        </is>
-      </c>
-      <c r="D43" s="153" t="n"/>
-      <c r="E43" s="132" t="inlineStr">
-        <is>
-          <t>212.5</t>
-        </is>
-      </c>
-      <c r="F43" s="153" t="n"/>
-      <c r="G43" s="132" t="inlineStr">
-        <is>
-          <t>210.00</t>
-        </is>
-      </c>
-      <c r="H43" s="153" t="n"/>
-      <c r="I43" s="132" t="n"/>
-      <c r="J43" s="153" t="n"/>
-      <c r="K43" s="132" t="n"/>
-      <c r="L43" s="153" t="n"/>
-      <c r="M43" s="132" t="n"/>
-      <c r="N43" s="153" t="n"/>
-      <c r="O43" s="43" t="n"/>
-    </row>
-    <row r="44" ht="15" customHeight="1" s="28">
-      <c r="A44" s="131" t="n">
+      <c r="B43" s="156" t="n"/>
+      <c r="C43" s="141" t="inlineStr">
+        <is>
+          <t>112,500</t>
+        </is>
+      </c>
+      <c r="D43" s="156" t="n"/>
+      <c r="E43" s="190" t="inlineStr">
+        <is>
+          <t>212,500</t>
+        </is>
+      </c>
+      <c r="F43" s="156" t="n"/>
+      <c r="G43" s="190" t="inlineStr">
+        <is>
+          <t>210,000</t>
+        </is>
+      </c>
+      <c r="H43" s="156" t="n"/>
+      <c r="I43" s="69" t="n"/>
+      <c r="J43" s="156" t="n"/>
+      <c r="K43" s="69" t="n"/>
+      <c r="L43" s="156" t="n"/>
+      <c r="M43" s="69" t="n"/>
+      <c r="N43" s="156" t="n"/>
+      <c r="O43" s="41" t="n"/>
+    </row>
+    <row r="44" ht="15" customHeight="1" s="27">
+      <c r="A44" s="68" t="n">
         <v>50</v>
       </c>
-      <c r="B44" s="153" t="n"/>
-      <c r="C44" s="133" t="inlineStr">
-        <is>
-          <t>275.0</t>
-        </is>
-      </c>
-      <c r="D44" s="153" t="n"/>
-      <c r="E44" s="132" t="inlineStr">
-        <is>
-          <t>475.0</t>
-        </is>
-      </c>
-      <c r="F44" s="153" t="n"/>
-      <c r="G44" s="132" t="inlineStr">
-        <is>
-          <t>476</t>
-        </is>
-      </c>
-      <c r="H44" s="153" t="n"/>
-      <c r="I44" s="132" t="n"/>
-      <c r="J44" s="153" t="n"/>
-      <c r="K44" s="132" t="n"/>
-      <c r="L44" s="153" t="n"/>
-      <c r="M44" s="132" t="n"/>
-      <c r="N44" s="153" t="n"/>
-      <c r="O44" s="43" t="n"/>
-    </row>
-    <row r="45" ht="15" customHeight="1" s="28">
-      <c r="A45" s="131" t="n">
+      <c r="B44" s="156" t="n"/>
+      <c r="C44" s="141" t="inlineStr">
+        <is>
+          <t>275,000</t>
+        </is>
+      </c>
+      <c r="D44" s="156" t="n"/>
+      <c r="E44" s="190" t="inlineStr">
+        <is>
+          <t>475,000</t>
+        </is>
+      </c>
+      <c r="F44" s="156" t="n"/>
+      <c r="G44" s="190" t="inlineStr">
+        <is>
+          <t>476,000</t>
+        </is>
+      </c>
+      <c r="H44" s="156" t="n"/>
+      <c r="I44" s="69" t="n"/>
+      <c r="J44" s="156" t="n"/>
+      <c r="K44" s="69" t="n"/>
+      <c r="L44" s="156" t="n"/>
+      <c r="M44" s="69" t="n"/>
+      <c r="N44" s="156" t="n"/>
+      <c r="O44" s="41" t="n"/>
+    </row>
+    <row r="45" ht="15" customHeight="1" s="27">
+      <c r="A45" s="68" t="n">
         <v>75</v>
       </c>
-      <c r="B45" s="153" t="n"/>
-      <c r="C45" s="133" t="inlineStr">
-        <is>
-          <t>437.5</t>
-        </is>
-      </c>
-      <c r="D45" s="153" t="n"/>
-      <c r="E45" s="132" t="inlineStr">
-        <is>
-          <t>737.5</t>
-        </is>
-      </c>
-      <c r="F45" s="153" t="n"/>
-      <c r="G45" s="132" t="inlineStr">
-        <is>
-          <t>736.98</t>
-        </is>
-      </c>
-      <c r="H45" s="153" t="n"/>
-      <c r="I45" s="132" t="n"/>
-      <c r="J45" s="153" t="n"/>
-      <c r="K45" s="132" t="n"/>
-      <c r="L45" s="153" t="n"/>
-      <c r="M45" s="132" t="n"/>
-      <c r="N45" s="153" t="n"/>
-      <c r="O45" s="43" t="n"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1" s="28" thickBot="1">
-      <c r="A46" s="137" t="n">
+      <c r="B45" s="156" t="n"/>
+      <c r="C45" s="141" t="inlineStr">
+        <is>
+          <t>437,500</t>
+        </is>
+      </c>
+      <c r="D45" s="156" t="n"/>
+      <c r="E45" s="190" t="inlineStr">
+        <is>
+          <t>737,500</t>
+        </is>
+      </c>
+      <c r="F45" s="156" t="n"/>
+      <c r="G45" s="190" t="inlineStr">
+        <is>
+          <t>736,980</t>
+        </is>
+      </c>
+      <c r="H45" s="156" t="n"/>
+      <c r="I45" s="69" t="n"/>
+      <c r="J45" s="156" t="n"/>
+      <c r="K45" s="69" t="n"/>
+      <c r="L45" s="156" t="n"/>
+      <c r="M45" s="69" t="n"/>
+      <c r="N45" s="156" t="n"/>
+      <c r="O45" s="41" t="n"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1" s="27" thickBot="1">
+      <c r="A46" s="56" t="n">
         <v>95</v>
       </c>
-      <c r="B46" s="170" t="n"/>
-      <c r="C46" s="139" t="inlineStr">
-        <is>
-          <t>567.5</t>
-        </is>
-      </c>
-      <c r="D46" s="170" t="n"/>
-      <c r="E46" s="138" t="inlineStr">
-        <is>
-          <t>947.5</t>
-        </is>
-      </c>
-      <c r="F46" s="170" t="n"/>
-      <c r="G46" s="138" t="inlineStr">
-        <is>
-          <t>947.6</t>
-        </is>
-      </c>
-      <c r="H46" s="170" t="n"/>
-      <c r="I46" s="138" t="n"/>
-      <c r="J46" s="170" t="n"/>
-      <c r="K46" s="138" t="n"/>
-      <c r="L46" s="170" t="n"/>
-      <c r="M46" s="138" t="n"/>
-      <c r="N46" s="170" t="n"/>
-    </row>
-    <row r="48" ht="12.75" customHeight="1" s="28" thickBot="1">
-      <c r="A48" s="45" t="inlineStr">
+      <c r="B46" s="173" t="n"/>
+      <c r="C46" s="144" t="inlineStr">
+        <is>
+          <t>567,500</t>
+        </is>
+      </c>
+      <c r="D46" s="173" t="n"/>
+      <c r="E46" s="191" t="inlineStr">
+        <is>
+          <t>947,500</t>
+        </is>
+      </c>
+      <c r="F46" s="173" t="n"/>
+      <c r="G46" s="191" t="inlineStr">
+        <is>
+          <t>947,600</t>
+        </is>
+      </c>
+      <c r="H46" s="173" t="n"/>
+      <c r="I46" s="57" t="n"/>
+      <c r="J46" s="173" t="n"/>
+      <c r="K46" s="57" t="n"/>
+      <c r="L46" s="173" t="n"/>
+      <c r="M46" s="57" t="n"/>
+      <c r="N46" s="173" t="n"/>
+    </row>
+    <row r="48" ht="12.75" customHeight="1" s="27" thickBot="1">
+      <c r="A48" s="43" t="inlineStr">
         <is>
           <t>Встроенный источник напряжения 24В(без нагрузки)</t>
         </is>
       </c>
-      <c r="B48" s="23" t="n"/>
-      <c r="C48" s="27" t="n"/>
-    </row>
-    <row r="49" ht="12.75" customHeight="1" s="28">
-      <c r="A49" s="164" t="n"/>
-      <c r="B49" s="147" t="n"/>
-      <c r="C49" s="147" t="n"/>
-      <c r="D49" s="147" t="n"/>
-      <c r="E49" s="147" t="n"/>
-      <c r="F49" s="147" t="n"/>
-      <c r="G49" s="150" t="n"/>
-      <c r="H49" s="165" t="inlineStr">
+      <c r="B48" s="22" t="n"/>
+      <c r="C48" s="26" t="n"/>
+    </row>
+    <row r="49" ht="12.75" customHeight="1" s="27">
+      <c r="A49" s="167" t="n"/>
+      <c r="B49" s="150" t="n"/>
+      <c r="C49" s="150" t="n"/>
+      <c r="D49" s="150" t="n"/>
+      <c r="E49" s="150" t="n"/>
+      <c r="F49" s="150" t="n"/>
+      <c r="G49" s="153" t="n"/>
+      <c r="H49" s="168" t="inlineStr">
         <is>
           <t>тип</t>
         </is>
       </c>
-      <c r="I49" s="147" t="n"/>
-      <c r="J49" s="147" t="n"/>
-      <c r="K49" s="186" t="inlineStr">
+      <c r="I49" s="150" t="n"/>
+      <c r="J49" s="150" t="n"/>
+      <c r="K49" s="192" t="inlineStr">
         <is>
           <t>значение</t>
         </is>
       </c>
-      <c r="L49" s="147" t="n"/>
-      <c r="M49" s="147" t="n"/>
-      <c r="N49" s="150" t="n"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1" s="28" thickBot="1">
-      <c r="A50" s="154" t="n"/>
-      <c r="B50" s="155" t="n"/>
-      <c r="C50" s="155" t="n"/>
-      <c r="D50" s="155" t="n"/>
-      <c r="E50" s="155" t="n"/>
-      <c r="F50" s="155" t="n"/>
-      <c r="G50" s="156" t="n"/>
-      <c r="H50" s="155" t="n"/>
-      <c r="I50" s="155" t="n"/>
-      <c r="J50" s="155" t="n"/>
-      <c r="K50" s="185" t="n"/>
-      <c r="L50" s="155" t="n"/>
-      <c r="M50" s="155" t="n"/>
-      <c r="N50" s="156" t="n"/>
-    </row>
-    <row r="51" ht="15" customHeight="1" s="28">
-      <c r="A51" s="33" t="inlineStr">
+      <c r="L49" s="150" t="n"/>
+      <c r="M49" s="150" t="n"/>
+      <c r="N49" s="153" t="n"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" s="27" thickBot="1">
+      <c r="A50" s="157" t="n"/>
+      <c r="B50" s="158" t="n"/>
+      <c r="C50" s="158" t="n"/>
+      <c r="D50" s="158" t="n"/>
+      <c r="E50" s="158" t="n"/>
+      <c r="F50" s="158" t="n"/>
+      <c r="G50" s="159" t="n"/>
+      <c r="H50" s="158" t="n"/>
+      <c r="I50" s="158" t="n"/>
+      <c r="J50" s="158" t="n"/>
+      <c r="K50" s="188" t="n"/>
+      <c r="L50" s="158" t="n"/>
+      <c r="M50" s="158" t="n"/>
+      <c r="N50" s="159" t="n"/>
+    </row>
+    <row r="51" ht="15" customHeight="1" s="27">
+      <c r="A51" s="32" t="inlineStr">
         <is>
           <t>выходной сигнал</t>
         </is>
       </c>
-      <c r="B51" s="35" t="n"/>
-      <c r="C51" s="35" t="n"/>
-      <c r="D51" s="35" t="n"/>
-      <c r="E51" s="35" t="n"/>
-      <c r="F51" s="35" t="n"/>
-      <c r="G51" s="67" t="n"/>
-      <c r="H51" s="55" t="inlineStr">
+      <c r="B51" s="34" t="n"/>
+      <c r="C51" s="34" t="n"/>
+      <c r="D51" s="34" t="n"/>
+      <c r="E51" s="34" t="n"/>
+      <c r="F51" s="34" t="n"/>
+      <c r="G51" s="83" t="n"/>
+      <c r="H51" s="64" t="inlineStr">
         <is>
           <t>напряжение</t>
         </is>
       </c>
-      <c r="I51" s="173" t="n"/>
-      <c r="J51" s="173" t="n"/>
-      <c r="K51" s="187" t="inlineStr">
+      <c r="I51" s="176" t="n"/>
+      <c r="J51" s="176" t="n"/>
+      <c r="K51" s="177" t="inlineStr">
         <is>
           <t>24В</t>
         </is>
       </c>
-      <c r="L51" s="173" t="n"/>
-      <c r="M51" s="173" t="n"/>
-      <c r="N51" s="175" t="n"/>
-    </row>
-    <row r="52" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A52" s="39" t="inlineStr">
+      <c r="L51" s="176" t="n"/>
+      <c r="M51" s="176" t="n"/>
+      <c r="N51" s="178" t="n"/>
+    </row>
+    <row r="52" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A52" s="37" t="inlineStr">
         <is>
           <t>допускаемая основная приведенная погрешность, %</t>
         </is>
       </c>
-      <c r="B52" s="40" t="n"/>
-      <c r="C52" s="40" t="n"/>
-      <c r="D52" s="40" t="n"/>
-      <c r="E52" s="40" t="n"/>
-      <c r="F52" s="40" t="n"/>
-      <c r="G52" s="41" t="n"/>
-      <c r="H52" s="177" t="n"/>
-      <c r="I52" s="178" t="n"/>
-      <c r="J52" s="178" t="n"/>
-      <c r="K52" s="178" t="n"/>
-      <c r="L52" s="178" t="n"/>
-      <c r="M52" s="178" t="n"/>
-      <c r="N52" s="179" t="n"/>
+      <c r="B52" s="38" t="n"/>
+      <c r="C52" s="38" t="n"/>
+      <c r="D52" s="38" t="n"/>
+      <c r="E52" s="38" t="n"/>
+      <c r="F52" s="38" t="n"/>
+      <c r="G52" s="39" t="n"/>
+      <c r="H52" s="180" t="n"/>
+      <c r="I52" s="181" t="n"/>
+      <c r="J52" s="181" t="n"/>
+      <c r="K52" s="181" t="n"/>
+      <c r="L52" s="181" t="n"/>
+      <c r="M52" s="181" t="n"/>
+      <c r="N52" s="182" t="n"/>
     </row>
     <row r="53">
-      <c r="C53" s="42" t="n"/>
-      <c r="D53" s="42" t="n"/>
-      <c r="E53" s="42" t="n"/>
-      <c r="F53" s="42" t="n"/>
-      <c r="G53" s="42" t="n"/>
-    </row>
-    <row r="54" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A54" s="23" t="inlineStr">
+      <c r="C53" s="40" t="n"/>
+      <c r="D53" s="40" t="n"/>
+      <c r="E53" s="40" t="n"/>
+      <c r="F53" s="40" t="n"/>
+      <c r="G53" s="40" t="n"/>
+    </row>
+    <row r="54" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A54" s="22" t="inlineStr">
         <is>
           <t>Данные калибровки</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="68" t="inlineStr">
+      <c r="A55" s="84" t="inlineStr">
         <is>
           <t>поверяемая точка</t>
         </is>
       </c>
-      <c r="B55" s="167" t="n"/>
-      <c r="C55" s="167" t="n"/>
-      <c r="D55" s="172" t="n"/>
-      <c r="E55" s="180" t="inlineStr">
+      <c r="B55" s="170" t="n"/>
+      <c r="C55" s="170" t="n"/>
+      <c r="D55" s="175" t="n"/>
+      <c r="E55" s="183" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение выходного сигнала, </t>
         </is>
       </c>
-      <c r="F55" s="148" t="n"/>
-      <c r="G55" s="180" t="inlineStr">
+      <c r="F55" s="151" t="n"/>
+      <c r="G55" s="183" t="inlineStr">
         <is>
           <t xml:space="preserve">значение выходного сигнала, </t>
         </is>
       </c>
-      <c r="H55" s="148" t="n"/>
-      <c r="I55" s="69" t="inlineStr">
+      <c r="H55" s="151" t="n"/>
+      <c r="I55" s="85" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное отклонение, </t>
         </is>
       </c>
-      <c r="J55" s="148" t="n"/>
-      <c r="K55" s="69" t="inlineStr">
+      <c r="J55" s="151" t="n"/>
+      <c r="K55" s="85" t="inlineStr">
         <is>
           <t xml:space="preserve">допускаемое абсолютное отклонение, </t>
         </is>
       </c>
-      <c r="L55" s="148" t="n"/>
-      <c r="M55" s="69" t="inlineStr">
+      <c r="L55" s="151" t="n"/>
+      <c r="M55" s="85" t="inlineStr">
         <is>
           <t>относительное отклонение (приведенное), %</t>
         </is>
       </c>
-      <c r="N55" s="148" t="n"/>
-      <c r="O55" s="43" t="n"/>
+      <c r="N55" s="151" t="n"/>
+      <c r="O55" s="41" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="81" t="inlineStr">
+      <c r="A56" s="97" t="inlineStr">
         <is>
           <t>Значение входного сигнала, %</t>
         </is>
       </c>
-      <c r="B56" s="181" t="n"/>
-      <c r="C56" s="62" t="inlineStr">
+      <c r="B56" s="184" t="n"/>
+      <c r="C56" s="78" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение входного,  </t>
         </is>
       </c>
-      <c r="D56" s="181" t="n"/>
-      <c r="E56" s="182" t="n"/>
-      <c r="F56" s="157" t="n"/>
-      <c r="G56" s="182" t="n"/>
-      <c r="H56" s="157" t="n"/>
-      <c r="I56" s="182" t="n"/>
-      <c r="J56" s="157" t="n"/>
-      <c r="K56" s="182" t="n"/>
-      <c r="L56" s="157" t="n"/>
-      <c r="M56" s="182" t="n"/>
-      <c r="N56" s="157" t="n"/>
-      <c r="O56" s="43" t="n"/>
+      <c r="D56" s="184" t="n"/>
+      <c r="E56" s="185" t="n"/>
+      <c r="F56" s="160" t="n"/>
+      <c r="G56" s="185" t="n"/>
+      <c r="H56" s="160" t="n"/>
+      <c r="I56" s="185" t="n"/>
+      <c r="J56" s="160" t="n"/>
+      <c r="K56" s="185" t="n"/>
+      <c r="L56" s="160" t="n"/>
+      <c r="M56" s="185" t="n"/>
+      <c r="N56" s="160" t="n"/>
+      <c r="O56" s="41" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="183" t="n"/>
-      <c r="B57" s="157" t="n"/>
-      <c r="C57" s="182" t="n"/>
-      <c r="D57" s="157" t="n"/>
-      <c r="E57" s="182" t="n"/>
-      <c r="F57" s="157" t="n"/>
-      <c r="G57" s="182" t="n"/>
-      <c r="H57" s="157" t="n"/>
-      <c r="I57" s="182" t="n"/>
-      <c r="J57" s="157" t="n"/>
-      <c r="K57" s="182" t="n"/>
-      <c r="L57" s="157" t="n"/>
-      <c r="M57" s="182" t="n"/>
-      <c r="N57" s="157" t="n"/>
-      <c r="O57" s="43" t="n"/>
-    </row>
-    <row r="58" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A58" s="151" t="n"/>
-      <c r="B58" s="153" t="n"/>
-      <c r="C58" s="184" t="n"/>
-      <c r="D58" s="153" t="n"/>
-      <c r="E58" s="185" t="n"/>
-      <c r="F58" s="170" t="n"/>
-      <c r="G58" s="185" t="n"/>
-      <c r="H58" s="170" t="n"/>
-      <c r="I58" s="184" t="n"/>
-      <c r="J58" s="153" t="n"/>
-      <c r="K58" s="184" t="n"/>
-      <c r="L58" s="153" t="n"/>
-      <c r="M58" s="184" t="n"/>
-      <c r="N58" s="153" t="n"/>
-      <c r="O58" s="43" t="n"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1" s="28" thickBot="1">
-      <c r="A59" s="137" t="n">
+      <c r="A57" s="186" t="n"/>
+      <c r="B57" s="160" t="n"/>
+      <c r="C57" s="185" t="n"/>
+      <c r="D57" s="160" t="n"/>
+      <c r="E57" s="185" t="n"/>
+      <c r="F57" s="160" t="n"/>
+      <c r="G57" s="185" t="n"/>
+      <c r="H57" s="160" t="n"/>
+      <c r="I57" s="185" t="n"/>
+      <c r="J57" s="160" t="n"/>
+      <c r="K57" s="185" t="n"/>
+      <c r="L57" s="160" t="n"/>
+      <c r="M57" s="185" t="n"/>
+      <c r="N57" s="160" t="n"/>
+      <c r="O57" s="41" t="n"/>
+    </row>
+    <row r="58" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A58" s="154" t="n"/>
+      <c r="B58" s="156" t="n"/>
+      <c r="C58" s="187" t="n"/>
+      <c r="D58" s="156" t="n"/>
+      <c r="E58" s="188" t="n"/>
+      <c r="F58" s="173" t="n"/>
+      <c r="G58" s="188" t="n"/>
+      <c r="H58" s="173" t="n"/>
+      <c r="I58" s="187" t="n"/>
+      <c r="J58" s="156" t="n"/>
+      <c r="K58" s="187" t="n"/>
+      <c r="L58" s="156" t="n"/>
+      <c r="M58" s="187" t="n"/>
+      <c r="N58" s="156" t="n"/>
+      <c r="O58" s="41" t="n"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1" s="27" thickBot="1">
+      <c r="A59" s="56" t="n">
         <v>100</v>
       </c>
-      <c r="B59" s="170" t="n"/>
-      <c r="C59" s="139" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D59" s="170" t="n"/>
-      <c r="E59" s="139" t="n">
+      <c r="B59" s="173" t="n"/>
+      <c r="C59" s="144" t="inlineStr">
+        <is>
+          <t>24,000</t>
+        </is>
+      </c>
+      <c r="D59" s="173" t="n"/>
+      <c r="E59" s="58" t="n">
         <v>24</v>
       </c>
-      <c r="F59" s="170" t="n"/>
-      <c r="G59" s="138" t="inlineStr">
-        <is>
-          <t>23.51</t>
-        </is>
-      </c>
-      <c r="H59" s="170" t="n"/>
-      <c r="I59" s="138" t="n"/>
-      <c r="J59" s="170" t="n"/>
-      <c r="K59" s="138" t="n"/>
-      <c r="L59" s="170" t="n"/>
-      <c r="M59" s="138" t="n"/>
-      <c r="N59" s="170" t="n"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1" s="28" thickBot="1">
-      <c r="A61" s="45" t="inlineStr">
+      <c r="F59" s="173" t="n"/>
+      <c r="G59" s="191" t="inlineStr">
+        <is>
+          <t>23,510</t>
+        </is>
+      </c>
+      <c r="H59" s="173" t="n"/>
+      <c r="I59" s="57" t="n"/>
+      <c r="J59" s="173" t="n"/>
+      <c r="K59" s="57" t="n"/>
+      <c r="L59" s="173" t="n"/>
+      <c r="M59" s="57" t="n"/>
+      <c r="N59" s="173" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="27" thickBot="1">
+      <c r="A61" s="43" t="inlineStr">
         <is>
           <t>Встроенный источник напряжения 24В(под нагрузкой 820 Ом)</t>
         </is>
       </c>
-      <c r="B61" s="23" t="n"/>
-      <c r="C61" s="27" t="n"/>
-    </row>
-    <row r="62" ht="12.75" customHeight="1" s="28">
-      <c r="A62" s="164" t="n"/>
-      <c r="B62" s="147" t="n"/>
-      <c r="C62" s="147" t="n"/>
-      <c r="D62" s="147" t="n"/>
-      <c r="E62" s="147" t="n"/>
-      <c r="F62" s="147" t="n"/>
-      <c r="G62" s="150" t="n"/>
-      <c r="H62" s="165" t="inlineStr">
+      <c r="B61" s="22" t="n"/>
+      <c r="C61" s="26" t="n"/>
+    </row>
+    <row r="62" ht="12.75" customHeight="1" s="27">
+      <c r="A62" s="167" t="n"/>
+      <c r="B62" s="150" t="n"/>
+      <c r="C62" s="150" t="n"/>
+      <c r="D62" s="150" t="n"/>
+      <c r="E62" s="150" t="n"/>
+      <c r="F62" s="150" t="n"/>
+      <c r="G62" s="153" t="n"/>
+      <c r="H62" s="168" t="inlineStr">
         <is>
           <t>тип</t>
         </is>
       </c>
-      <c r="I62" s="147" t="n"/>
-      <c r="J62" s="147" t="n"/>
-      <c r="K62" s="186" t="inlineStr">
+      <c r="I62" s="150" t="n"/>
+      <c r="J62" s="150" t="n"/>
+      <c r="K62" s="192" t="inlineStr">
         <is>
           <t>значение</t>
         </is>
       </c>
-      <c r="L62" s="147" t="n"/>
-      <c r="M62" s="147" t="n"/>
-      <c r="N62" s="150" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="28" thickBot="1">
-      <c r="A63" s="154" t="n"/>
-      <c r="B63" s="155" t="n"/>
-      <c r="C63" s="155" t="n"/>
-      <c r="D63" s="155" t="n"/>
-      <c r="E63" s="155" t="n"/>
-      <c r="F63" s="155" t="n"/>
-      <c r="G63" s="156" t="n"/>
-      <c r="H63" s="155" t="n"/>
-      <c r="I63" s="155" t="n"/>
-      <c r="J63" s="155" t="n"/>
-      <c r="K63" s="185" t="n"/>
-      <c r="L63" s="155" t="n"/>
-      <c r="M63" s="155" t="n"/>
-      <c r="N63" s="156" t="n"/>
+      <c r="L62" s="150" t="n"/>
+      <c r="M62" s="150" t="n"/>
+      <c r="N62" s="153" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="27" thickBot="1">
+      <c r="A63" s="157" t="n"/>
+      <c r="B63" s="158" t="n"/>
+      <c r="C63" s="158" t="n"/>
+      <c r="D63" s="158" t="n"/>
+      <c r="E63" s="158" t="n"/>
+      <c r="F63" s="158" t="n"/>
+      <c r="G63" s="159" t="n"/>
+      <c r="H63" s="158" t="n"/>
+      <c r="I63" s="158" t="n"/>
+      <c r="J63" s="158" t="n"/>
+      <c r="K63" s="188" t="n"/>
+      <c r="L63" s="158" t="n"/>
+      <c r="M63" s="158" t="n"/>
+      <c r="N63" s="159" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="33" t="inlineStr">
+      <c r="A64" s="32" t="inlineStr">
         <is>
           <t>выходной сигнал</t>
         </is>
       </c>
-      <c r="B64" s="35" t="n"/>
-      <c r="C64" s="35" t="n"/>
-      <c r="D64" s="35" t="n"/>
-      <c r="E64" s="35" t="n"/>
-      <c r="F64" s="35" t="n"/>
-      <c r="G64" s="67" t="n"/>
-      <c r="H64" s="55" t="inlineStr">
+      <c r="B64" s="34" t="n"/>
+      <c r="C64" s="34" t="n"/>
+      <c r="D64" s="34" t="n"/>
+      <c r="E64" s="34" t="n"/>
+      <c r="F64" s="34" t="n"/>
+      <c r="G64" s="83" t="n"/>
+      <c r="H64" s="64" t="inlineStr">
         <is>
           <t>напряжение</t>
         </is>
       </c>
-      <c r="I64" s="173" t="n"/>
-      <c r="J64" s="173" t="n"/>
-      <c r="K64" s="187" t="inlineStr">
+      <c r="I64" s="176" t="n"/>
+      <c r="J64" s="176" t="n"/>
+      <c r="K64" s="177" t="inlineStr">
         <is>
           <t>24В</t>
         </is>
       </c>
-      <c r="L64" s="173" t="n"/>
-      <c r="M64" s="173" t="n"/>
-      <c r="N64" s="175" t="n"/>
-    </row>
-    <row r="65" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A65" s="39" t="inlineStr">
+      <c r="L64" s="176" t="n"/>
+      <c r="M64" s="176" t="n"/>
+      <c r="N64" s="178" t="n"/>
+    </row>
+    <row r="65" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A65" s="37" t="inlineStr">
         <is>
           <t>допускаемая основная приведенная погрешность, %</t>
         </is>
       </c>
-      <c r="B65" s="40" t="n"/>
-      <c r="C65" s="40" t="n"/>
-      <c r="D65" s="40" t="n"/>
-      <c r="E65" s="40" t="n"/>
-      <c r="F65" s="40" t="n"/>
-      <c r="G65" s="41" t="n"/>
-      <c r="H65" s="177" t="n"/>
-      <c r="I65" s="178" t="n"/>
-      <c r="J65" s="178" t="n"/>
-      <c r="K65" s="178" t="n"/>
-      <c r="L65" s="178" t="n"/>
-      <c r="M65" s="178" t="n"/>
-      <c r="N65" s="179" t="n"/>
+      <c r="B65" s="38" t="n"/>
+      <c r="C65" s="38" t="n"/>
+      <c r="D65" s="38" t="n"/>
+      <c r="E65" s="38" t="n"/>
+      <c r="F65" s="38" t="n"/>
+      <c r="G65" s="39" t="n"/>
+      <c r="H65" s="180" t="n"/>
+      <c r="I65" s="181" t="n"/>
+      <c r="J65" s="181" t="n"/>
+      <c r="K65" s="181" t="n"/>
+      <c r="L65" s="181" t="n"/>
+      <c r="M65" s="181" t="n"/>
+      <c r="N65" s="182" t="n"/>
     </row>
     <row r="66">
-      <c r="C66" s="42" t="n"/>
-      <c r="D66" s="42" t="n"/>
-      <c r="E66" s="42" t="n"/>
-      <c r="F66" s="42" t="n"/>
-      <c r="G66" s="42" t="n"/>
-    </row>
-    <row r="67" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A67" s="23" t="inlineStr">
+      <c r="C66" s="40" t="n"/>
+      <c r="D66" s="40" t="n"/>
+      <c r="E66" s="40" t="n"/>
+      <c r="F66" s="40" t="n"/>
+      <c r="G66" s="40" t="n"/>
+    </row>
+    <row r="67" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A67" s="22" t="inlineStr">
         <is>
           <t>Данные калибровки</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="12.75" customHeight="1" s="28">
-      <c r="A68" s="68" t="inlineStr">
+    <row r="68" ht="12.75" customHeight="1" s="27">
+      <c r="A68" s="84" t="inlineStr">
         <is>
           <t>поверяемая точка</t>
         </is>
       </c>
-      <c r="B68" s="167" t="n"/>
-      <c r="C68" s="167" t="n"/>
-      <c r="D68" s="172" t="n"/>
-      <c r="E68" s="180" t="inlineStr">
+      <c r="B68" s="170" t="n"/>
+      <c r="C68" s="170" t="n"/>
+      <c r="D68" s="175" t="n"/>
+      <c r="E68" s="183" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение выходного сигнала, </t>
         </is>
       </c>
-      <c r="F68" s="148" t="n"/>
-      <c r="G68" s="180" t="inlineStr">
+      <c r="F68" s="151" t="n"/>
+      <c r="G68" s="183" t="inlineStr">
         <is>
           <t xml:space="preserve">значение выходного сигнала, </t>
         </is>
       </c>
-      <c r="H68" s="148" t="n"/>
-      <c r="I68" s="69" t="inlineStr">
+      <c r="H68" s="151" t="n"/>
+      <c r="I68" s="85" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное отклонение, </t>
         </is>
       </c>
-      <c r="J68" s="148" t="n"/>
-      <c r="K68" s="69" t="inlineStr">
+      <c r="J68" s="151" t="n"/>
+      <c r="K68" s="85" t="inlineStr">
         <is>
           <t xml:space="preserve">допускаемое абсолютное отклонение, </t>
         </is>
       </c>
-      <c r="L68" s="148" t="n"/>
-      <c r="M68" s="69" t="inlineStr">
+      <c r="L68" s="151" t="n"/>
+      <c r="M68" s="85" t="inlineStr">
         <is>
           <t>относительное отклонение (приведенное), %</t>
         </is>
       </c>
-      <c r="N68" s="148" t="n"/>
-      <c r="O68" s="43" t="n"/>
-    </row>
-    <row r="69" ht="12.75" customHeight="1" s="28">
-      <c r="A69" s="81" t="inlineStr">
+      <c r="N68" s="151" t="n"/>
+      <c r="O68" s="41" t="n"/>
+    </row>
+    <row r="69" ht="12.75" customHeight="1" s="27">
+      <c r="A69" s="97" t="inlineStr">
         <is>
           <t>% от диапа-зона входного сигнала</t>
         </is>
       </c>
-      <c r="B69" s="181" t="n"/>
-      <c r="C69" s="62" t="inlineStr">
+      <c r="B69" s="184" t="n"/>
+      <c r="C69" s="78" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение входного,  </t>
         </is>
       </c>
-      <c r="D69" s="181" t="n"/>
-      <c r="E69" s="182" t="n"/>
-      <c r="F69" s="157" t="n"/>
-      <c r="G69" s="182" t="n"/>
-      <c r="H69" s="157" t="n"/>
-      <c r="I69" s="182" t="n"/>
-      <c r="J69" s="157" t="n"/>
-      <c r="K69" s="182" t="n"/>
-      <c r="L69" s="157" t="n"/>
-      <c r="M69" s="182" t="n"/>
-      <c r="N69" s="157" t="n"/>
-      <c r="O69" s="43" t="n"/>
+      <c r="D69" s="184" t="n"/>
+      <c r="E69" s="185" t="n"/>
+      <c r="F69" s="160" t="n"/>
+      <c r="G69" s="185" t="n"/>
+      <c r="H69" s="160" t="n"/>
+      <c r="I69" s="185" t="n"/>
+      <c r="J69" s="160" t="n"/>
+      <c r="K69" s="185" t="n"/>
+      <c r="L69" s="160" t="n"/>
+      <c r="M69" s="185" t="n"/>
+      <c r="N69" s="160" t="n"/>
+      <c r="O69" s="41" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="183" t="n"/>
-      <c r="B70" s="157" t="n"/>
-      <c r="C70" s="182" t="n"/>
-      <c r="D70" s="157" t="n"/>
-      <c r="E70" s="182" t="n"/>
-      <c r="F70" s="157" t="n"/>
-      <c r="G70" s="182" t="n"/>
-      <c r="H70" s="157" t="n"/>
-      <c r="I70" s="182" t="n"/>
-      <c r="J70" s="157" t="n"/>
-      <c r="K70" s="182" t="n"/>
-      <c r="L70" s="157" t="n"/>
-      <c r="M70" s="182" t="n"/>
-      <c r="N70" s="157" t="n"/>
-      <c r="O70" s="43" t="n"/>
-    </row>
-    <row r="71" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A71" s="151" t="n"/>
-      <c r="B71" s="153" t="n"/>
-      <c r="C71" s="184" t="n"/>
-      <c r="D71" s="153" t="n"/>
-      <c r="E71" s="185" t="n"/>
-      <c r="F71" s="170" t="n"/>
-      <c r="G71" s="185" t="n"/>
-      <c r="H71" s="170" t="n"/>
-      <c r="I71" s="184" t="n"/>
-      <c r="J71" s="153" t="n"/>
-      <c r="K71" s="184" t="n"/>
-      <c r="L71" s="153" t="n"/>
-      <c r="M71" s="184" t="n"/>
-      <c r="N71" s="153" t="n"/>
-      <c r="O71" s="43" t="n"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1" s="28" thickBot="1">
-      <c r="A72" s="137" t="n">
+      <c r="A70" s="186" t="n"/>
+      <c r="B70" s="160" t="n"/>
+      <c r="C70" s="185" t="n"/>
+      <c r="D70" s="160" t="n"/>
+      <c r="E70" s="185" t="n"/>
+      <c r="F70" s="160" t="n"/>
+      <c r="G70" s="185" t="n"/>
+      <c r="H70" s="160" t="n"/>
+      <c r="I70" s="185" t="n"/>
+      <c r="J70" s="160" t="n"/>
+      <c r="K70" s="185" t="n"/>
+      <c r="L70" s="160" t="n"/>
+      <c r="M70" s="185" t="n"/>
+      <c r="N70" s="160" t="n"/>
+      <c r="O70" s="41" t="n"/>
+    </row>
+    <row r="71" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A71" s="154" t="n"/>
+      <c r="B71" s="156" t="n"/>
+      <c r="C71" s="187" t="n"/>
+      <c r="D71" s="156" t="n"/>
+      <c r="E71" s="188" t="n"/>
+      <c r="F71" s="173" t="n"/>
+      <c r="G71" s="188" t="n"/>
+      <c r="H71" s="173" t="n"/>
+      <c r="I71" s="187" t="n"/>
+      <c r="J71" s="156" t="n"/>
+      <c r="K71" s="187" t="n"/>
+      <c r="L71" s="156" t="n"/>
+      <c r="M71" s="187" t="n"/>
+      <c r="N71" s="156" t="n"/>
+      <c r="O71" s="41" t="n"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1" s="27" thickBot="1">
+      <c r="A72" s="56" t="n">
         <v>100</v>
       </c>
-      <c r="B72" s="170" t="n"/>
-      <c r="C72" s="139" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D72" s="170" t="n"/>
-      <c r="E72" s="139" t="n">
+      <c r="B72" s="173" t="n"/>
+      <c r="C72" s="144" t="inlineStr">
+        <is>
+          <t>24,000</t>
+        </is>
+      </c>
+      <c r="D72" s="173" t="n"/>
+      <c r="E72" s="58" t="n">
         <v>24</v>
       </c>
-      <c r="F72" s="170" t="n"/>
-      <c r="G72" s="138" t="inlineStr">
-        <is>
-          <t>24.48</t>
-        </is>
-      </c>
-      <c r="H72" s="170" t="n"/>
-      <c r="I72" s="138" t="n"/>
-      <c r="J72" s="170" t="n"/>
-      <c r="K72" s="138" t="n"/>
-      <c r="L72" s="170" t="n"/>
-      <c r="M72" s="138" t="n"/>
-      <c r="N72" s="170" t="n"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1" s="28" thickBot="1">
-      <c r="A74" s="45" t="inlineStr">
+      <c r="F72" s="173" t="n"/>
+      <c r="G72" s="191" t="inlineStr">
+        <is>
+          <t>24,480</t>
+        </is>
+      </c>
+      <c r="H72" s="173" t="n"/>
+      <c r="I72" s="57" t="n"/>
+      <c r="J72" s="173" t="n"/>
+      <c r="K72" s="57" t="n"/>
+      <c r="L72" s="173" t="n"/>
+      <c r="M72" s="57" t="n"/>
+      <c r="N72" s="173" t="n"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1" s="27" thickBot="1">
+      <c r="A74" s="43" t="inlineStr">
         <is>
           <t>Унифицированный выходной сигнал постоянного тока</t>
         </is>
       </c>
-      <c r="B74" s="27" t="n"/>
+      <c r="B74" s="26" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="164" t="n"/>
-      <c r="B75" s="147" t="n"/>
-      <c r="C75" s="147" t="n"/>
-      <c r="D75" s="147" t="n"/>
-      <c r="E75" s="147" t="n"/>
-      <c r="F75" s="147" t="n"/>
-      <c r="G75" s="150" t="n"/>
-      <c r="H75" s="165" t="inlineStr">
+      <c r="A75" s="167" t="n"/>
+      <c r="B75" s="150" t="n"/>
+      <c r="C75" s="150" t="n"/>
+      <c r="D75" s="150" t="n"/>
+      <c r="E75" s="150" t="n"/>
+      <c r="F75" s="150" t="n"/>
+      <c r="G75" s="153" t="n"/>
+      <c r="H75" s="168" t="inlineStr">
         <is>
           <t>тип</t>
         </is>
       </c>
-      <c r="I75" s="147" t="n"/>
-      <c r="J75" s="147" t="n"/>
-      <c r="K75" s="166" t="inlineStr">
+      <c r="I75" s="150" t="n"/>
+      <c r="J75" s="150" t="n"/>
+      <c r="K75" s="169" t="inlineStr">
         <is>
           <t>значение</t>
         </is>
       </c>
-      <c r="L75" s="167" t="n"/>
-      <c r="M75" s="167" t="n"/>
-      <c r="N75" s="168" t="n"/>
-    </row>
-    <row r="76" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A76" s="154" t="n"/>
-      <c r="B76" s="155" t="n"/>
-      <c r="C76" s="155" t="n"/>
-      <c r="D76" s="155" t="n"/>
-      <c r="E76" s="155" t="n"/>
-      <c r="F76" s="155" t="n"/>
-      <c r="G76" s="156" t="n"/>
-      <c r="H76" s="155" t="n"/>
-      <c r="I76" s="155" t="n"/>
-      <c r="J76" s="155" t="n"/>
-      <c r="K76" s="169" t="inlineStr">
+      <c r="L75" s="170" t="n"/>
+      <c r="M75" s="170" t="n"/>
+      <c r="N75" s="171" t="n"/>
+    </row>
+    <row r="76" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A76" s="157" t="n"/>
+      <c r="B76" s="158" t="n"/>
+      <c r="C76" s="158" t="n"/>
+      <c r="D76" s="158" t="n"/>
+      <c r="E76" s="158" t="n"/>
+      <c r="F76" s="158" t="n"/>
+      <c r="G76" s="159" t="n"/>
+      <c r="H76" s="158" t="n"/>
+      <c r="I76" s="158" t="n"/>
+      <c r="J76" s="158" t="n"/>
+      <c r="K76" s="172" t="inlineStr">
         <is>
           <t>нижнее</t>
         </is>
       </c>
-      <c r="L76" s="170" t="n"/>
-      <c r="M76" s="171" t="inlineStr">
+      <c r="L76" s="173" t="n"/>
+      <c r="M76" s="174" t="inlineStr">
         <is>
           <t>верхнее</t>
         </is>
       </c>
-      <c r="N76" s="156" t="n"/>
-    </row>
-    <row r="77" ht="13.5" customHeight="1" s="28">
-      <c r="A77" s="29" t="inlineStr">
+      <c r="N76" s="159" t="n"/>
+    </row>
+    <row r="77" ht="13.5" customHeight="1" s="27">
+      <c r="A77" s="28" t="inlineStr">
         <is>
           <t>входной сигнал</t>
         </is>
       </c>
-      <c r="B77" s="31" t="n"/>
-      <c r="C77" s="31" t="n"/>
-      <c r="D77" s="31" t="n"/>
-      <c r="E77" s="31" t="n"/>
-      <c r="F77" s="31" t="n"/>
-      <c r="G77" s="32" t="n"/>
-      <c r="H77" s="146" t="n"/>
-      <c r="I77" s="167" t="n"/>
-      <c r="J77" s="167" t="n"/>
-      <c r="K77" s="128" t="inlineStr">
+      <c r="B77" s="30" t="n"/>
+      <c r="C77" s="30" t="n"/>
+      <c r="D77" s="30" t="n"/>
+      <c r="E77" s="30" t="n"/>
+      <c r="F77" s="30" t="n"/>
+      <c r="G77" s="31" t="n"/>
+      <c r="H77" s="60" t="inlineStr">
+        <is>
+          <t>ТП-ХК</t>
+        </is>
+      </c>
+      <c r="I77" s="170" t="n"/>
+      <c r="J77" s="170" t="n"/>
+      <c r="K77" s="100" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L77" s="172" t="n"/>
-      <c r="M77" s="130" t="inlineStr">
+      <c r="L77" s="175" t="n"/>
+      <c r="M77" s="101" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="N77" s="168" t="n"/>
+      <c r="N77" s="171" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="33" t="inlineStr">
+      <c r="A78" s="32" t="inlineStr">
         <is>
           <t>выходной сигнал</t>
         </is>
       </c>
-      <c r="B78" s="35" t="n"/>
-      <c r="C78" s="35" t="n"/>
-      <c r="D78" s="35" t="n"/>
-      <c r="E78" s="35" t="n"/>
-      <c r="F78" s="35" t="n"/>
-      <c r="G78" s="67" t="n"/>
-      <c r="H78" s="55" t="inlineStr">
+      <c r="B78" s="34" t="n"/>
+      <c r="C78" s="34" t="n"/>
+      <c r="D78" s="34" t="n"/>
+      <c r="E78" s="34" t="n"/>
+      <c r="F78" s="34" t="n"/>
+      <c r="G78" s="83" t="n"/>
+      <c r="H78" s="64" t="inlineStr">
         <is>
           <t>ток</t>
         </is>
       </c>
-      <c r="I78" s="173" t="n"/>
-      <c r="J78" s="173" t="n"/>
-      <c r="K78" s="174" t="inlineStr">
+      <c r="I78" s="176" t="n"/>
+      <c r="J78" s="176" t="n"/>
+      <c r="K78" s="177" t="inlineStr">
         <is>
           <t>0-5</t>
         </is>
       </c>
-      <c r="L78" s="173" t="n"/>
-      <c r="M78" s="173" t="n"/>
-      <c r="N78" s="175" t="n"/>
-    </row>
-    <row r="79" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A79" s="39" t="inlineStr">
+      <c r="L78" s="176" t="n"/>
+      <c r="M78" s="176" t="n"/>
+      <c r="N78" s="178" t="n"/>
+    </row>
+    <row r="79" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A79" s="37" t="inlineStr">
         <is>
           <t>допускаемая основная приведенная погрешность, %</t>
         </is>
       </c>
-      <c r="B79" s="40" t="n"/>
-      <c r="C79" s="40" t="n"/>
-      <c r="D79" s="40" t="n"/>
-      <c r="E79" s="40" t="n"/>
-      <c r="F79" s="40" t="n"/>
-      <c r="G79" s="41" t="n"/>
-      <c r="H79" s="177" t="inlineStr">
-        <is>
-          <t>ТП-ХК</t>
-        </is>
-      </c>
-      <c r="I79" s="178" t="n"/>
-      <c r="J79" s="178" t="n"/>
-      <c r="K79" s="178" t="n"/>
-      <c r="L79" s="178" t="n"/>
-      <c r="M79" s="178" t="n"/>
-      <c r="N79" s="179" t="n"/>
+      <c r="B79" s="38" t="n"/>
+      <c r="C79" s="38" t="n"/>
+      <c r="D79" s="38" t="n"/>
+      <c r="E79" s="38" t="n"/>
+      <c r="F79" s="38" t="n"/>
+      <c r="G79" s="39" t="n"/>
+      <c r="H79" s="180" t="n"/>
+      <c r="I79" s="181" t="n"/>
+      <c r="J79" s="181" t="n"/>
+      <c r="K79" s="181" t="n"/>
+      <c r="L79" s="181" t="n"/>
+      <c r="M79" s="181" t="n"/>
+      <c r="N79" s="182" t="n"/>
     </row>
     <row r="80">
-      <c r="C80" s="42" t="n"/>
-      <c r="D80" s="42" t="n"/>
-      <c r="E80" s="42" t="n"/>
-      <c r="F80" s="42" t="n"/>
-      <c r="G80" s="42" t="n"/>
-    </row>
-    <row r="81" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A81" s="23" t="inlineStr">
+      <c r="C80" s="40" t="n"/>
+      <c r="D80" s="40" t="n"/>
+      <c r="E80" s="40" t="n"/>
+      <c r="F80" s="40" t="n"/>
+      <c r="G80" s="40" t="n"/>
+    </row>
+    <row r="81" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A81" s="22" t="inlineStr">
         <is>
           <t>Данные калибровки</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="68" t="inlineStr">
+      <c r="A82" s="84" t="inlineStr">
         <is>
           <t>поверяемая точка</t>
         </is>
       </c>
-      <c r="B82" s="167" t="n"/>
-      <c r="C82" s="167" t="n"/>
-      <c r="D82" s="172" t="n"/>
-      <c r="E82" s="180" t="inlineStr">
+      <c r="B82" s="170" t="n"/>
+      <c r="C82" s="170" t="n"/>
+      <c r="D82" s="175" t="n"/>
+      <c r="E82" s="183" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение выходного сигнала, </t>
         </is>
       </c>
-      <c r="F82" s="148" t="n"/>
-      <c r="G82" s="180" t="inlineStr">
+      <c r="F82" s="151" t="n"/>
+      <c r="G82" s="183" t="inlineStr">
         <is>
           <t xml:space="preserve">значение выходного сигнала, </t>
         </is>
       </c>
-      <c r="H82" s="148" t="n"/>
-      <c r="I82" s="69" t="inlineStr">
+      <c r="H82" s="151" t="n"/>
+      <c r="I82" s="85" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное отклонение, </t>
         </is>
       </c>
-      <c r="J82" s="148" t="n"/>
-      <c r="K82" s="69" t="inlineStr">
+      <c r="J82" s="151" t="n"/>
+      <c r="K82" s="85" t="inlineStr">
         <is>
           <t xml:space="preserve">допускаемое абсолютное отклонение, </t>
         </is>
       </c>
-      <c r="L82" s="148" t="n"/>
-      <c r="M82" s="69" t="inlineStr">
+      <c r="L82" s="151" t="n"/>
+      <c r="M82" s="85" t="inlineStr">
         <is>
           <t>относительное отклонение (приведенное), %</t>
         </is>
       </c>
-      <c r="N82" s="148" t="n"/>
+      <c r="N82" s="151" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="81" t="inlineStr">
+      <c r="A83" s="97" t="inlineStr">
         <is>
           <t>% от диапа-зона входного сигнала</t>
         </is>
       </c>
-      <c r="B83" s="181" t="n"/>
-      <c r="C83" s="62" t="inlineStr">
+      <c r="B83" s="184" t="n"/>
+      <c r="C83" s="78" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение, </t>
         </is>
       </c>
-      <c r="D83" s="181" t="n"/>
-      <c r="E83" s="182" t="n"/>
-      <c r="F83" s="157" t="n"/>
-      <c r="G83" s="182" t="n"/>
-      <c r="H83" s="157" t="n"/>
-      <c r="I83" s="182" t="n"/>
-      <c r="J83" s="157" t="n"/>
-      <c r="K83" s="182" t="n"/>
-      <c r="L83" s="157" t="n"/>
-      <c r="M83" s="182" t="n"/>
-      <c r="N83" s="157" t="n"/>
+      <c r="D83" s="184" t="n"/>
+      <c r="E83" s="185" t="n"/>
+      <c r="F83" s="160" t="n"/>
+      <c r="G83" s="185" t="n"/>
+      <c r="H83" s="160" t="n"/>
+      <c r="I83" s="185" t="n"/>
+      <c r="J83" s="160" t="n"/>
+      <c r="K83" s="185" t="n"/>
+      <c r="L83" s="160" t="n"/>
+      <c r="M83" s="185" t="n"/>
+      <c r="N83" s="160" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="183" t="n"/>
-      <c r="B84" s="157" t="n"/>
-      <c r="C84" s="182" t="n"/>
-      <c r="D84" s="157" t="n"/>
-      <c r="E84" s="182" t="n"/>
-      <c r="F84" s="157" t="n"/>
-      <c r="G84" s="182" t="n"/>
-      <c r="H84" s="157" t="n"/>
-      <c r="I84" s="182" t="n"/>
-      <c r="J84" s="157" t="n"/>
-      <c r="K84" s="182" t="n"/>
-      <c r="L84" s="157" t="n"/>
-      <c r="M84" s="182" t="n"/>
-      <c r="N84" s="157" t="n"/>
-    </row>
-    <row r="85" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A85" s="151" t="n"/>
-      <c r="B85" s="153" t="n"/>
-      <c r="C85" s="184" t="n"/>
-      <c r="D85" s="153" t="n"/>
-      <c r="E85" s="185" t="n"/>
-      <c r="F85" s="170" t="n"/>
-      <c r="G85" s="185" t="n"/>
-      <c r="H85" s="170" t="n"/>
-      <c r="I85" s="184" t="n"/>
-      <c r="J85" s="153" t="n"/>
-      <c r="K85" s="184" t="n"/>
-      <c r="L85" s="153" t="n"/>
-      <c r="M85" s="184" t="n"/>
-      <c r="N85" s="153" t="n"/>
-    </row>
-    <row r="86" ht="15" customHeight="1" s="28">
-      <c r="A86" s="131" t="n">
+      <c r="A84" s="186" t="n"/>
+      <c r="B84" s="160" t="n"/>
+      <c r="C84" s="185" t="n"/>
+      <c r="D84" s="160" t="n"/>
+      <c r="E84" s="185" t="n"/>
+      <c r="F84" s="160" t="n"/>
+      <c r="G84" s="185" t="n"/>
+      <c r="H84" s="160" t="n"/>
+      <c r="I84" s="185" t="n"/>
+      <c r="J84" s="160" t="n"/>
+      <c r="K84" s="185" t="n"/>
+      <c r="L84" s="160" t="n"/>
+      <c r="M84" s="185" t="n"/>
+      <c r="N84" s="160" t="n"/>
+    </row>
+    <row r="85" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A85" s="154" t="n"/>
+      <c r="B85" s="156" t="n"/>
+      <c r="C85" s="187" t="n"/>
+      <c r="D85" s="156" t="n"/>
+      <c r="E85" s="188" t="n"/>
+      <c r="F85" s="173" t="n"/>
+      <c r="G85" s="188" t="n"/>
+      <c r="H85" s="173" t="n"/>
+      <c r="I85" s="187" t="n"/>
+      <c r="J85" s="156" t="n"/>
+      <c r="K85" s="187" t="n"/>
+      <c r="L85" s="156" t="n"/>
+      <c r="M85" s="187" t="n"/>
+      <c r="N85" s="156" t="n"/>
+    </row>
+    <row r="86" ht="15" customHeight="1" s="27">
+      <c r="A86" s="68" t="n">
         <v>5</v>
       </c>
-      <c r="B86" s="153" t="n"/>
-      <c r="C86" s="133" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="D86" s="153" t="n"/>
-      <c r="E86" s="132" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="F86" s="153" t="n"/>
-      <c r="G86" s="132" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="H86" s="153" t="n"/>
-      <c r="I86" s="132" t="n"/>
-      <c r="J86" s="153" t="n"/>
-      <c r="K86" s="132" t="n"/>
-      <c r="L86" s="153" t="n"/>
-      <c r="M86" s="132" t="n"/>
-      <c r="N86" s="153" t="n"/>
-    </row>
-    <row r="87" ht="15" customHeight="1" s="28">
-      <c r="A87" s="131" t="n">
+      <c r="B86" s="156" t="n"/>
+      <c r="C86" s="141" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="D86" s="156" t="n"/>
+      <c r="E86" s="190" t="inlineStr">
+        <is>
+          <t>0,250</t>
+        </is>
+      </c>
+      <c r="F86" s="156" t="n"/>
+      <c r="G86" s="190" t="inlineStr">
+        <is>
+          <t>0,230</t>
+        </is>
+      </c>
+      <c r="H86" s="156" t="n"/>
+      <c r="I86" s="70" t="n"/>
+      <c r="J86" s="156" t="n"/>
+      <c r="K86" s="70" t="n"/>
+      <c r="L86" s="156" t="n"/>
+      <c r="M86" s="70" t="n"/>
+      <c r="N86" s="156" t="n"/>
+    </row>
+    <row r="87" ht="15" customHeight="1" s="27">
+      <c r="A87" s="68" t="n">
         <v>25</v>
       </c>
-      <c r="B87" s="153" t="n"/>
-      <c r="C87" s="133" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="D87" s="153" t="n"/>
-      <c r="E87" s="132" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F87" s="153" t="n"/>
-      <c r="G87" s="132" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="H87" s="153" t="n"/>
-      <c r="I87" s="132" t="n"/>
-      <c r="J87" s="153" t="n"/>
-      <c r="K87" s="132" t="n"/>
-      <c r="L87" s="153" t="n"/>
-      <c r="M87" s="132" t="n"/>
-      <c r="N87" s="153" t="n"/>
-    </row>
-    <row r="88" ht="15" customHeight="1" s="28">
-      <c r="A88" s="131" t="n">
+      <c r="B87" s="156" t="n"/>
+      <c r="C87" s="141" t="inlineStr">
+        <is>
+          <t>25,000</t>
+        </is>
+      </c>
+      <c r="D87" s="156" t="n"/>
+      <c r="E87" s="190" t="inlineStr">
+        <is>
+          <t>1,250</t>
+        </is>
+      </c>
+      <c r="F87" s="156" t="n"/>
+      <c r="G87" s="190" t="inlineStr">
+        <is>
+          <t>1,210</t>
+        </is>
+      </c>
+      <c r="H87" s="156" t="n"/>
+      <c r="I87" s="70" t="n"/>
+      <c r="J87" s="156" t="n"/>
+      <c r="K87" s="70" t="n"/>
+      <c r="L87" s="156" t="n"/>
+      <c r="M87" s="70" t="n"/>
+      <c r="N87" s="156" t="n"/>
+    </row>
+    <row r="88" ht="15" customHeight="1" s="27">
+      <c r="A88" s="68" t="n">
         <v>50</v>
       </c>
-      <c r="B88" s="153" t="n"/>
-      <c r="C88" s="133" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="D88" s="153" t="n"/>
-      <c r="E88" s="132" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="F88" s="153" t="n"/>
-      <c r="G88" s="132" t="inlineStr">
-        <is>
-          <t>2.512</t>
-        </is>
-      </c>
-      <c r="H88" s="153" t="n"/>
-      <c r="I88" s="132" t="n"/>
-      <c r="J88" s="153" t="n"/>
-      <c r="K88" s="132" t="n"/>
-      <c r="L88" s="153" t="n"/>
-      <c r="M88" s="132" t="n"/>
-      <c r="N88" s="153" t="n"/>
-    </row>
-    <row r="89" ht="15" customHeight="1" s="28">
-      <c r="A89" s="131" t="n">
+      <c r="B88" s="156" t="n"/>
+      <c r="C88" s="141" t="inlineStr">
+        <is>
+          <t>50,000</t>
+        </is>
+      </c>
+      <c r="D88" s="156" t="n"/>
+      <c r="E88" s="190" t="inlineStr">
+        <is>
+          <t>2,500</t>
+        </is>
+      </c>
+      <c r="F88" s="156" t="n"/>
+      <c r="G88" s="190" t="inlineStr">
+        <is>
+          <t>2,512</t>
+        </is>
+      </c>
+      <c r="H88" s="156" t="n"/>
+      <c r="I88" s="70" t="n"/>
+      <c r="J88" s="156" t="n"/>
+      <c r="K88" s="70" t="n"/>
+      <c r="L88" s="156" t="n"/>
+      <c r="M88" s="70" t="n"/>
+      <c r="N88" s="156" t="n"/>
+    </row>
+    <row r="89" ht="15" customHeight="1" s="27">
+      <c r="A89" s="68" t="n">
         <v>75</v>
       </c>
-      <c r="B89" s="153" t="n"/>
-      <c r="C89" s="133" t="inlineStr">
-        <is>
-          <t>75.0</t>
-        </is>
-      </c>
-      <c r="D89" s="153" t="n"/>
-      <c r="E89" s="132" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F89" s="153" t="n"/>
-      <c r="G89" s="132" t="inlineStr">
-        <is>
-          <t>3.756</t>
-        </is>
-      </c>
-      <c r="H89" s="153" t="n"/>
-      <c r="I89" s="132" t="n"/>
-      <c r="J89" s="153" t="n"/>
-      <c r="K89" s="132" t="n"/>
-      <c r="L89" s="153" t="n"/>
-      <c r="M89" s="132" t="n"/>
-      <c r="N89" s="153" t="n"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1" s="28" thickBot="1">
-      <c r="A90" s="137" t="n">
+      <c r="B89" s="156" t="n"/>
+      <c r="C89" s="141" t="inlineStr">
+        <is>
+          <t>75,000</t>
+        </is>
+      </c>
+      <c r="D89" s="156" t="n"/>
+      <c r="E89" s="190" t="inlineStr">
+        <is>
+          <t>3,750</t>
+        </is>
+      </c>
+      <c r="F89" s="156" t="n"/>
+      <c r="G89" s="190" t="inlineStr">
+        <is>
+          <t>3,756</t>
+        </is>
+      </c>
+      <c r="H89" s="156" t="n"/>
+      <c r="I89" s="70" t="n"/>
+      <c r="J89" s="156" t="n"/>
+      <c r="K89" s="70" t="n"/>
+      <c r="L89" s="156" t="n"/>
+      <c r="M89" s="70" t="n"/>
+      <c r="N89" s="156" t="n"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1" s="27" thickBot="1">
+      <c r="A90" s="56" t="n">
         <v>95</v>
       </c>
-      <c r="B90" s="170" t="n"/>
-      <c r="C90" s="139" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="D90" s="170" t="n"/>
-      <c r="E90" s="138" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F90" s="170" t="n"/>
-      <c r="G90" s="138" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="H90" s="170" t="n"/>
-      <c r="I90" s="138" t="n"/>
-      <c r="J90" s="170" t="n"/>
-      <c r="K90" s="138" t="n"/>
-      <c r="L90" s="170" t="n"/>
-      <c r="M90" s="138" t="n"/>
-      <c r="N90" s="170" t="n"/>
-    </row>
-    <row r="91" ht="15" customHeight="1" s="28">
-      <c r="A91" s="5" t="n"/>
-      <c r="B91" s="5" t="n"/>
-      <c r="C91" s="44" t="n"/>
-      <c r="D91" s="44" t="n"/>
-      <c r="E91" s="5" t="n"/>
-      <c r="F91" s="5" t="n"/>
-      <c r="G91" s="5" t="n"/>
-      <c r="H91" s="5" t="n"/>
-      <c r="I91" s="5" t="n"/>
-      <c r="J91" s="5" t="n"/>
-      <c r="K91" s="5" t="n"/>
-      <c r="L91" s="5" t="n"/>
-      <c r="M91" s="5" t="n"/>
-      <c r="N91" s="5" t="n"/>
+      <c r="B90" s="173" t="n"/>
+      <c r="C90" s="144" t="inlineStr">
+        <is>
+          <t>95,000</t>
+        </is>
+      </c>
+      <c r="D90" s="173" t="n"/>
+      <c r="E90" s="191" t="inlineStr">
+        <is>
+          <t>4,750</t>
+        </is>
+      </c>
+      <c r="F90" s="173" t="n"/>
+      <c r="G90" s="191" t="inlineStr">
+        <is>
+          <t>4,780</t>
+        </is>
+      </c>
+      <c r="H90" s="173" t="n"/>
+      <c r="I90" s="70" t="n"/>
+      <c r="J90" s="156" t="n"/>
+      <c r="K90" s="139" t="n"/>
+      <c r="L90" s="173" t="n"/>
+      <c r="M90" s="139" t="n"/>
+      <c r="N90" s="173" t="n"/>
+    </row>
+    <row r="91" ht="15" customHeight="1" s="27">
+      <c r="A91" s="4" t="n"/>
+      <c r="B91" s="4" t="n"/>
+      <c r="C91" s="42" t="n"/>
+      <c r="D91" s="42" t="n"/>
+      <c r="E91" s="4" t="n"/>
+      <c r="F91" s="4" t="n"/>
+      <c r="G91" s="4" t="n"/>
+      <c r="H91" s="4" t="n"/>
+      <c r="I91" s="4" t="n"/>
+      <c r="J91" s="4" t="n"/>
+      <c r="K91" s="4" t="n"/>
+      <c r="L91" s="4" t="n"/>
+      <c r="M91" s="4" t="n"/>
+      <c r="N91" s="4" t="n"/>
     </row>
     <row r="93">
-      <c r="B93" s="45" t="inlineStr">
+      <c r="B93" s="43" t="inlineStr">
         <is>
           <t>Заключение по результатам калибровки всех каналов</t>
         </is>
       </c>
-      <c r="C93" s="45" t="n"/>
-      <c r="D93" s="45" t="n"/>
-      <c r="E93" s="45" t="n"/>
-      <c r="F93" s="45" t="n"/>
-      <c r="G93" s="45" t="n"/>
-      <c r="H93" s="45" t="n"/>
-      <c r="I93" s="45" t="n"/>
-    </row>
-    <row r="94" ht="13.5" customHeight="1" s="28" thickBot="1"/>
-    <row r="95" ht="13.5" customHeight="1" s="28" thickBot="1">
-      <c r="A95" s="49" t="inlineStr">
+      <c r="C93" s="43" t="n"/>
+      <c r="D93" s="43" t="n"/>
+      <c r="E93" s="43" t="n"/>
+      <c r="F93" s="43" t="n"/>
+      <c r="G93" s="43" t="n"/>
+      <c r="H93" s="43" t="n"/>
+      <c r="I93" s="43" t="n"/>
+    </row>
+    <row r="94" ht="13.5" customHeight="1" s="27" thickBot="1"/>
+    <row r="95" ht="13.5" customHeight="1" s="27" thickBot="1">
+      <c r="A95" s="51" t="inlineStr">
         <is>
           <t>Заключение по результатам калибровки</t>
         </is>
       </c>
-      <c r="B95" s="188" t="n"/>
-      <c r="C95" s="188" t="n"/>
-      <c r="D95" s="188" t="n"/>
-      <c r="E95" s="188" t="n"/>
-      <c r="F95" s="189" t="n"/>
-      <c r="G95" s="190" t="n"/>
-      <c r="H95" s="188" t="n"/>
-      <c r="I95" s="188" t="n"/>
-      <c r="J95" s="188" t="n"/>
-      <c r="K95" s="188" t="n"/>
-      <c r="L95" s="188" t="n"/>
-      <c r="M95" s="188" t="n"/>
-      <c r="N95" s="189" t="n"/>
+      <c r="B95" s="193" t="n"/>
+      <c r="C95" s="193" t="n"/>
+      <c r="D95" s="193" t="n"/>
+      <c r="E95" s="193" t="n"/>
+      <c r="F95" s="194" t="n"/>
+      <c r="G95" s="195" t="n"/>
+      <c r="H95" s="193" t="n"/>
+      <c r="I95" s="193" t="n"/>
+      <c r="J95" s="193" t="n"/>
+      <c r="K95" s="193" t="n"/>
+      <c r="L95" s="193" t="n"/>
+      <c r="M95" s="193" t="n"/>
+      <c r="N95" s="194" t="n"/>
     </row>
     <row r="97">
-      <c r="B97" s="46" t="inlineStr">
+      <c r="B97" s="44" t="inlineStr">
         <is>
           <t>Калибровщик:</t>
         </is>
       </c>
-      <c r="C97" s="47" t="n"/>
-      <c r="D97" s="47" t="inlineStr">
+      <c r="C97" s="45" t="n"/>
+      <c r="D97" s="45" t="inlineStr">
         <is>
           <t>Румянцева</t>
         </is>
       </c>
-      <c r="E97" s="47" t="n"/>
-      <c r="H97" s="23" t="inlineStr">
+      <c r="E97" s="45" t="n"/>
+      <c r="H97" s="22" t="inlineStr">
         <is>
           <t>Сдал:</t>
         </is>
       </c>
-      <c r="I97" s="53" t="inlineStr">
+      <c r="I97" s="55" t="inlineStr">
         <is>
           <t>Петров</t>
         </is>
       </c>
-      <c r="J97" s="152" t="n"/>
-      <c r="K97" s="152" t="n"/>
+      <c r="J97" s="155" t="n"/>
+      <c r="K97" s="155" t="n"/>
     </row>
     <row r="98">
-      <c r="D98" s="48" t="inlineStr">
+      <c r="D98" s="46" t="inlineStr">
         <is>
           <t>подпись</t>
         </is>

--- a/protocols/1 ЗК-711.xlsx
+++ b/protocols/1 ЗК-711.xlsx
@@ -1731,17 +1731,6 @@
           <t>ПРОТОКОЛ КАЛИБРОВКИ №</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="P1" t="n">
-        <v>6.247</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>2.04</v>
-      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="27">
       <c r="B2" s="102" t="n"/>
@@ -1767,7 +1756,7 @@
       <c r="C3" s="102" t="n"/>
       <c r="D3" s="50" t="inlineStr">
         <is>
-          <t>27.12.2020</t>
+          <t>28.12.2020</t>
         </is>
       </c>
       <c r="E3" s="102" t="n"/>
@@ -2322,7 +2311,9 @@
       <c r="E35" s="38" t="n"/>
       <c r="F35" s="38" t="n"/>
       <c r="G35" s="39" t="n"/>
-      <c r="H35" s="180" t="n"/>
+      <c r="H35" s="180" t="n">
+        <v>6.247</v>
+      </c>
       <c r="I35" s="181" t="n"/>
       <c r="J35" s="181" t="n"/>
       <c r="K35" s="181" t="n"/>
@@ -2687,7 +2678,9 @@
       <c r="E52" s="38" t="n"/>
       <c r="F52" s="38" t="n"/>
       <c r="G52" s="39" t="n"/>
-      <c r="H52" s="180" t="n"/>
+      <c r="H52" s="180" t="n">
+        <v>2.04</v>
+      </c>
       <c r="I52" s="181" t="n"/>
       <c r="J52" s="181" t="n"/>
       <c r="K52" s="181" t="n"/>
@@ -2926,7 +2919,9 @@
       <c r="E65" s="38" t="n"/>
       <c r="F65" s="38" t="n"/>
       <c r="G65" s="39" t="n"/>
-      <c r="H65" s="180" t="n"/>
+      <c r="H65" s="180" t="n">
+        <v>2.04</v>
+      </c>
       <c r="I65" s="181" t="n"/>
       <c r="J65" s="181" t="n"/>
       <c r="K65" s="181" t="n"/>
@@ -3204,7 +3199,11 @@
       <c r="E79" s="38" t="n"/>
       <c r="F79" s="38" t="n"/>
       <c r="G79" s="39" t="n"/>
-      <c r="H79" s="180" t="n"/>
+      <c r="H79" s="180" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
       <c r="I79" s="181" t="n"/>
       <c r="J79" s="181" t="n"/>
       <c r="K79" s="181" t="n"/>

--- a/protocols/1 ЗК-711.xlsx
+++ b/protocols/1 ЗК-711.xlsx
@@ -16,8 +16,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -103,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -776,21 +776,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -800,6 +785,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -808,6 +819,36 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -822,47 +863,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -891,13 +891,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -909,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -991,6 +1004,288 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1006,286 +1301,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1294,7 +1310,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1335,33 +1351,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1713,8 +1748,8 @@
   </sheetPr>
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T87" sqref="T87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -1726,25 +1761,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="102" t="inlineStr">
+      <c r="B1" s="96" t="inlineStr">
         <is>
           <t>ПРОТОКОЛ КАЛИБРОВКИ №</t>
         </is>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="27">
-      <c r="B2" s="102" t="n"/>
-      <c r="C2" s="102" t="n"/>
-      <c r="D2" s="102" t="n"/>
-      <c r="E2" s="102" t="n"/>
-      <c r="F2" s="102" t="n"/>
-      <c r="G2" s="102" t="n"/>
-      <c r="H2" s="102" t="n"/>
-      <c r="I2" s="102" t="n"/>
-      <c r="J2" s="102" t="n"/>
-      <c r="K2" s="102" t="n"/>
-      <c r="L2" s="102" t="n"/>
-      <c r="M2" s="102" t="n"/>
+      <c r="B2" s="96" t="n"/>
+      <c r="C2" s="96" t="n"/>
+      <c r="D2" s="96" t="n"/>
+      <c r="E2" s="96" t="n"/>
+      <c r="F2" s="96" t="n"/>
+      <c r="G2" s="96" t="n"/>
+      <c r="H2" s="96" t="n"/>
+      <c r="I2" s="96" t="n"/>
+      <c r="J2" s="96" t="n"/>
+      <c r="K2" s="96" t="n"/>
+      <c r="L2" s="96" t="n"/>
+      <c r="M2" s="96" t="n"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="27">
       <c r="A3" s="22" t="inlineStr">
@@ -1752,19 +1787,19 @@
           <t>Дата калибровки:</t>
         </is>
       </c>
-      <c r="B3" s="102" t="n"/>
-      <c r="C3" s="102" t="n"/>
+      <c r="B3" s="96" t="n"/>
+      <c r="C3" s="96" t="n"/>
       <c r="D3" s="50" t="inlineStr">
         <is>
           <t>28.12.2020</t>
         </is>
       </c>
-      <c r="E3" s="102" t="n"/>
-      <c r="F3" s="102" t="n"/>
-      <c r="G3" s="102" t="n"/>
+      <c r="E3" s="96" t="n"/>
+      <c r="F3" s="96" t="n"/>
+      <c r="G3" s="96" t="n"/>
       <c r="J3" s="44" t="n"/>
       <c r="K3" s="21" t="n"/>
-      <c r="M3" s="102" t="n"/>
+      <c r="M3" s="96" t="n"/>
     </row>
     <row r="4" hidden="1" ht="12.75" customHeight="1" s="27">
       <c r="B4" s="4" t="n"/>
@@ -2015,7 +2050,7 @@
     </row>
     <row r="20">
       <c r="A20" s="22" t="n"/>
-      <c r="B20" s="102" t="inlineStr">
+      <c r="B20" s="96" t="inlineStr">
         <is>
           <t>Операции калибровки</t>
         </is>
@@ -2033,110 +2068,110 @@
       <c r="I21" s="22" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="103" t="inlineStr">
+      <c r="A22" s="97" t="inlineStr">
         <is>
           <t>Наименование операции</t>
         </is>
       </c>
-      <c r="B22" s="150" t="n"/>
-      <c r="C22" s="150" t="n"/>
-      <c r="D22" s="150" t="n"/>
-      <c r="E22" s="150" t="n"/>
-      <c r="F22" s="151" t="n"/>
-      <c r="G22" s="152" t="inlineStr">
+      <c r="B22" s="151" t="n"/>
+      <c r="C22" s="151" t="n"/>
+      <c r="D22" s="151" t="n"/>
+      <c r="E22" s="151" t="n"/>
+      <c r="F22" s="152" t="n"/>
+      <c r="G22" s="153" t="inlineStr">
         <is>
           <t>Результат</t>
         </is>
       </c>
-      <c r="H22" s="150" t="n"/>
-      <c r="I22" s="150" t="n"/>
-      <c r="J22" s="150" t="n"/>
-      <c r="K22" s="150" t="n"/>
-      <c r="L22" s="150" t="n"/>
-      <c r="M22" s="150" t="n"/>
-      <c r="N22" s="153" t="n"/>
+      <c r="H22" s="151" t="n"/>
+      <c r="I22" s="151" t="n"/>
+      <c r="J22" s="151" t="n"/>
+      <c r="K22" s="151" t="n"/>
+      <c r="L22" s="151" t="n"/>
+      <c r="M22" s="151" t="n"/>
+      <c r="N22" s="154" t="n"/>
     </row>
     <row r="23" ht="13.5" customHeight="1" s="27" thickBot="1">
-      <c r="A23" s="154" t="n"/>
-      <c r="B23" s="155" t="n"/>
-      <c r="C23" s="155" t="n"/>
-      <c r="D23" s="155" t="n"/>
-      <c r="E23" s="155" t="n"/>
-      <c r="F23" s="156" t="n"/>
-      <c r="G23" s="157" t="n"/>
-      <c r="H23" s="158" t="n"/>
-      <c r="I23" s="158" t="n"/>
-      <c r="J23" s="158" t="n"/>
-      <c r="K23" s="158" t="n"/>
-      <c r="L23" s="158" t="n"/>
-      <c r="M23" s="158" t="n"/>
-      <c r="N23" s="159" t="n"/>
+      <c r="A23" s="155" t="n"/>
+      <c r="B23" s="156" t="n"/>
+      <c r="C23" s="156" t="n"/>
+      <c r="D23" s="156" t="n"/>
+      <c r="E23" s="156" t="n"/>
+      <c r="F23" s="157" t="n"/>
+      <c r="G23" s="158" t="n"/>
+      <c r="H23" s="159" t="n"/>
+      <c r="I23" s="159" t="n"/>
+      <c r="J23" s="159" t="n"/>
+      <c r="K23" s="159" t="n"/>
+      <c r="L23" s="159" t="n"/>
+      <c r="M23" s="159" t="n"/>
+      <c r="N23" s="160" t="n"/>
     </row>
     <row r="24" ht="12.75" customHeight="1" s="27">
-      <c r="A24" s="115" t="inlineStr">
+      <c r="A24" s="109" t="inlineStr">
         <is>
           <t>Внешний осмотр</t>
         </is>
       </c>
-      <c r="F24" s="160" t="n"/>
-      <c r="G24" s="161" t="inlineStr">
+      <c r="F24" s="161" t="n"/>
+      <c r="G24" s="162" t="inlineStr">
         <is>
           <t>соответствует</t>
         </is>
       </c>
-      <c r="H24" s="150" t="n"/>
-      <c r="I24" s="150" t="n"/>
-      <c r="J24" s="150" t="n"/>
-      <c r="K24" s="150" t="n"/>
-      <c r="L24" s="150" t="n"/>
-      <c r="M24" s="150" t="n"/>
-      <c r="N24" s="153" t="n"/>
+      <c r="H24" s="151" t="n"/>
+      <c r="I24" s="151" t="n"/>
+      <c r="J24" s="151" t="n"/>
+      <c r="K24" s="151" t="n"/>
+      <c r="L24" s="151" t="n"/>
+      <c r="M24" s="151" t="n"/>
+      <c r="N24" s="154" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="154" t="n"/>
-      <c r="B25" s="155" t="n"/>
-      <c r="C25" s="155" t="n"/>
-      <c r="D25" s="155" t="n"/>
-      <c r="E25" s="155" t="n"/>
-      <c r="F25" s="156" t="n"/>
-      <c r="G25" s="162" t="n"/>
-      <c r="H25" s="163" t="n"/>
-      <c r="I25" s="163" t="n"/>
-      <c r="J25" s="163" t="n"/>
-      <c r="K25" s="163" t="n"/>
-      <c r="L25" s="163" t="n"/>
-      <c r="M25" s="163" t="n"/>
-      <c r="N25" s="164" t="n"/>
+      <c r="A25" s="155" t="n"/>
+      <c r="B25" s="156" t="n"/>
+      <c r="C25" s="156" t="n"/>
+      <c r="D25" s="156" t="n"/>
+      <c r="E25" s="156" t="n"/>
+      <c r="F25" s="157" t="n"/>
+      <c r="G25" s="163" t="n"/>
+      <c r="H25" s="164" t="n"/>
+      <c r="I25" s="164" t="n"/>
+      <c r="J25" s="164" t="n"/>
+      <c r="K25" s="164" t="n"/>
+      <c r="L25" s="164" t="n"/>
+      <c r="M25" s="164" t="n"/>
+      <c r="N25" s="165" t="n"/>
     </row>
     <row r="26" ht="12.75" customHeight="1" s="27">
-      <c r="A26" s="128" t="inlineStr">
+      <c r="A26" s="131" t="inlineStr">
         <is>
           <t>Опробование</t>
         </is>
       </c>
-      <c r="F26" s="160" t="n"/>
-      <c r="G26" s="165" t="inlineStr">
+      <c r="F26" s="161" t="n"/>
+      <c r="G26" s="166" t="inlineStr">
         <is>
           <t>соответствует</t>
         </is>
       </c>
-      <c r="N26" s="166" t="n"/>
+      <c r="N26" s="167" t="n"/>
     </row>
     <row r="27" ht="13.5" customHeight="1" s="27" thickBot="1">
-      <c r="A27" s="154" t="n"/>
-      <c r="B27" s="155" t="n"/>
-      <c r="C27" s="155" t="n"/>
-      <c r="D27" s="155" t="n"/>
-      <c r="E27" s="155" t="n"/>
-      <c r="F27" s="156" t="n"/>
-      <c r="G27" s="157" t="n"/>
-      <c r="H27" s="158" t="n"/>
-      <c r="I27" s="158" t="n"/>
-      <c r="J27" s="158" t="n"/>
-      <c r="K27" s="158" t="n"/>
-      <c r="L27" s="158" t="n"/>
-      <c r="M27" s="158" t="n"/>
-      <c r="N27" s="159" t="n"/>
+      <c r="A27" s="155" t="n"/>
+      <c r="B27" s="156" t="n"/>
+      <c r="C27" s="156" t="n"/>
+      <c r="D27" s="156" t="n"/>
+      <c r="E27" s="156" t="n"/>
+      <c r="F27" s="157" t="n"/>
+      <c r="G27" s="158" t="n"/>
+      <c r="H27" s="159" t="n"/>
+      <c r="I27" s="159" t="n"/>
+      <c r="J27" s="159" t="n"/>
+      <c r="K27" s="159" t="n"/>
+      <c r="L27" s="159" t="n"/>
+      <c r="M27" s="159" t="n"/>
+      <c r="N27" s="160" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="23" t="n"/>
@@ -2164,52 +2199,52 @@
       <c r="B29" s="26" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="167" t="n"/>
-      <c r="B30" s="150" t="n"/>
-      <c r="C30" s="150" t="n"/>
-      <c r="D30" s="150" t="n"/>
-      <c r="E30" s="150" t="n"/>
-      <c r="F30" s="150" t="n"/>
-      <c r="G30" s="153" t="n"/>
-      <c r="H30" s="168" t="inlineStr">
+      <c r="A30" s="168" t="n"/>
+      <c r="B30" s="151" t="n"/>
+      <c r="C30" s="151" t="n"/>
+      <c r="D30" s="151" t="n"/>
+      <c r="E30" s="151" t="n"/>
+      <c r="F30" s="151" t="n"/>
+      <c r="G30" s="154" t="n"/>
+      <c r="H30" s="169" t="inlineStr">
         <is>
           <t>тип</t>
         </is>
       </c>
-      <c r="I30" s="150" t="n"/>
-      <c r="J30" s="150" t="n"/>
-      <c r="K30" s="169" t="inlineStr">
+      <c r="I30" s="151" t="n"/>
+      <c r="J30" s="151" t="n"/>
+      <c r="K30" s="170" t="inlineStr">
         <is>
           <t>значение</t>
         </is>
       </c>
-      <c r="L30" s="170" t="n"/>
-      <c r="M30" s="170" t="n"/>
-      <c r="N30" s="171" t="n"/>
+      <c r="L30" s="171" t="n"/>
+      <c r="M30" s="171" t="n"/>
+      <c r="N30" s="172" t="n"/>
     </row>
     <row r="31" ht="13.5" customHeight="1" s="27" thickBot="1">
-      <c r="A31" s="157" t="n"/>
-      <c r="B31" s="158" t="n"/>
-      <c r="C31" s="158" t="n"/>
-      <c r="D31" s="158" t="n"/>
-      <c r="E31" s="158" t="n"/>
-      <c r="F31" s="158" t="n"/>
-      <c r="G31" s="159" t="n"/>
-      <c r="H31" s="158" t="n"/>
-      <c r="I31" s="158" t="n"/>
-      <c r="J31" s="158" t="n"/>
-      <c r="K31" s="172" t="inlineStr">
+      <c r="A31" s="158" t="n"/>
+      <c r="B31" s="159" t="n"/>
+      <c r="C31" s="159" t="n"/>
+      <c r="D31" s="159" t="n"/>
+      <c r="E31" s="159" t="n"/>
+      <c r="F31" s="159" t="n"/>
+      <c r="G31" s="160" t="n"/>
+      <c r="H31" s="159" t="n"/>
+      <c r="I31" s="159" t="n"/>
+      <c r="J31" s="159" t="n"/>
+      <c r="K31" s="173" t="inlineStr">
         <is>
           <t>нижнее</t>
         </is>
       </c>
-      <c r="L31" s="173" t="n"/>
-      <c r="M31" s="174" t="inlineStr">
+      <c r="L31" s="174" t="n"/>
+      <c r="M31" s="175" t="inlineStr">
         <is>
           <t>верхнее</t>
         </is>
       </c>
-      <c r="N31" s="159" t="n"/>
+      <c r="N31" s="160" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="28" t="inlineStr">
@@ -2223,25 +2258,25 @@
       <c r="E32" s="30" t="n"/>
       <c r="F32" s="30" t="n"/>
       <c r="G32" s="31" t="n"/>
-      <c r="H32" s="60" t="inlineStr">
+      <c r="H32" s="127" t="inlineStr">
         <is>
           <t>ТП-ХК</t>
         </is>
       </c>
-      <c r="I32" s="170" t="n"/>
-      <c r="J32" s="170" t="n"/>
-      <c r="K32" s="100" t="inlineStr">
+      <c r="I32" s="171" t="n"/>
+      <c r="J32" s="171" t="n"/>
+      <c r="K32" s="89" t="inlineStr">
         <is>
           <t>-50</t>
         </is>
       </c>
-      <c r="L32" s="175" t="n"/>
-      <c r="M32" s="101" t="inlineStr">
+      <c r="L32" s="176" t="n"/>
+      <c r="M32" s="140" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N32" s="171" t="n"/>
+      <c r="N32" s="172" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="32" t="inlineStr">
@@ -2254,26 +2289,26 @@
       <c r="D33" s="34" t="n"/>
       <c r="E33" s="34" t="n"/>
       <c r="F33" s="34" t="n"/>
-      <c r="G33" s="83" t="n"/>
-      <c r="H33" s="64" t="inlineStr">
+      <c r="G33" s="86" t="n"/>
+      <c r="H33" s="85" t="inlineStr">
         <is>
           <t>°С</t>
         </is>
       </c>
-      <c r="I33" s="176" t="n"/>
-      <c r="J33" s="176" t="n"/>
-      <c r="K33" s="82" t="inlineStr">
+      <c r="I33" s="177" t="n"/>
+      <c r="J33" s="177" t="n"/>
+      <c r="K33" s="84" t="inlineStr">
         <is>
           <t>-50</t>
         </is>
       </c>
-      <c r="L33" s="176" t="n"/>
-      <c r="M33" s="177" t="inlineStr">
+      <c r="L33" s="177" t="n"/>
+      <c r="M33" s="178" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="N33" s="178" t="n"/>
+      <c r="N33" s="179" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="32" t="inlineStr">
@@ -2287,17 +2322,17 @@
       <c r="E34" s="34" t="n"/>
       <c r="F34" s="34" t="n"/>
       <c r="G34" s="36" t="n"/>
-      <c r="H34" s="179" t="inlineStr">
+      <c r="H34" s="180" t="inlineStr">
         <is>
           <t>линейная</t>
         </is>
       </c>
-      <c r="I34" s="176" t="n"/>
-      <c r="J34" s="176" t="n"/>
-      <c r="K34" s="176" t="n"/>
-      <c r="L34" s="176" t="n"/>
-      <c r="M34" s="176" t="n"/>
-      <c r="N34" s="178" t="n"/>
+      <c r="I34" s="177" t="n"/>
+      <c r="J34" s="177" t="n"/>
+      <c r="K34" s="177" t="n"/>
+      <c r="L34" s="177" t="n"/>
+      <c r="M34" s="177" t="n"/>
+      <c r="N34" s="179" t="n"/>
     </row>
     <row r="35" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A35" s="37" t="inlineStr">
@@ -2311,15 +2346,15 @@
       <c r="E35" s="38" t="n"/>
       <c r="F35" s="38" t="n"/>
       <c r="G35" s="39" t="n"/>
-      <c r="H35" s="180" t="n">
+      <c r="H35" s="181" t="n">
         <v>6.247</v>
       </c>
-      <c r="I35" s="181" t="n"/>
-      <c r="J35" s="181" t="n"/>
-      <c r="K35" s="181" t="n"/>
-      <c r="L35" s="181" t="n"/>
-      <c r="M35" s="181" t="n"/>
-      <c r="N35" s="182" t="n"/>
+      <c r="I35" s="182" t="n"/>
+      <c r="J35" s="182" t="n"/>
+      <c r="K35" s="182" t="n"/>
+      <c r="L35" s="182" t="n"/>
+      <c r="M35" s="182" t="n"/>
+      <c r="N35" s="183" t="n"/>
     </row>
     <row r="36">
       <c r="C36" s="40" t="n"/>
@@ -2336,258 +2371,258 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="84" t="inlineStr">
+      <c r="A38" s="67" t="inlineStr">
         <is>
           <t>поверяемая точка</t>
         </is>
       </c>
-      <c r="B38" s="170" t="n"/>
-      <c r="C38" s="170" t="n"/>
-      <c r="D38" s="175" t="n"/>
-      <c r="E38" s="183" t="inlineStr">
+      <c r="B38" s="171" t="n"/>
+      <c r="C38" s="171" t="n"/>
+      <c r="D38" s="176" t="n"/>
+      <c r="E38" s="184" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное  выходного сигнала, </t>
         </is>
       </c>
-      <c r="F38" s="151" t="n"/>
-      <c r="G38" s="183" t="inlineStr">
+      <c r="F38" s="152" t="n"/>
+      <c r="G38" s="184" t="inlineStr">
         <is>
           <t xml:space="preserve">значение выходного сигнала, </t>
         </is>
       </c>
-      <c r="H38" s="151" t="n"/>
-      <c r="I38" s="85" t="inlineStr">
+      <c r="H38" s="152" t="n"/>
+      <c r="I38" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное отклонение, </t>
         </is>
       </c>
-      <c r="J38" s="151" t="n"/>
-      <c r="K38" s="85" t="inlineStr">
+      <c r="J38" s="152" t="n"/>
+      <c r="K38" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">допускаемое абсолютное отклонение, </t>
         </is>
       </c>
-      <c r="L38" s="151" t="n"/>
-      <c r="M38" s="85" t="inlineStr">
+      <c r="L38" s="152" t="n"/>
+      <c r="M38" s="68" t="inlineStr">
         <is>
           <t>относительное отклонение (приведенное), %</t>
         </is>
       </c>
-      <c r="N38" s="151" t="n"/>
+      <c r="N38" s="152" t="n"/>
       <c r="O38" s="41" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="97" t="inlineStr">
+      <c r="A39" s="80" t="inlineStr">
         <is>
           <t>% от диапа-зона входного сигнала</t>
         </is>
       </c>
-      <c r="B39" s="184" t="n"/>
-      <c r="C39" s="78" t="inlineStr">
+      <c r="B39" s="185" t="n"/>
+      <c r="C39" s="82" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение входного, </t>
         </is>
       </c>
-      <c r="D39" s="184" t="n"/>
-      <c r="E39" s="185" t="n"/>
-      <c r="F39" s="160" t="n"/>
-      <c r="G39" s="185" t="n"/>
-      <c r="H39" s="160" t="n"/>
-      <c r="I39" s="185" t="n"/>
-      <c r="J39" s="160" t="n"/>
-      <c r="K39" s="185" t="n"/>
-      <c r="L39" s="160" t="n"/>
-      <c r="M39" s="185" t="n"/>
-      <c r="N39" s="160" t="n"/>
+      <c r="D39" s="185" t="n"/>
+      <c r="E39" s="186" t="n"/>
+      <c r="F39" s="161" t="n"/>
+      <c r="G39" s="186" t="n"/>
+      <c r="H39" s="161" t="n"/>
+      <c r="I39" s="186" t="n"/>
+      <c r="J39" s="161" t="n"/>
+      <c r="K39" s="186" t="n"/>
+      <c r="L39" s="161" t="n"/>
+      <c r="M39" s="186" t="n"/>
+      <c r="N39" s="161" t="n"/>
       <c r="O39" s="41" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="186" t="n"/>
-      <c r="B40" s="160" t="n"/>
-      <c r="C40" s="185" t="n"/>
-      <c r="D40" s="160" t="n"/>
-      <c r="E40" s="185" t="n"/>
-      <c r="F40" s="160" t="n"/>
-      <c r="G40" s="185" t="n"/>
-      <c r="H40" s="160" t="n"/>
-      <c r="I40" s="185" t="n"/>
-      <c r="J40" s="160" t="n"/>
-      <c r="K40" s="185" t="n"/>
-      <c r="L40" s="160" t="n"/>
-      <c r="M40" s="185" t="n"/>
-      <c r="N40" s="160" t="n"/>
+      <c r="A40" s="187" t="n"/>
+      <c r="B40" s="161" t="n"/>
+      <c r="C40" s="186" t="n"/>
+      <c r="D40" s="161" t="n"/>
+      <c r="E40" s="186" t="n"/>
+      <c r="F40" s="161" t="n"/>
+      <c r="G40" s="186" t="n"/>
+      <c r="H40" s="161" t="n"/>
+      <c r="I40" s="186" t="n"/>
+      <c r="J40" s="161" t="n"/>
+      <c r="K40" s="186" t="n"/>
+      <c r="L40" s="161" t="n"/>
+      <c r="M40" s="186" t="n"/>
+      <c r="N40" s="161" t="n"/>
       <c r="O40" s="41" t="n"/>
     </row>
     <row r="41" ht="13.5" customHeight="1" s="27" thickBot="1">
-      <c r="A41" s="154" t="n"/>
-      <c r="B41" s="156" t="n"/>
-      <c r="C41" s="187" t="n"/>
-      <c r="D41" s="156" t="n"/>
-      <c r="E41" s="188" t="n"/>
-      <c r="F41" s="173" t="n"/>
-      <c r="G41" s="188" t="n"/>
-      <c r="H41" s="173" t="n"/>
-      <c r="I41" s="187" t="n"/>
-      <c r="J41" s="156" t="n"/>
-      <c r="K41" s="187" t="n"/>
-      <c r="L41" s="156" t="n"/>
-      <c r="M41" s="187" t="n"/>
-      <c r="N41" s="156" t="n"/>
+      <c r="A41" s="155" t="n"/>
+      <c r="B41" s="157" t="n"/>
+      <c r="C41" s="188" t="n"/>
+      <c r="D41" s="157" t="n"/>
+      <c r="E41" s="189" t="n"/>
+      <c r="F41" s="174" t="n"/>
+      <c r="G41" s="189" t="n"/>
+      <c r="H41" s="174" t="n"/>
+      <c r="I41" s="188" t="n"/>
+      <c r="J41" s="157" t="n"/>
+      <c r="K41" s="188" t="n"/>
+      <c r="L41" s="157" t="n"/>
+      <c r="M41" s="188" t="n"/>
+      <c r="N41" s="157" t="n"/>
       <c r="O41" s="41" t="n"/>
     </row>
     <row r="42" ht="15" customHeight="1" s="27">
-      <c r="A42" s="138" t="n">
+      <c r="A42" s="88" t="n">
         <v>5</v>
       </c>
-      <c r="B42" s="175" t="n"/>
-      <c r="C42" s="147" t="inlineStr">
+      <c r="B42" s="176" t="n"/>
+      <c r="C42" s="190" t="inlineStr">
         <is>
           <t>-17,500</t>
         </is>
       </c>
-      <c r="D42" s="175" t="n"/>
-      <c r="E42" s="189" t="inlineStr">
+      <c r="D42" s="176" t="n"/>
+      <c r="E42" s="191" t="inlineStr">
         <is>
           <t>2,500</t>
         </is>
       </c>
-      <c r="F42" s="175" t="n"/>
-      <c r="G42" s="189" t="inlineStr">
+      <c r="F42" s="176" t="n"/>
+      <c r="G42" s="191" t="inlineStr">
         <is>
           <t>2,300</t>
         </is>
       </c>
-      <c r="H42" s="175" t="n"/>
-      <c r="I42" s="100" t="n"/>
-      <c r="J42" s="175" t="n"/>
-      <c r="K42" s="100" t="n"/>
-      <c r="L42" s="175" t="n"/>
-      <c r="M42" s="100" t="n"/>
-      <c r="N42" s="175" t="n"/>
+      <c r="H42" s="176" t="n"/>
+      <c r="I42" s="89" t="n"/>
+      <c r="J42" s="176" t="n"/>
+      <c r="K42" s="89" t="n"/>
+      <c r="L42" s="176" t="n"/>
+      <c r="M42" s="89" t="n"/>
+      <c r="N42" s="176" t="n"/>
       <c r="O42" s="41" t="n"/>
     </row>
     <row r="43" ht="15" customHeight="1" s="27">
-      <c r="A43" s="68" t="n">
+      <c r="A43" s="51" t="n">
         <v>25</v>
       </c>
-      <c r="B43" s="156" t="n"/>
-      <c r="C43" s="141" t="inlineStr">
+      <c r="B43" s="157" t="n"/>
+      <c r="C43" s="192" t="inlineStr">
         <is>
           <t>112,500</t>
         </is>
       </c>
-      <c r="D43" s="156" t="n"/>
-      <c r="E43" s="190" t="inlineStr">
+      <c r="D43" s="157" t="n"/>
+      <c r="E43" s="193" t="inlineStr">
         <is>
           <t>212,500</t>
         </is>
       </c>
-      <c r="F43" s="156" t="n"/>
-      <c r="G43" s="190" t="inlineStr">
+      <c r="F43" s="157" t="n"/>
+      <c r="G43" s="193" t="inlineStr">
         <is>
           <t>210,000</t>
         </is>
       </c>
-      <c r="H43" s="156" t="n"/>
-      <c r="I43" s="69" t="n"/>
-      <c r="J43" s="156" t="n"/>
-      <c r="K43" s="69" t="n"/>
-      <c r="L43" s="156" t="n"/>
-      <c r="M43" s="69" t="n"/>
-      <c r="N43" s="156" t="n"/>
+      <c r="H43" s="157" t="n"/>
+      <c r="I43" s="52" t="n"/>
+      <c r="J43" s="157" t="n"/>
+      <c r="K43" s="52" t="n"/>
+      <c r="L43" s="157" t="n"/>
+      <c r="M43" s="52" t="n"/>
+      <c r="N43" s="157" t="n"/>
       <c r="O43" s="41" t="n"/>
     </row>
     <row r="44" ht="15" customHeight="1" s="27">
-      <c r="A44" s="68" t="n">
+      <c r="A44" s="51" t="n">
         <v>50</v>
       </c>
-      <c r="B44" s="156" t="n"/>
-      <c r="C44" s="141" t="inlineStr">
+      <c r="B44" s="157" t="n"/>
+      <c r="C44" s="192" t="inlineStr">
         <is>
           <t>275,000</t>
         </is>
       </c>
-      <c r="D44" s="156" t="n"/>
-      <c r="E44" s="190" t="inlineStr">
+      <c r="D44" s="157" t="n"/>
+      <c r="E44" s="193" t="inlineStr">
         <is>
           <t>475,000</t>
         </is>
       </c>
-      <c r="F44" s="156" t="n"/>
-      <c r="G44" s="190" t="inlineStr">
+      <c r="F44" s="157" t="n"/>
+      <c r="G44" s="193" t="inlineStr">
         <is>
           <t>476,000</t>
         </is>
       </c>
-      <c r="H44" s="156" t="n"/>
-      <c r="I44" s="69" t="n"/>
-      <c r="J44" s="156" t="n"/>
-      <c r="K44" s="69" t="n"/>
-      <c r="L44" s="156" t="n"/>
-      <c r="M44" s="69" t="n"/>
-      <c r="N44" s="156" t="n"/>
+      <c r="H44" s="157" t="n"/>
+      <c r="I44" s="52" t="n"/>
+      <c r="J44" s="157" t="n"/>
+      <c r="K44" s="52" t="n"/>
+      <c r="L44" s="157" t="n"/>
+      <c r="M44" s="52" t="n"/>
+      <c r="N44" s="157" t="n"/>
       <c r="O44" s="41" t="n"/>
     </row>
     <row r="45" ht="15" customHeight="1" s="27">
-      <c r="A45" s="68" t="n">
+      <c r="A45" s="51" t="n">
         <v>75</v>
       </c>
-      <c r="B45" s="156" t="n"/>
-      <c r="C45" s="141" t="inlineStr">
+      <c r="B45" s="157" t="n"/>
+      <c r="C45" s="192" t="inlineStr">
         <is>
           <t>437,500</t>
         </is>
       </c>
-      <c r="D45" s="156" t="n"/>
-      <c r="E45" s="190" t="inlineStr">
+      <c r="D45" s="157" t="n"/>
+      <c r="E45" s="193" t="inlineStr">
         <is>
           <t>737,500</t>
         </is>
       </c>
-      <c r="F45" s="156" t="n"/>
-      <c r="G45" s="190" t="inlineStr">
+      <c r="F45" s="157" t="n"/>
+      <c r="G45" s="193" t="inlineStr">
         <is>
           <t>736,980</t>
         </is>
       </c>
-      <c r="H45" s="156" t="n"/>
-      <c r="I45" s="69" t="n"/>
-      <c r="J45" s="156" t="n"/>
-      <c r="K45" s="69" t="n"/>
-      <c r="L45" s="156" t="n"/>
-      <c r="M45" s="69" t="n"/>
-      <c r="N45" s="156" t="n"/>
+      <c r="H45" s="157" t="n"/>
+      <c r="I45" s="52" t="n"/>
+      <c r="J45" s="157" t="n"/>
+      <c r="K45" s="52" t="n"/>
+      <c r="L45" s="157" t="n"/>
+      <c r="M45" s="52" t="n"/>
+      <c r="N45" s="157" t="n"/>
       <c r="O45" s="41" t="n"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="27" thickBot="1">
-      <c r="A46" s="56" t="n">
+      <c r="A46" s="58" t="n">
         <v>95</v>
       </c>
-      <c r="B46" s="173" t="n"/>
-      <c r="C46" s="144" t="inlineStr">
+      <c r="B46" s="174" t="n"/>
+      <c r="C46" s="194" t="inlineStr">
         <is>
           <t>567,500</t>
         </is>
       </c>
-      <c r="D46" s="173" t="n"/>
-      <c r="E46" s="191" t="inlineStr">
+      <c r="D46" s="174" t="n"/>
+      <c r="E46" s="195" t="inlineStr">
         <is>
           <t>947,500</t>
         </is>
       </c>
-      <c r="F46" s="173" t="n"/>
-      <c r="G46" s="191" t="inlineStr">
+      <c r="F46" s="174" t="n"/>
+      <c r="G46" s="195" t="inlineStr">
         <is>
           <t>947,600</t>
         </is>
       </c>
-      <c r="H46" s="173" t="n"/>
-      <c r="I46" s="57" t="n"/>
-      <c r="J46" s="173" t="n"/>
-      <c r="K46" s="57" t="n"/>
-      <c r="L46" s="173" t="n"/>
-      <c r="M46" s="57" t="n"/>
-      <c r="N46" s="173" t="n"/>
+      <c r="H46" s="174" t="n"/>
+      <c r="I46" s="59" t="n"/>
+      <c r="J46" s="174" t="n"/>
+      <c r="K46" s="59" t="n"/>
+      <c r="L46" s="174" t="n"/>
+      <c r="M46" s="59" t="n"/>
+      <c r="N46" s="174" t="n"/>
     </row>
     <row r="48" ht="12.75" customHeight="1" s="27" thickBot="1">
       <c r="A48" s="43" t="inlineStr">
@@ -2599,44 +2634,44 @@
       <c r="C48" s="26" t="n"/>
     </row>
     <row r="49" ht="12.75" customHeight="1" s="27">
-      <c r="A49" s="167" t="n"/>
-      <c r="B49" s="150" t="n"/>
-      <c r="C49" s="150" t="n"/>
-      <c r="D49" s="150" t="n"/>
-      <c r="E49" s="150" t="n"/>
-      <c r="F49" s="150" t="n"/>
-      <c r="G49" s="153" t="n"/>
-      <c r="H49" s="168" t="inlineStr">
+      <c r="A49" s="168" t="n"/>
+      <c r="B49" s="151" t="n"/>
+      <c r="C49" s="151" t="n"/>
+      <c r="D49" s="151" t="n"/>
+      <c r="E49" s="151" t="n"/>
+      <c r="F49" s="151" t="n"/>
+      <c r="G49" s="154" t="n"/>
+      <c r="H49" s="169" t="inlineStr">
         <is>
           <t>тип</t>
         </is>
       </c>
-      <c r="I49" s="150" t="n"/>
-      <c r="J49" s="150" t="n"/>
-      <c r="K49" s="192" t="inlineStr">
+      <c r="I49" s="151" t="n"/>
+      <c r="J49" s="151" t="n"/>
+      <c r="K49" s="196" t="inlineStr">
         <is>
           <t>значение</t>
         </is>
       </c>
-      <c r="L49" s="150" t="n"/>
-      <c r="M49" s="150" t="n"/>
-      <c r="N49" s="153" t="n"/>
+      <c r="L49" s="151" t="n"/>
+      <c r="M49" s="151" t="n"/>
+      <c r="N49" s="154" t="n"/>
     </row>
     <row r="50" ht="15.75" customHeight="1" s="27" thickBot="1">
-      <c r="A50" s="157" t="n"/>
-      <c r="B50" s="158" t="n"/>
-      <c r="C50" s="158" t="n"/>
-      <c r="D50" s="158" t="n"/>
-      <c r="E50" s="158" t="n"/>
-      <c r="F50" s="158" t="n"/>
-      <c r="G50" s="159" t="n"/>
-      <c r="H50" s="158" t="n"/>
-      <c r="I50" s="158" t="n"/>
-      <c r="J50" s="158" t="n"/>
-      <c r="K50" s="188" t="n"/>
-      <c r="L50" s="158" t="n"/>
-      <c r="M50" s="158" t="n"/>
-      <c r="N50" s="159" t="n"/>
+      <c r="A50" s="158" t="n"/>
+      <c r="B50" s="159" t="n"/>
+      <c r="C50" s="159" t="n"/>
+      <c r="D50" s="159" t="n"/>
+      <c r="E50" s="159" t="n"/>
+      <c r="F50" s="159" t="n"/>
+      <c r="G50" s="160" t="n"/>
+      <c r="H50" s="159" t="n"/>
+      <c r="I50" s="159" t="n"/>
+      <c r="J50" s="159" t="n"/>
+      <c r="K50" s="189" t="n"/>
+      <c r="L50" s="159" t="n"/>
+      <c r="M50" s="159" t="n"/>
+      <c r="N50" s="160" t="n"/>
     </row>
     <row r="51" ht="15" customHeight="1" s="27">
       <c r="A51" s="32" t="inlineStr">
@@ -2649,22 +2684,22 @@
       <c r="D51" s="34" t="n"/>
       <c r="E51" s="34" t="n"/>
       <c r="F51" s="34" t="n"/>
-      <c r="G51" s="83" t="n"/>
-      <c r="H51" s="64" t="inlineStr">
+      <c r="G51" s="86" t="n"/>
+      <c r="H51" s="85" t="inlineStr">
         <is>
           <t>напряжение</t>
         </is>
       </c>
-      <c r="I51" s="176" t="n"/>
-      <c r="J51" s="176" t="n"/>
-      <c r="K51" s="177" t="inlineStr">
+      <c r="I51" s="177" t="n"/>
+      <c r="J51" s="177" t="n"/>
+      <c r="K51" s="178" t="inlineStr">
         <is>
           <t>24В</t>
         </is>
       </c>
-      <c r="L51" s="176" t="n"/>
-      <c r="M51" s="176" t="n"/>
-      <c r="N51" s="178" t="n"/>
+      <c r="L51" s="177" t="n"/>
+      <c r="M51" s="177" t="n"/>
+      <c r="N51" s="179" t="n"/>
     </row>
     <row r="52" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A52" s="37" t="inlineStr">
@@ -2678,15 +2713,15 @@
       <c r="E52" s="38" t="n"/>
       <c r="F52" s="38" t="n"/>
       <c r="G52" s="39" t="n"/>
-      <c r="H52" s="180" t="n">
+      <c r="H52" s="181" t="n">
         <v>2.04</v>
       </c>
-      <c r="I52" s="181" t="n"/>
-      <c r="J52" s="181" t="n"/>
-      <c r="K52" s="181" t="n"/>
-      <c r="L52" s="181" t="n"/>
-      <c r="M52" s="181" t="n"/>
-      <c r="N52" s="182" t="n"/>
+      <c r="I52" s="182" t="n"/>
+      <c r="J52" s="182" t="n"/>
+      <c r="K52" s="182" t="n"/>
+      <c r="L52" s="182" t="n"/>
+      <c r="M52" s="182" t="n"/>
+      <c r="N52" s="183" t="n"/>
     </row>
     <row r="53">
       <c r="C53" s="40" t="n"/>
@@ -2703,132 +2738,132 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="84" t="inlineStr">
+      <c r="A55" s="67" t="inlineStr">
         <is>
           <t>поверяемая точка</t>
         </is>
       </c>
-      <c r="B55" s="170" t="n"/>
-      <c r="C55" s="170" t="n"/>
-      <c r="D55" s="175" t="n"/>
-      <c r="E55" s="183" t="inlineStr">
+      <c r="B55" s="171" t="n"/>
+      <c r="C55" s="171" t="n"/>
+      <c r="D55" s="176" t="n"/>
+      <c r="E55" s="184" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение выходного сигнала, </t>
         </is>
       </c>
-      <c r="F55" s="151" t="n"/>
-      <c r="G55" s="183" t="inlineStr">
+      <c r="F55" s="152" t="n"/>
+      <c r="G55" s="184" t="inlineStr">
         <is>
           <t xml:space="preserve">значение выходного сигнала, </t>
         </is>
       </c>
-      <c r="H55" s="151" t="n"/>
-      <c r="I55" s="85" t="inlineStr">
+      <c r="H55" s="152" t="n"/>
+      <c r="I55" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное отклонение, </t>
         </is>
       </c>
-      <c r="J55" s="151" t="n"/>
-      <c r="K55" s="85" t="inlineStr">
+      <c r="J55" s="152" t="n"/>
+      <c r="K55" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">допускаемое абсолютное отклонение, </t>
         </is>
       </c>
-      <c r="L55" s="151" t="n"/>
-      <c r="M55" s="85" t="inlineStr">
+      <c r="L55" s="152" t="n"/>
+      <c r="M55" s="68" t="inlineStr">
         <is>
           <t>относительное отклонение (приведенное), %</t>
         </is>
       </c>
-      <c r="N55" s="151" t="n"/>
+      <c r="N55" s="152" t="n"/>
       <c r="O55" s="41" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="97" t="inlineStr">
+      <c r="A56" s="80" t="inlineStr">
         <is>
           <t>Значение входного сигнала, %</t>
         </is>
       </c>
-      <c r="B56" s="184" t="n"/>
-      <c r="C56" s="78" t="inlineStr">
+      <c r="B56" s="185" t="n"/>
+      <c r="C56" s="82" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение входного,  </t>
         </is>
       </c>
-      <c r="D56" s="184" t="n"/>
-      <c r="E56" s="185" t="n"/>
-      <c r="F56" s="160" t="n"/>
-      <c r="G56" s="185" t="n"/>
-      <c r="H56" s="160" t="n"/>
-      <c r="I56" s="185" t="n"/>
-      <c r="J56" s="160" t="n"/>
-      <c r="K56" s="185" t="n"/>
-      <c r="L56" s="160" t="n"/>
-      <c r="M56" s="185" t="n"/>
-      <c r="N56" s="160" t="n"/>
+      <c r="D56" s="185" t="n"/>
+      <c r="E56" s="186" t="n"/>
+      <c r="F56" s="161" t="n"/>
+      <c r="G56" s="186" t="n"/>
+      <c r="H56" s="161" t="n"/>
+      <c r="I56" s="186" t="n"/>
+      <c r="J56" s="161" t="n"/>
+      <c r="K56" s="186" t="n"/>
+      <c r="L56" s="161" t="n"/>
+      <c r="M56" s="186" t="n"/>
+      <c r="N56" s="161" t="n"/>
       <c r="O56" s="41" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="186" t="n"/>
-      <c r="B57" s="160" t="n"/>
-      <c r="C57" s="185" t="n"/>
-      <c r="D57" s="160" t="n"/>
-      <c r="E57" s="185" t="n"/>
-      <c r="F57" s="160" t="n"/>
-      <c r="G57" s="185" t="n"/>
-      <c r="H57" s="160" t="n"/>
-      <c r="I57" s="185" t="n"/>
-      <c r="J57" s="160" t="n"/>
-      <c r="K57" s="185" t="n"/>
-      <c r="L57" s="160" t="n"/>
-      <c r="M57" s="185" t="n"/>
-      <c r="N57" s="160" t="n"/>
+      <c r="A57" s="187" t="n"/>
+      <c r="B57" s="161" t="n"/>
+      <c r="C57" s="186" t="n"/>
+      <c r="D57" s="161" t="n"/>
+      <c r="E57" s="186" t="n"/>
+      <c r="F57" s="161" t="n"/>
+      <c r="G57" s="186" t="n"/>
+      <c r="H57" s="161" t="n"/>
+      <c r="I57" s="186" t="n"/>
+      <c r="J57" s="161" t="n"/>
+      <c r="K57" s="186" t="n"/>
+      <c r="L57" s="161" t="n"/>
+      <c r="M57" s="186" t="n"/>
+      <c r="N57" s="161" t="n"/>
       <c r="O57" s="41" t="n"/>
     </row>
     <row r="58" ht="13.5" customHeight="1" s="27" thickBot="1">
-      <c r="A58" s="154" t="n"/>
-      <c r="B58" s="156" t="n"/>
-      <c r="C58" s="187" t="n"/>
-      <c r="D58" s="156" t="n"/>
-      <c r="E58" s="188" t="n"/>
-      <c r="F58" s="173" t="n"/>
-      <c r="G58" s="188" t="n"/>
-      <c r="H58" s="173" t="n"/>
-      <c r="I58" s="187" t="n"/>
-      <c r="J58" s="156" t="n"/>
-      <c r="K58" s="187" t="n"/>
-      <c r="L58" s="156" t="n"/>
-      <c r="M58" s="187" t="n"/>
-      <c r="N58" s="156" t="n"/>
+      <c r="A58" s="155" t="n"/>
+      <c r="B58" s="157" t="n"/>
+      <c r="C58" s="188" t="n"/>
+      <c r="D58" s="157" t="n"/>
+      <c r="E58" s="189" t="n"/>
+      <c r="F58" s="174" t="n"/>
+      <c r="G58" s="189" t="n"/>
+      <c r="H58" s="174" t="n"/>
+      <c r="I58" s="188" t="n"/>
+      <c r="J58" s="157" t="n"/>
+      <c r="K58" s="188" t="n"/>
+      <c r="L58" s="157" t="n"/>
+      <c r="M58" s="188" t="n"/>
+      <c r="N58" s="157" t="n"/>
       <c r="O58" s="41" t="n"/>
     </row>
     <row r="59" ht="15.75" customHeight="1" s="27" thickBot="1">
-      <c r="A59" s="56" t="n">
+      <c r="A59" s="58" t="n">
         <v>100</v>
       </c>
-      <c r="B59" s="173" t="n"/>
-      <c r="C59" s="144" t="inlineStr">
+      <c r="B59" s="174" t="n"/>
+      <c r="C59" s="194" t="inlineStr">
         <is>
           <t>24,000</t>
         </is>
       </c>
-      <c r="D59" s="173" t="n"/>
-      <c r="E59" s="58" t="n">
+      <c r="D59" s="174" t="n"/>
+      <c r="E59" s="144" t="n">
         <v>24</v>
       </c>
-      <c r="F59" s="173" t="n"/>
-      <c r="G59" s="191" t="inlineStr">
+      <c r="F59" s="174" t="n"/>
+      <c r="G59" s="195" t="inlineStr">
         <is>
           <t>23,510</t>
         </is>
       </c>
-      <c r="H59" s="173" t="n"/>
-      <c r="I59" s="57" t="n"/>
-      <c r="J59" s="173" t="n"/>
-      <c r="K59" s="57" t="n"/>
-      <c r="L59" s="173" t="n"/>
-      <c r="M59" s="57" t="n"/>
-      <c r="N59" s="173" t="n"/>
+      <c r="H59" s="174" t="n"/>
+      <c r="I59" s="59" t="n"/>
+      <c r="J59" s="174" t="n"/>
+      <c r="K59" s="59" t="n"/>
+      <c r="L59" s="174" t="n"/>
+      <c r="M59" s="59" t="n"/>
+      <c r="N59" s="174" t="n"/>
     </row>
     <row r="61" ht="15.75" customHeight="1" s="27" thickBot="1">
       <c r="A61" s="43" t="inlineStr">
@@ -2840,44 +2875,44 @@
       <c r="C61" s="26" t="n"/>
     </row>
     <row r="62" ht="12.75" customHeight="1" s="27">
-      <c r="A62" s="167" t="n"/>
-      <c r="B62" s="150" t="n"/>
-      <c r="C62" s="150" t="n"/>
-      <c r="D62" s="150" t="n"/>
-      <c r="E62" s="150" t="n"/>
-      <c r="F62" s="150" t="n"/>
-      <c r="G62" s="153" t="n"/>
-      <c r="H62" s="168" t="inlineStr">
+      <c r="A62" s="168" t="n"/>
+      <c r="B62" s="151" t="n"/>
+      <c r="C62" s="151" t="n"/>
+      <c r="D62" s="151" t="n"/>
+      <c r="E62" s="151" t="n"/>
+      <c r="F62" s="151" t="n"/>
+      <c r="G62" s="154" t="n"/>
+      <c r="H62" s="169" t="inlineStr">
         <is>
           <t>тип</t>
         </is>
       </c>
-      <c r="I62" s="150" t="n"/>
-      <c r="J62" s="150" t="n"/>
-      <c r="K62" s="192" t="inlineStr">
+      <c r="I62" s="151" t="n"/>
+      <c r="J62" s="151" t="n"/>
+      <c r="K62" s="196" t="inlineStr">
         <is>
           <t>значение</t>
         </is>
       </c>
-      <c r="L62" s="150" t="n"/>
-      <c r="M62" s="150" t="n"/>
-      <c r="N62" s="153" t="n"/>
+      <c r="L62" s="151" t="n"/>
+      <c r="M62" s="151" t="n"/>
+      <c r="N62" s="154" t="n"/>
     </row>
     <row r="63" ht="15.75" customHeight="1" s="27" thickBot="1">
-      <c r="A63" s="157" t="n"/>
-      <c r="B63" s="158" t="n"/>
-      <c r="C63" s="158" t="n"/>
-      <c r="D63" s="158" t="n"/>
-      <c r="E63" s="158" t="n"/>
-      <c r="F63" s="158" t="n"/>
-      <c r="G63" s="159" t="n"/>
-      <c r="H63" s="158" t="n"/>
-      <c r="I63" s="158" t="n"/>
-      <c r="J63" s="158" t="n"/>
-      <c r="K63" s="188" t="n"/>
-      <c r="L63" s="158" t="n"/>
-      <c r="M63" s="158" t="n"/>
-      <c r="N63" s="159" t="n"/>
+      <c r="A63" s="158" t="n"/>
+      <c r="B63" s="159" t="n"/>
+      <c r="C63" s="159" t="n"/>
+      <c r="D63" s="159" t="n"/>
+      <c r="E63" s="159" t="n"/>
+      <c r="F63" s="159" t="n"/>
+      <c r="G63" s="160" t="n"/>
+      <c r="H63" s="159" t="n"/>
+      <c r="I63" s="159" t="n"/>
+      <c r="J63" s="159" t="n"/>
+      <c r="K63" s="189" t="n"/>
+      <c r="L63" s="159" t="n"/>
+      <c r="M63" s="159" t="n"/>
+      <c r="N63" s="160" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="32" t="inlineStr">
@@ -2890,22 +2925,22 @@
       <c r="D64" s="34" t="n"/>
       <c r="E64" s="34" t="n"/>
       <c r="F64" s="34" t="n"/>
-      <c r="G64" s="83" t="n"/>
-      <c r="H64" s="64" t="inlineStr">
+      <c r="G64" s="86" t="n"/>
+      <c r="H64" s="85" t="inlineStr">
         <is>
           <t>напряжение</t>
         </is>
       </c>
-      <c r="I64" s="176" t="n"/>
-      <c r="J64" s="176" t="n"/>
-      <c r="K64" s="177" t="inlineStr">
+      <c r="I64" s="177" t="n"/>
+      <c r="J64" s="177" t="n"/>
+      <c r="K64" s="178" t="inlineStr">
         <is>
           <t>24В</t>
         </is>
       </c>
-      <c r="L64" s="176" t="n"/>
-      <c r="M64" s="176" t="n"/>
-      <c r="N64" s="178" t="n"/>
+      <c r="L64" s="177" t="n"/>
+      <c r="M64" s="177" t="n"/>
+      <c r="N64" s="179" t="n"/>
     </row>
     <row r="65" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A65" s="37" t="inlineStr">
@@ -2919,15 +2954,15 @@
       <c r="E65" s="38" t="n"/>
       <c r="F65" s="38" t="n"/>
       <c r="G65" s="39" t="n"/>
-      <c r="H65" s="180" t="n">
+      <c r="H65" s="181" t="n">
         <v>2.04</v>
       </c>
-      <c r="I65" s="181" t="n"/>
-      <c r="J65" s="181" t="n"/>
-      <c r="K65" s="181" t="n"/>
-      <c r="L65" s="181" t="n"/>
-      <c r="M65" s="181" t="n"/>
-      <c r="N65" s="182" t="n"/>
+      <c r="I65" s="182" t="n"/>
+      <c r="J65" s="182" t="n"/>
+      <c r="K65" s="182" t="n"/>
+      <c r="L65" s="182" t="n"/>
+      <c r="M65" s="182" t="n"/>
+      <c r="N65" s="183" t="n"/>
     </row>
     <row r="66">
       <c r="C66" s="40" t="n"/>
@@ -2944,132 +2979,132 @@
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1" s="27">
-      <c r="A68" s="84" t="inlineStr">
+      <c r="A68" s="67" t="inlineStr">
         <is>
           <t>поверяемая точка</t>
         </is>
       </c>
-      <c r="B68" s="170" t="n"/>
-      <c r="C68" s="170" t="n"/>
-      <c r="D68" s="175" t="n"/>
-      <c r="E68" s="183" t="inlineStr">
+      <c r="B68" s="171" t="n"/>
+      <c r="C68" s="171" t="n"/>
+      <c r="D68" s="176" t="n"/>
+      <c r="E68" s="184" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение выходного сигнала, </t>
         </is>
       </c>
-      <c r="F68" s="151" t="n"/>
-      <c r="G68" s="183" t="inlineStr">
+      <c r="F68" s="152" t="n"/>
+      <c r="G68" s="184" t="inlineStr">
         <is>
           <t xml:space="preserve">значение выходного сигнала, </t>
         </is>
       </c>
-      <c r="H68" s="151" t="n"/>
-      <c r="I68" s="85" t="inlineStr">
+      <c r="H68" s="152" t="n"/>
+      <c r="I68" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное отклонение, </t>
         </is>
       </c>
-      <c r="J68" s="151" t="n"/>
-      <c r="K68" s="85" t="inlineStr">
+      <c r="J68" s="152" t="n"/>
+      <c r="K68" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">допускаемое абсолютное отклонение, </t>
         </is>
       </c>
-      <c r="L68" s="151" t="n"/>
-      <c r="M68" s="85" t="inlineStr">
+      <c r="L68" s="152" t="n"/>
+      <c r="M68" s="68" t="inlineStr">
         <is>
           <t>относительное отклонение (приведенное), %</t>
         </is>
       </c>
-      <c r="N68" s="151" t="n"/>
+      <c r="N68" s="152" t="n"/>
       <c r="O68" s="41" t="n"/>
     </row>
     <row r="69" ht="12.75" customHeight="1" s="27">
-      <c r="A69" s="97" t="inlineStr">
+      <c r="A69" s="80" t="inlineStr">
         <is>
           <t>% от диапа-зона входного сигнала</t>
         </is>
       </c>
-      <c r="B69" s="184" t="n"/>
-      <c r="C69" s="78" t="inlineStr">
+      <c r="B69" s="185" t="n"/>
+      <c r="C69" s="82" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение входного,  </t>
         </is>
       </c>
-      <c r="D69" s="184" t="n"/>
-      <c r="E69" s="185" t="n"/>
-      <c r="F69" s="160" t="n"/>
-      <c r="G69" s="185" t="n"/>
-      <c r="H69" s="160" t="n"/>
-      <c r="I69" s="185" t="n"/>
-      <c r="J69" s="160" t="n"/>
-      <c r="K69" s="185" t="n"/>
-      <c r="L69" s="160" t="n"/>
-      <c r="M69" s="185" t="n"/>
-      <c r="N69" s="160" t="n"/>
+      <c r="D69" s="185" t="n"/>
+      <c r="E69" s="186" t="n"/>
+      <c r="F69" s="161" t="n"/>
+      <c r="G69" s="186" t="n"/>
+      <c r="H69" s="161" t="n"/>
+      <c r="I69" s="186" t="n"/>
+      <c r="J69" s="161" t="n"/>
+      <c r="K69" s="186" t="n"/>
+      <c r="L69" s="161" t="n"/>
+      <c r="M69" s="186" t="n"/>
+      <c r="N69" s="161" t="n"/>
       <c r="O69" s="41" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="186" t="n"/>
-      <c r="B70" s="160" t="n"/>
-      <c r="C70" s="185" t="n"/>
-      <c r="D70" s="160" t="n"/>
-      <c r="E70" s="185" t="n"/>
-      <c r="F70" s="160" t="n"/>
-      <c r="G70" s="185" t="n"/>
-      <c r="H70" s="160" t="n"/>
-      <c r="I70" s="185" t="n"/>
-      <c r="J70" s="160" t="n"/>
-      <c r="K70" s="185" t="n"/>
-      <c r="L70" s="160" t="n"/>
-      <c r="M70" s="185" t="n"/>
-      <c r="N70" s="160" t="n"/>
+      <c r="A70" s="187" t="n"/>
+      <c r="B70" s="161" t="n"/>
+      <c r="C70" s="186" t="n"/>
+      <c r="D70" s="161" t="n"/>
+      <c r="E70" s="186" t="n"/>
+      <c r="F70" s="161" t="n"/>
+      <c r="G70" s="186" t="n"/>
+      <c r="H70" s="161" t="n"/>
+      <c r="I70" s="186" t="n"/>
+      <c r="J70" s="161" t="n"/>
+      <c r="K70" s="186" t="n"/>
+      <c r="L70" s="161" t="n"/>
+      <c r="M70" s="186" t="n"/>
+      <c r="N70" s="161" t="n"/>
       <c r="O70" s="41" t="n"/>
     </row>
     <row r="71" ht="13.5" customHeight="1" s="27" thickBot="1">
-      <c r="A71" s="154" t="n"/>
-      <c r="B71" s="156" t="n"/>
-      <c r="C71" s="187" t="n"/>
-      <c r="D71" s="156" t="n"/>
-      <c r="E71" s="188" t="n"/>
-      <c r="F71" s="173" t="n"/>
-      <c r="G71" s="188" t="n"/>
-      <c r="H71" s="173" t="n"/>
-      <c r="I71" s="187" t="n"/>
-      <c r="J71" s="156" t="n"/>
-      <c r="K71" s="187" t="n"/>
-      <c r="L71" s="156" t="n"/>
-      <c r="M71" s="187" t="n"/>
-      <c r="N71" s="156" t="n"/>
+      <c r="A71" s="155" t="n"/>
+      <c r="B71" s="157" t="n"/>
+      <c r="C71" s="188" t="n"/>
+      <c r="D71" s="157" t="n"/>
+      <c r="E71" s="189" t="n"/>
+      <c r="F71" s="174" t="n"/>
+      <c r="G71" s="189" t="n"/>
+      <c r="H71" s="174" t="n"/>
+      <c r="I71" s="188" t="n"/>
+      <c r="J71" s="157" t="n"/>
+      <c r="K71" s="188" t="n"/>
+      <c r="L71" s="157" t="n"/>
+      <c r="M71" s="188" t="n"/>
+      <c r="N71" s="157" t="n"/>
       <c r="O71" s="41" t="n"/>
     </row>
     <row r="72" ht="15.75" customHeight="1" s="27" thickBot="1">
-      <c r="A72" s="56" t="n">
+      <c r="A72" s="58" t="n">
         <v>100</v>
       </c>
-      <c r="B72" s="173" t="n"/>
-      <c r="C72" s="144" t="inlineStr">
+      <c r="B72" s="174" t="n"/>
+      <c r="C72" s="194" t="inlineStr">
         <is>
           <t>24,000</t>
         </is>
       </c>
-      <c r="D72" s="173" t="n"/>
-      <c r="E72" s="58" t="n">
+      <c r="D72" s="174" t="n"/>
+      <c r="E72" s="144" t="n">
         <v>24</v>
       </c>
-      <c r="F72" s="173" t="n"/>
-      <c r="G72" s="191" t="inlineStr">
+      <c r="F72" s="174" t="n"/>
+      <c r="G72" s="195" t="inlineStr">
         <is>
           <t>24,480</t>
         </is>
       </c>
-      <c r="H72" s="173" t="n"/>
-      <c r="I72" s="57" t="n"/>
-      <c r="J72" s="173" t="n"/>
-      <c r="K72" s="57" t="n"/>
-      <c r="L72" s="173" t="n"/>
-      <c r="M72" s="57" t="n"/>
-      <c r="N72" s="173" t="n"/>
+      <c r="H72" s="174" t="n"/>
+      <c r="I72" s="59" t="n"/>
+      <c r="J72" s="174" t="n"/>
+      <c r="K72" s="59" t="n"/>
+      <c r="L72" s="174" t="n"/>
+      <c r="M72" s="59" t="n"/>
+      <c r="N72" s="174" t="n"/>
     </row>
     <row r="74" ht="15.75" customHeight="1" s="27" thickBot="1">
       <c r="A74" s="43" t="inlineStr">
@@ -3080,52 +3115,52 @@
       <c r="B74" s="26" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="167" t="n"/>
-      <c r="B75" s="150" t="n"/>
-      <c r="C75" s="150" t="n"/>
-      <c r="D75" s="150" t="n"/>
-      <c r="E75" s="150" t="n"/>
-      <c r="F75" s="150" t="n"/>
-      <c r="G75" s="153" t="n"/>
-      <c r="H75" s="168" t="inlineStr">
+      <c r="A75" s="168" t="n"/>
+      <c r="B75" s="151" t="n"/>
+      <c r="C75" s="151" t="n"/>
+      <c r="D75" s="151" t="n"/>
+      <c r="E75" s="151" t="n"/>
+      <c r="F75" s="151" t="n"/>
+      <c r="G75" s="154" t="n"/>
+      <c r="H75" s="169" t="inlineStr">
         <is>
           <t>тип</t>
         </is>
       </c>
-      <c r="I75" s="150" t="n"/>
-      <c r="J75" s="150" t="n"/>
-      <c r="K75" s="169" t="inlineStr">
+      <c r="I75" s="151" t="n"/>
+      <c r="J75" s="151" t="n"/>
+      <c r="K75" s="170" t="inlineStr">
         <is>
           <t>значение</t>
         </is>
       </c>
-      <c r="L75" s="170" t="n"/>
-      <c r="M75" s="170" t="n"/>
-      <c r="N75" s="171" t="n"/>
+      <c r="L75" s="171" t="n"/>
+      <c r="M75" s="171" t="n"/>
+      <c r="N75" s="172" t="n"/>
     </row>
     <row r="76" ht="13.5" customHeight="1" s="27" thickBot="1">
-      <c r="A76" s="157" t="n"/>
-      <c r="B76" s="158" t="n"/>
-      <c r="C76" s="158" t="n"/>
-      <c r="D76" s="158" t="n"/>
-      <c r="E76" s="158" t="n"/>
-      <c r="F76" s="158" t="n"/>
-      <c r="G76" s="159" t="n"/>
-      <c r="H76" s="158" t="n"/>
-      <c r="I76" s="158" t="n"/>
-      <c r="J76" s="158" t="n"/>
-      <c r="K76" s="172" t="inlineStr">
+      <c r="A76" s="158" t="n"/>
+      <c r="B76" s="159" t="n"/>
+      <c r="C76" s="159" t="n"/>
+      <c r="D76" s="159" t="n"/>
+      <c r="E76" s="159" t="n"/>
+      <c r="F76" s="159" t="n"/>
+      <c r="G76" s="160" t="n"/>
+      <c r="H76" s="159" t="n"/>
+      <c r="I76" s="159" t="n"/>
+      <c r="J76" s="159" t="n"/>
+      <c r="K76" s="173" t="inlineStr">
         <is>
           <t>нижнее</t>
         </is>
       </c>
-      <c r="L76" s="173" t="n"/>
-      <c r="M76" s="174" t="inlineStr">
+      <c r="L76" s="174" t="n"/>
+      <c r="M76" s="175" t="inlineStr">
         <is>
           <t>верхнее</t>
         </is>
       </c>
-      <c r="N76" s="159" t="n"/>
+      <c r="N76" s="160" t="n"/>
     </row>
     <row r="77" ht="13.5" customHeight="1" s="27">
       <c r="A77" s="28" t="inlineStr">
@@ -3139,25 +3174,25 @@
       <c r="E77" s="30" t="n"/>
       <c r="F77" s="30" t="n"/>
       <c r="G77" s="31" t="n"/>
-      <c r="H77" s="60" t="inlineStr">
+      <c r="H77" s="127" t="inlineStr">
         <is>
           <t>ТП-ХК</t>
         </is>
       </c>
-      <c r="I77" s="170" t="n"/>
-      <c r="J77" s="170" t="n"/>
-      <c r="K77" s="100" t="inlineStr">
+      <c r="I77" s="171" t="n"/>
+      <c r="J77" s="171" t="n"/>
+      <c r="K77" s="89" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L77" s="175" t="n"/>
-      <c r="M77" s="101" t="inlineStr">
+      <c r="L77" s="176" t="n"/>
+      <c r="M77" s="140" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="N77" s="171" t="n"/>
+      <c r="N77" s="172" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="32" t="inlineStr">
@@ -3170,22 +3205,22 @@
       <c r="D78" s="34" t="n"/>
       <c r="E78" s="34" t="n"/>
       <c r="F78" s="34" t="n"/>
-      <c r="G78" s="83" t="n"/>
-      <c r="H78" s="64" t="inlineStr">
+      <c r="G78" s="86" t="n"/>
+      <c r="H78" s="85" t="inlineStr">
         <is>
           <t>ток</t>
         </is>
       </c>
-      <c r="I78" s="176" t="n"/>
-      <c r="J78" s="176" t="n"/>
-      <c r="K78" s="177" t="inlineStr">
+      <c r="I78" s="177" t="n"/>
+      <c r="J78" s="177" t="n"/>
+      <c r="K78" s="178" t="inlineStr">
         <is>
           <t>0-5</t>
         </is>
       </c>
-      <c r="L78" s="176" t="n"/>
-      <c r="M78" s="176" t="n"/>
-      <c r="N78" s="178" t="n"/>
+      <c r="L78" s="177" t="n"/>
+      <c r="M78" s="177" t="n"/>
+      <c r="N78" s="179" t="n"/>
     </row>
     <row r="79" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A79" s="37" t="inlineStr">
@@ -3199,17 +3234,17 @@
       <c r="E79" s="38" t="n"/>
       <c r="F79" s="38" t="n"/>
       <c r="G79" s="39" t="n"/>
-      <c r="H79" s="180" t="inlineStr">
+      <c r="H79" s="181" t="inlineStr">
         <is>
           <t>0,48</t>
         </is>
       </c>
-      <c r="I79" s="181" t="n"/>
-      <c r="J79" s="181" t="n"/>
-      <c r="K79" s="181" t="n"/>
-      <c r="L79" s="181" t="n"/>
-      <c r="M79" s="181" t="n"/>
-      <c r="N79" s="182" t="n"/>
+      <c r="I79" s="182" t="n"/>
+      <c r="J79" s="182" t="n"/>
+      <c r="K79" s="182" t="n"/>
+      <c r="L79" s="182" t="n"/>
+      <c r="M79" s="182" t="n"/>
+      <c r="N79" s="183" t="n"/>
     </row>
     <row r="80">
       <c r="C80" s="40" t="n"/>
@@ -3226,250 +3261,250 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="84" t="inlineStr">
+      <c r="A82" s="67" t="inlineStr">
         <is>
           <t>поверяемая точка</t>
         </is>
       </c>
-      <c r="B82" s="170" t="n"/>
-      <c r="C82" s="170" t="n"/>
-      <c r="D82" s="175" t="n"/>
-      <c r="E82" s="183" t="inlineStr">
+      <c r="B82" s="171" t="n"/>
+      <c r="C82" s="171" t="n"/>
+      <c r="D82" s="176" t="n"/>
+      <c r="E82" s="184" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение выходного сигнала, </t>
         </is>
       </c>
-      <c r="F82" s="151" t="n"/>
-      <c r="G82" s="183" t="inlineStr">
+      <c r="F82" s="152" t="n"/>
+      <c r="G82" s="184" t="inlineStr">
         <is>
           <t xml:space="preserve">значение выходного сигнала, </t>
         </is>
       </c>
-      <c r="H82" s="151" t="n"/>
-      <c r="I82" s="85" t="inlineStr">
+      <c r="H82" s="152" t="n"/>
+      <c r="I82" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное отклонение, </t>
         </is>
       </c>
-      <c r="J82" s="151" t="n"/>
-      <c r="K82" s="85" t="inlineStr">
+      <c r="J82" s="152" t="n"/>
+      <c r="K82" s="68" t="inlineStr">
         <is>
           <t xml:space="preserve">допускаемое абсолютное отклонение, </t>
         </is>
       </c>
-      <c r="L82" s="151" t="n"/>
-      <c r="M82" s="85" t="inlineStr">
+      <c r="L82" s="152" t="n"/>
+      <c r="M82" s="68" t="inlineStr">
         <is>
           <t>относительное отклонение (приведенное), %</t>
         </is>
       </c>
-      <c r="N82" s="151" t="n"/>
+      <c r="N82" s="152" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="97" t="inlineStr">
+      <c r="A83" s="80" t="inlineStr">
         <is>
           <t>% от диапа-зона входного сигнала</t>
         </is>
       </c>
-      <c r="B83" s="184" t="n"/>
-      <c r="C83" s="78" t="inlineStr">
+      <c r="B83" s="185" t="n"/>
+      <c r="C83" s="82" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение, </t>
         </is>
       </c>
-      <c r="D83" s="184" t="n"/>
-      <c r="E83" s="185" t="n"/>
-      <c r="F83" s="160" t="n"/>
-      <c r="G83" s="185" t="n"/>
-      <c r="H83" s="160" t="n"/>
-      <c r="I83" s="185" t="n"/>
-      <c r="J83" s="160" t="n"/>
-      <c r="K83" s="185" t="n"/>
-      <c r="L83" s="160" t="n"/>
-      <c r="M83" s="185" t="n"/>
-      <c r="N83" s="160" t="n"/>
+      <c r="D83" s="185" t="n"/>
+      <c r="E83" s="186" t="n"/>
+      <c r="F83" s="161" t="n"/>
+      <c r="G83" s="186" t="n"/>
+      <c r="H83" s="161" t="n"/>
+      <c r="I83" s="186" t="n"/>
+      <c r="J83" s="161" t="n"/>
+      <c r="K83" s="186" t="n"/>
+      <c r="L83" s="161" t="n"/>
+      <c r="M83" s="186" t="n"/>
+      <c r="N83" s="161" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="186" t="n"/>
-      <c r="B84" s="160" t="n"/>
-      <c r="C84" s="185" t="n"/>
-      <c r="D84" s="160" t="n"/>
-      <c r="E84" s="185" t="n"/>
-      <c r="F84" s="160" t="n"/>
-      <c r="G84" s="185" t="n"/>
-      <c r="H84" s="160" t="n"/>
-      <c r="I84" s="185" t="n"/>
-      <c r="J84" s="160" t="n"/>
-      <c r="K84" s="185" t="n"/>
-      <c r="L84" s="160" t="n"/>
-      <c r="M84" s="185" t="n"/>
-      <c r="N84" s="160" t="n"/>
+      <c r="A84" s="187" t="n"/>
+      <c r="B84" s="161" t="n"/>
+      <c r="C84" s="186" t="n"/>
+      <c r="D84" s="161" t="n"/>
+      <c r="E84" s="186" t="n"/>
+      <c r="F84" s="161" t="n"/>
+      <c r="G84" s="186" t="n"/>
+      <c r="H84" s="161" t="n"/>
+      <c r="I84" s="186" t="n"/>
+      <c r="J84" s="161" t="n"/>
+      <c r="K84" s="186" t="n"/>
+      <c r="L84" s="161" t="n"/>
+      <c r="M84" s="186" t="n"/>
+      <c r="N84" s="161" t="n"/>
     </row>
     <row r="85" ht="13.5" customHeight="1" s="27" thickBot="1">
-      <c r="A85" s="154" t="n"/>
-      <c r="B85" s="156" t="n"/>
-      <c r="C85" s="187" t="n"/>
-      <c r="D85" s="156" t="n"/>
-      <c r="E85" s="188" t="n"/>
-      <c r="F85" s="173" t="n"/>
-      <c r="G85" s="188" t="n"/>
-      <c r="H85" s="173" t="n"/>
-      <c r="I85" s="187" t="n"/>
-      <c r="J85" s="156" t="n"/>
-      <c r="K85" s="187" t="n"/>
-      <c r="L85" s="156" t="n"/>
-      <c r="M85" s="187" t="n"/>
-      <c r="N85" s="156" t="n"/>
+      <c r="A85" s="155" t="n"/>
+      <c r="B85" s="157" t="n"/>
+      <c r="C85" s="188" t="n"/>
+      <c r="D85" s="157" t="n"/>
+      <c r="E85" s="189" t="n"/>
+      <c r="F85" s="174" t="n"/>
+      <c r="G85" s="189" t="n"/>
+      <c r="H85" s="174" t="n"/>
+      <c r="I85" s="188" t="n"/>
+      <c r="J85" s="157" t="n"/>
+      <c r="K85" s="188" t="n"/>
+      <c r="L85" s="157" t="n"/>
+      <c r="M85" s="188" t="n"/>
+      <c r="N85" s="157" t="n"/>
     </row>
     <row r="86" ht="15" customHeight="1" s="27">
-      <c r="A86" s="68" t="n">
+      <c r="A86" s="51" t="n">
         <v>5</v>
       </c>
-      <c r="B86" s="156" t="n"/>
-      <c r="C86" s="141" t="inlineStr">
+      <c r="B86" s="157" t="n"/>
+      <c r="C86" s="192" t="inlineStr">
         <is>
           <t>5,000</t>
         </is>
       </c>
-      <c r="D86" s="156" t="n"/>
-      <c r="E86" s="190" t="inlineStr">
+      <c r="D86" s="157" t="n"/>
+      <c r="E86" s="193" t="inlineStr">
         <is>
           <t>0,250</t>
         </is>
       </c>
-      <c r="F86" s="156" t="n"/>
-      <c r="G86" s="190" t="inlineStr">
+      <c r="F86" s="157" t="n"/>
+      <c r="G86" s="193" t="inlineStr">
         <is>
           <t>0,230</t>
         </is>
       </c>
-      <c r="H86" s="156" t="n"/>
-      <c r="I86" s="70" t="n"/>
-      <c r="J86" s="156" t="n"/>
-      <c r="K86" s="70" t="n"/>
-      <c r="L86" s="156" t="n"/>
-      <c r="M86" s="70" t="n"/>
-      <c r="N86" s="156" t="n"/>
+      <c r="H86" s="157" t="n"/>
+      <c r="I86" s="197" t="n"/>
+      <c r="J86" s="157" t="n"/>
+      <c r="K86" s="197" t="n"/>
+      <c r="L86" s="157" t="n"/>
+      <c r="M86" s="197" t="n"/>
+      <c r="N86" s="157" t="n"/>
     </row>
     <row r="87" ht="15" customHeight="1" s="27">
-      <c r="A87" s="68" t="n">
+      <c r="A87" s="51" t="n">
         <v>25</v>
       </c>
-      <c r="B87" s="156" t="n"/>
-      <c r="C87" s="141" t="inlineStr">
+      <c r="B87" s="157" t="n"/>
+      <c r="C87" s="192" t="inlineStr">
         <is>
           <t>25,000</t>
         </is>
       </c>
-      <c r="D87" s="156" t="n"/>
-      <c r="E87" s="190" t="inlineStr">
+      <c r="D87" s="157" t="n"/>
+      <c r="E87" s="193" t="inlineStr">
         <is>
           <t>1,250</t>
         </is>
       </c>
-      <c r="F87" s="156" t="n"/>
-      <c r="G87" s="190" t="inlineStr">
+      <c r="F87" s="157" t="n"/>
+      <c r="G87" s="193" t="inlineStr">
         <is>
           <t>1,210</t>
         </is>
       </c>
-      <c r="H87" s="156" t="n"/>
-      <c r="I87" s="70" t="n"/>
-      <c r="J87" s="156" t="n"/>
-      <c r="K87" s="70" t="n"/>
-      <c r="L87" s="156" t="n"/>
-      <c r="M87" s="70" t="n"/>
-      <c r="N87" s="156" t="n"/>
+      <c r="H87" s="157" t="n"/>
+      <c r="I87" s="197" t="n"/>
+      <c r="J87" s="157" t="n"/>
+      <c r="K87" s="197" t="n"/>
+      <c r="L87" s="157" t="n"/>
+      <c r="M87" s="197" t="n"/>
+      <c r="N87" s="157" t="n"/>
     </row>
     <row r="88" ht="15" customHeight="1" s="27">
-      <c r="A88" s="68" t="n">
+      <c r="A88" s="51" t="n">
         <v>50</v>
       </c>
-      <c r="B88" s="156" t="n"/>
-      <c r="C88" s="141" t="inlineStr">
+      <c r="B88" s="157" t="n"/>
+      <c r="C88" s="192" t="inlineStr">
         <is>
           <t>50,000</t>
         </is>
       </c>
-      <c r="D88" s="156" t="n"/>
-      <c r="E88" s="190" t="inlineStr">
+      <c r="D88" s="157" t="n"/>
+      <c r="E88" s="193" t="inlineStr">
         <is>
           <t>2,500</t>
         </is>
       </c>
-      <c r="F88" s="156" t="n"/>
-      <c r="G88" s="190" t="inlineStr">
+      <c r="F88" s="157" t="n"/>
+      <c r="G88" s="193" t="inlineStr">
         <is>
           <t>2,512</t>
         </is>
       </c>
-      <c r="H88" s="156" t="n"/>
-      <c r="I88" s="70" t="n"/>
-      <c r="J88" s="156" t="n"/>
-      <c r="K88" s="70" t="n"/>
-      <c r="L88" s="156" t="n"/>
-      <c r="M88" s="70" t="n"/>
-      <c r="N88" s="156" t="n"/>
+      <c r="H88" s="157" t="n"/>
+      <c r="I88" s="197" t="n"/>
+      <c r="J88" s="157" t="n"/>
+      <c r="K88" s="197" t="n"/>
+      <c r="L88" s="157" t="n"/>
+      <c r="M88" s="197" t="n"/>
+      <c r="N88" s="157" t="n"/>
     </row>
     <row r="89" ht="15" customHeight="1" s="27">
-      <c r="A89" s="68" t="n">
+      <c r="A89" s="51" t="n">
         <v>75</v>
       </c>
-      <c r="B89" s="156" t="n"/>
-      <c r="C89" s="141" t="inlineStr">
+      <c r="B89" s="157" t="n"/>
+      <c r="C89" s="192" t="inlineStr">
         <is>
           <t>75,000</t>
         </is>
       </c>
-      <c r="D89" s="156" t="n"/>
-      <c r="E89" s="190" t="inlineStr">
+      <c r="D89" s="157" t="n"/>
+      <c r="E89" s="193" t="inlineStr">
         <is>
           <t>3,750</t>
         </is>
       </c>
-      <c r="F89" s="156" t="n"/>
-      <c r="G89" s="190" t="inlineStr">
+      <c r="F89" s="157" t="n"/>
+      <c r="G89" s="193" t="inlineStr">
         <is>
           <t>3,756</t>
         </is>
       </c>
-      <c r="H89" s="156" t="n"/>
-      <c r="I89" s="70" t="n"/>
-      <c r="J89" s="156" t="n"/>
-      <c r="K89" s="70" t="n"/>
-      <c r="L89" s="156" t="n"/>
-      <c r="M89" s="70" t="n"/>
-      <c r="N89" s="156" t="n"/>
+      <c r="H89" s="157" t="n"/>
+      <c r="I89" s="197" t="n"/>
+      <c r="J89" s="157" t="n"/>
+      <c r="K89" s="197" t="n"/>
+      <c r="L89" s="157" t="n"/>
+      <c r="M89" s="197" t="n"/>
+      <c r="N89" s="157" t="n"/>
     </row>
     <row r="90" ht="15.75" customHeight="1" s="27" thickBot="1">
-      <c r="A90" s="56" t="n">
+      <c r="A90" s="58" t="n">
         <v>95</v>
       </c>
-      <c r="B90" s="173" t="n"/>
-      <c r="C90" s="144" t="inlineStr">
+      <c r="B90" s="174" t="n"/>
+      <c r="C90" s="194" t="inlineStr">
         <is>
           <t>95,000</t>
         </is>
       </c>
-      <c r="D90" s="173" t="n"/>
-      <c r="E90" s="191" t="inlineStr">
+      <c r="D90" s="174" t="n"/>
+      <c r="E90" s="195" t="inlineStr">
         <is>
           <t>4,750</t>
         </is>
       </c>
-      <c r="F90" s="173" t="n"/>
-      <c r="G90" s="191" t="inlineStr">
+      <c r="F90" s="174" t="n"/>
+      <c r="G90" s="195" t="inlineStr">
         <is>
           <t>4,780</t>
         </is>
       </c>
-      <c r="H90" s="173" t="n"/>
-      <c r="I90" s="70" t="n"/>
-      <c r="J90" s="156" t="n"/>
-      <c r="K90" s="139" t="n"/>
-      <c r="L90" s="173" t="n"/>
-      <c r="M90" s="139" t="n"/>
-      <c r="N90" s="173" t="n"/>
+      <c r="H90" s="174" t="n"/>
+      <c r="I90" s="198" t="n"/>
+      <c r="J90" s="199" t="n"/>
+      <c r="K90" s="200" t="n"/>
+      <c r="L90" s="174" t="n"/>
+      <c r="M90" s="200" t="n"/>
+      <c r="N90" s="174" t="n"/>
     </row>
     <row r="91" ht="15" customHeight="1" s="27">
       <c r="A91" s="4" t="n"/>
@@ -3503,24 +3538,24 @@
     </row>
     <row r="94" ht="13.5" customHeight="1" s="27" thickBot="1"/>
     <row r="95" ht="13.5" customHeight="1" s="27" thickBot="1">
-      <c r="A95" s="51" t="inlineStr">
+      <c r="A95" s="145" t="inlineStr">
         <is>
           <t>Заключение по результатам калибровки</t>
         </is>
       </c>
-      <c r="B95" s="193" t="n"/>
-      <c r="C95" s="193" t="n"/>
-      <c r="D95" s="193" t="n"/>
-      <c r="E95" s="193" t="n"/>
-      <c r="F95" s="194" t="n"/>
-      <c r="G95" s="195" t="n"/>
-      <c r="H95" s="193" t="n"/>
-      <c r="I95" s="193" t="n"/>
-      <c r="J95" s="193" t="n"/>
-      <c r="K95" s="193" t="n"/>
-      <c r="L95" s="193" t="n"/>
-      <c r="M95" s="193" t="n"/>
-      <c r="N95" s="194" t="n"/>
+      <c r="B95" s="201" t="n"/>
+      <c r="C95" s="201" t="n"/>
+      <c r="D95" s="201" t="n"/>
+      <c r="E95" s="201" t="n"/>
+      <c r="F95" s="202" t="n"/>
+      <c r="G95" s="203" t="n"/>
+      <c r="H95" s="201" t="n"/>
+      <c r="I95" s="201" t="n"/>
+      <c r="J95" s="201" t="n"/>
+      <c r="K95" s="201" t="n"/>
+      <c r="L95" s="201" t="n"/>
+      <c r="M95" s="201" t="n"/>
+      <c r="N95" s="202" t="n"/>
     </row>
     <row r="97">
       <c r="B97" s="44" t="inlineStr">
@@ -3540,13 +3575,13 @@
           <t>Сдал:</t>
         </is>
       </c>
-      <c r="I97" s="55" t="inlineStr">
+      <c r="I97" s="149" t="inlineStr">
         <is>
           <t>Петров</t>
         </is>
       </c>
-      <c r="J97" s="155" t="n"/>
-      <c r="K97" s="155" t="n"/>
+      <c r="J97" s="156" t="n"/>
+      <c r="K97" s="156" t="n"/>
     </row>
     <row r="98">
       <c r="D98" s="46" t="inlineStr">
@@ -3557,32 +3592,119 @@
     </row>
   </sheetData>
   <mergeCells count="163">
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:N95"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:N79"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A62:G63"/>
+    <mergeCell ref="H62:J63"/>
+    <mergeCell ref="C69:D71"/>
+    <mergeCell ref="K62:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="H65:N65"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E68:F71"/>
+    <mergeCell ref="G68:H71"/>
+    <mergeCell ref="I68:J71"/>
+    <mergeCell ref="K68:L71"/>
+    <mergeCell ref="M68:N71"/>
+    <mergeCell ref="A69:B71"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="C56:D58"/>
+    <mergeCell ref="H52:N52"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:F58"/>
+    <mergeCell ref="G55:H58"/>
+    <mergeCell ref="I55:J58"/>
+    <mergeCell ref="K55:L58"/>
+    <mergeCell ref="M55:N58"/>
+    <mergeCell ref="A56:B58"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="A49:G50"/>
+    <mergeCell ref="H49:J50"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K49:N50"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="A22:F23"/>
+    <mergeCell ref="G22:N23"/>
+    <mergeCell ref="A24:F25"/>
+    <mergeCell ref="G24:N25"/>
+    <mergeCell ref="A75:G76"/>
+    <mergeCell ref="H75:J76"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="A26:F27"/>
+    <mergeCell ref="G26:N27"/>
+    <mergeCell ref="A30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C39:D41"/>
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="E82:F85"/>
@@ -3607,119 +3729,32 @@
     <mergeCell ref="K38:L41"/>
     <mergeCell ref="M38:N41"/>
     <mergeCell ref="A39:B41"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="A22:F23"/>
-    <mergeCell ref="G22:N23"/>
-    <mergeCell ref="A24:F25"/>
-    <mergeCell ref="G24:N25"/>
-    <mergeCell ref="A75:G76"/>
-    <mergeCell ref="H75:J76"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A26:F27"/>
-    <mergeCell ref="G26:N27"/>
-    <mergeCell ref="A30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="C39:D41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="A49:G50"/>
-    <mergeCell ref="H49:J50"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K49:N50"/>
-    <mergeCell ref="C56:D58"/>
-    <mergeCell ref="H52:N52"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:F58"/>
-    <mergeCell ref="G55:H58"/>
-    <mergeCell ref="I55:J58"/>
-    <mergeCell ref="K55:L58"/>
-    <mergeCell ref="M55:N58"/>
-    <mergeCell ref="A56:B58"/>
-    <mergeCell ref="A62:G63"/>
-    <mergeCell ref="H62:J63"/>
-    <mergeCell ref="C69:D71"/>
-    <mergeCell ref="K62:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="H65:N65"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E68:F71"/>
-    <mergeCell ref="G68:H71"/>
-    <mergeCell ref="I68:J71"/>
-    <mergeCell ref="K68:L71"/>
-    <mergeCell ref="M68:N71"/>
-    <mergeCell ref="A69:B71"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:N95"/>
-    <mergeCell ref="I97:K97"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:N79"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:N90"/>
   </mergeCells>
   <pageMargins left="0.5905511811023623" right="0.1968503937007874" top="0.5905511811023623" bottom="0.1968503937007874" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/protocols/1 ЗК-711.xlsx
+++ b/protocols/1 ЗК-711.xlsx
@@ -1791,7 +1791,7 @@
       <c r="C3" s="105" t="n"/>
       <c r="D3" s="50" t="inlineStr">
         <is>
-          <t>02,01,2021</t>
+          <t>03.01.2021</t>
         </is>
       </c>
       <c r="E3" s="105" t="n"/>
@@ -1998,7 +1998,7 @@
       <c r="B16" s="22" t="n"/>
       <c r="E16" s="50" t="inlineStr">
         <is>
-          <t>23,2</t>
+          <t>23.2</t>
         </is>
       </c>
       <c r="H16" s="13" t="n"/>
@@ -2014,7 +2014,7 @@
       <c r="B17" s="22" t="n"/>
       <c r="E17" s="50" t="inlineStr">
         <is>
-          <t>83,1</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="H17" s="13" t="n"/>
@@ -2030,7 +2030,7 @@
       <c r="B18" s="22" t="n"/>
       <c r="E18" s="50" t="inlineStr">
         <is>
-          <t>92,6</t>
+          <t>92.6</t>
         </is>
       </c>
       <c r="H18" s="13" t="n"/>
@@ -2348,7 +2348,7 @@
       <c r="G35" s="39" t="n"/>
       <c r="H35" s="181" t="inlineStr">
         <is>
-          <t>0,595</t>
+          <t>0.595</t>
         </is>
       </c>
       <c r="I35" s="182" t="n"/>
@@ -3242,7 +3242,7 @@
       <c r="G79" s="39" t="n"/>
       <c r="H79" s="181" t="inlineStr">
         <is>
-          <t>0,512</t>
+          <t>0.512</t>
         </is>
       </c>
       <c r="I79" s="182" t="n"/>

--- a/protocols/1 ЗК-711.xlsx
+++ b/protocols/1 ЗК-711.xlsx
@@ -15,9 +15,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -103,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -776,6 +775,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -793,34 +807,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -922,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1028,16 +1014,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1055,6 +1041,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1070,10 +1065,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1157,13 +1152,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1286,22 +1281,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1310,20 +1296,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1346,56 +1332,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1748,8 +1712,8 @@
   </sheetPr>
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H35" activeCellId="3" sqref="H79:N79 H65:N65 H52:N52 H35:N35"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="Q82" sqref="Q82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -1761,25 +1725,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="105" t="inlineStr">
+      <c r="B1" s="108" t="inlineStr">
         <is>
           <t>ПРОТОКОЛ КАЛИБРОВКИ №</t>
         </is>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="27">
-      <c r="B2" s="105" t="n"/>
-      <c r="C2" s="105" t="n"/>
-      <c r="D2" s="105" t="n"/>
-      <c r="E2" s="105" t="n"/>
-      <c r="F2" s="105" t="n"/>
-      <c r="G2" s="105" t="n"/>
-      <c r="H2" s="105" t="n"/>
-      <c r="I2" s="105" t="n"/>
-      <c r="J2" s="105" t="n"/>
-      <c r="K2" s="105" t="n"/>
-      <c r="L2" s="105" t="n"/>
-      <c r="M2" s="105" t="n"/>
+      <c r="B2" s="108" t="n"/>
+      <c r="C2" s="108" t="n"/>
+      <c r="D2" s="108" t="n"/>
+      <c r="E2" s="108" t="n"/>
+      <c r="F2" s="108" t="n"/>
+      <c r="G2" s="108" t="n"/>
+      <c r="H2" s="108" t="n"/>
+      <c r="I2" s="108" t="n"/>
+      <c r="J2" s="108" t="n"/>
+      <c r="K2" s="108" t="n"/>
+      <c r="L2" s="108" t="n"/>
+      <c r="M2" s="108" t="n"/>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="27">
       <c r="A3" s="22" t="inlineStr">
@@ -1787,19 +1751,19 @@
           <t>Дата калибровки:</t>
         </is>
       </c>
-      <c r="B3" s="105" t="n"/>
-      <c r="C3" s="105" t="n"/>
+      <c r="B3" s="108" t="n"/>
+      <c r="C3" s="108" t="n"/>
       <c r="D3" s="50" t="inlineStr">
         <is>
           <t>03.01.2021</t>
         </is>
       </c>
-      <c r="E3" s="105" t="n"/>
-      <c r="F3" s="105" t="n"/>
-      <c r="G3" s="105" t="n"/>
+      <c r="E3" s="108" t="n"/>
+      <c r="F3" s="108" t="n"/>
+      <c r="G3" s="108" t="n"/>
       <c r="J3" s="44" t="n"/>
       <c r="K3" s="21" t="n"/>
-      <c r="M3" s="105" t="n"/>
+      <c r="M3" s="108" t="n"/>
     </row>
     <row r="4" hidden="1" ht="12.75" customHeight="1" s="27">
       <c r="B4" s="4" t="n"/>
@@ -2050,7 +2014,7 @@
     </row>
     <row r="20">
       <c r="A20" s="22" t="n"/>
-      <c r="B20" s="105" t="inlineStr">
+      <c r="B20" s="108" t="inlineStr">
         <is>
           <t>Операции калибровки</t>
         </is>
@@ -2068,7 +2032,7 @@
       <c r="I21" s="22" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="106" t="inlineStr">
+      <c r="A22" s="109" t="inlineStr">
         <is>
           <t>Наименование операции</t>
         </is>
@@ -2108,7 +2072,7 @@
       <c r="N23" s="160" t="n"/>
     </row>
     <row r="24" ht="12.75" customHeight="1" s="27">
-      <c r="A24" s="118" t="inlineStr">
+      <c r="A24" s="121" t="inlineStr">
         <is>
           <t>Внешний осмотр</t>
         </is>
@@ -2144,7 +2108,7 @@
       <c r="N25" s="165" t="n"/>
     </row>
     <row r="26" ht="12.75" customHeight="1" s="27">
-      <c r="A26" s="131" t="inlineStr">
+      <c r="A26" s="134" t="inlineStr">
         <is>
           <t>Опробование</t>
         </is>
@@ -2265,13 +2229,13 @@
       </c>
       <c r="I32" s="171" t="n"/>
       <c r="J32" s="171" t="n"/>
-      <c r="K32" s="103" t="inlineStr">
+      <c r="K32" s="107" t="inlineStr">
         <is>
           <t>-50</t>
         </is>
       </c>
       <c r="L32" s="176" t="n"/>
-      <c r="M32" s="104" t="inlineStr">
+      <c r="M32" s="177" t="inlineStr">
         <is>
           <t>600</t>
         </is>
@@ -2289,26 +2253,26 @@
       <c r="D33" s="34" t="n"/>
       <c r="E33" s="34" t="n"/>
       <c r="F33" s="34" t="n"/>
-      <c r="G33" s="86" t="n"/>
+      <c r="G33" s="89" t="n"/>
       <c r="H33" s="67" t="inlineStr">
         <is>
           <t>°С</t>
         </is>
       </c>
-      <c r="I33" s="177" t="n"/>
-      <c r="J33" s="177" t="n"/>
-      <c r="K33" s="85" t="inlineStr">
+      <c r="I33" s="178" t="n"/>
+      <c r="J33" s="178" t="n"/>
+      <c r="K33" s="88" t="inlineStr">
         <is>
           <t>-50</t>
         </is>
       </c>
-      <c r="L33" s="177" t="n"/>
-      <c r="M33" s="178" t="inlineStr">
+      <c r="L33" s="178" t="n"/>
+      <c r="M33" s="179" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="N33" s="179" t="n"/>
+      <c r="N33" s="180" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="32" t="inlineStr">
@@ -2322,17 +2286,17 @@
       <c r="E34" s="34" t="n"/>
       <c r="F34" s="34" t="n"/>
       <c r="G34" s="36" t="n"/>
-      <c r="H34" s="180" t="inlineStr">
+      <c r="H34" s="181" t="inlineStr">
         <is>
           <t>линейная</t>
         </is>
       </c>
-      <c r="I34" s="177" t="n"/>
-      <c r="J34" s="177" t="n"/>
-      <c r="K34" s="177" t="n"/>
-      <c r="L34" s="177" t="n"/>
-      <c r="M34" s="177" t="n"/>
-      <c r="N34" s="179" t="n"/>
+      <c r="I34" s="178" t="n"/>
+      <c r="J34" s="178" t="n"/>
+      <c r="K34" s="178" t="n"/>
+      <c r="L34" s="178" t="n"/>
+      <c r="M34" s="178" t="n"/>
+      <c r="N34" s="180" t="n"/>
     </row>
     <row r="35" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A35" s="37" t="inlineStr">
@@ -2346,17 +2310,17 @@
       <c r="E35" s="38" t="n"/>
       <c r="F35" s="38" t="n"/>
       <c r="G35" s="39" t="n"/>
-      <c r="H35" s="181" t="inlineStr">
-        <is>
-          <t>0.595</t>
-        </is>
-      </c>
-      <c r="I35" s="182" t="n"/>
-      <c r="J35" s="182" t="n"/>
-      <c r="K35" s="182" t="n"/>
-      <c r="L35" s="182" t="n"/>
-      <c r="M35" s="182" t="n"/>
-      <c r="N35" s="183" t="n"/>
+      <c r="H35" s="182" t="inlineStr">
+        <is>
+          <t>0,595</t>
+        </is>
+      </c>
+      <c r="I35" s="183" t="n"/>
+      <c r="J35" s="183" t="n"/>
+      <c r="K35" s="183" t="n"/>
+      <c r="L35" s="183" t="n"/>
+      <c r="M35" s="183" t="n"/>
+      <c r="N35" s="184" t="n"/>
     </row>
     <row r="36">
       <c r="C36" s="40" t="n"/>
@@ -2373,7 +2337,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="87" t="inlineStr">
+      <c r="A38" s="90" t="inlineStr">
         <is>
           <t>поверяемая точка</t>
         </is>
@@ -2381,31 +2345,31 @@
       <c r="B38" s="171" t="n"/>
       <c r="C38" s="171" t="n"/>
       <c r="D38" s="176" t="n"/>
-      <c r="E38" s="184" t="inlineStr">
+      <c r="E38" s="185" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное  выходного сигнала, </t>
         </is>
       </c>
       <c r="F38" s="152" t="n"/>
-      <c r="G38" s="184" t="inlineStr">
+      <c r="G38" s="185" t="inlineStr">
         <is>
           <t xml:space="preserve">значение выходного сигнала, </t>
         </is>
       </c>
       <c r="H38" s="152" t="n"/>
-      <c r="I38" s="88" t="inlineStr">
+      <c r="I38" s="91" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное отклонение, </t>
         </is>
       </c>
       <c r="J38" s="152" t="n"/>
-      <c r="K38" s="88" t="inlineStr">
+      <c r="K38" s="91" t="inlineStr">
         <is>
           <t xml:space="preserve">допускаемое абсолютное отклонение, </t>
         </is>
       </c>
       <c r="L38" s="152" t="n"/>
-      <c r="M38" s="88" t="inlineStr">
+      <c r="M38" s="91" t="inlineStr">
         <is>
           <t>относительное отклонение (приведенное), %</t>
         </is>
@@ -2414,186 +2378,222 @@
       <c r="O38" s="41" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="100" t="inlineStr">
+      <c r="A39" s="103" t="inlineStr">
         <is>
           <t>% от диапа-зона входного сигнала</t>
         </is>
       </c>
-      <c r="B39" s="185" t="n"/>
-      <c r="C39" s="81" t="inlineStr">
+      <c r="B39" s="186" t="n"/>
+      <c r="C39" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение входного, </t>
         </is>
       </c>
-      <c r="D39" s="185" t="n"/>
-      <c r="E39" s="186" t="n"/>
+      <c r="D39" s="186" t="n"/>
+      <c r="E39" s="187" t="n"/>
       <c r="F39" s="161" t="n"/>
-      <c r="G39" s="186" t="n"/>
+      <c r="G39" s="187" t="n"/>
       <c r="H39" s="161" t="n"/>
-      <c r="I39" s="186" t="n"/>
+      <c r="I39" s="187" t="n"/>
       <c r="J39" s="161" t="n"/>
-      <c r="K39" s="186" t="n"/>
+      <c r="K39" s="187" t="n"/>
       <c r="L39" s="161" t="n"/>
-      <c r="M39" s="186" t="n"/>
+      <c r="M39" s="187" t="n"/>
       <c r="N39" s="161" t="n"/>
       <c r="O39" s="41" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="187" t="n"/>
+      <c r="A40" s="188" t="n"/>
       <c r="B40" s="161" t="n"/>
-      <c r="C40" s="186" t="n"/>
+      <c r="C40" s="187" t="n"/>
       <c r="D40" s="161" t="n"/>
-      <c r="E40" s="186" t="n"/>
+      <c r="E40" s="187" t="n"/>
       <c r="F40" s="161" t="n"/>
-      <c r="G40" s="186" t="n"/>
+      <c r="G40" s="187" t="n"/>
       <c r="H40" s="161" t="n"/>
-      <c r="I40" s="186" t="n"/>
+      <c r="I40" s="187" t="n"/>
       <c r="J40" s="161" t="n"/>
-      <c r="K40" s="186" t="n"/>
+      <c r="K40" s="187" t="n"/>
       <c r="L40" s="161" t="n"/>
-      <c r="M40" s="186" t="n"/>
+      <c r="M40" s="187" t="n"/>
       <c r="N40" s="161" t="n"/>
       <c r="O40" s="41" t="n"/>
     </row>
     <row r="41" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A41" s="155" t="n"/>
       <c r="B41" s="157" t="n"/>
-      <c r="C41" s="188" t="n"/>
+      <c r="C41" s="189" t="n"/>
       <c r="D41" s="157" t="n"/>
-      <c r="E41" s="189" t="n"/>
+      <c r="E41" s="190" t="n"/>
       <c r="F41" s="174" t="n"/>
-      <c r="G41" s="189" t="n"/>
+      <c r="G41" s="190" t="n"/>
       <c r="H41" s="174" t="n"/>
-      <c r="I41" s="188" t="n"/>
+      <c r="I41" s="189" t="n"/>
       <c r="J41" s="157" t="n"/>
-      <c r="K41" s="188" t="n"/>
+      <c r="K41" s="189" t="n"/>
       <c r="L41" s="157" t="n"/>
-      <c r="M41" s="188" t="n"/>
+      <c r="M41" s="189" t="n"/>
       <c r="N41" s="157" t="n"/>
       <c r="O41" s="41" t="n"/>
     </row>
-    <row r="42" ht="15" customHeight="1" s="27">
-      <c r="A42" s="141" t="n">
+    <row r="42" ht="15.75" customHeight="1" s="27" thickBot="1">
+      <c r="A42" s="144" t="n">
         <v>5</v>
       </c>
       <c r="B42" s="176" t="n"/>
-      <c r="C42" s="190" t="inlineStr">
+      <c r="C42" s="145" t="inlineStr">
         <is>
           <t>-17,500</t>
         </is>
       </c>
       <c r="D42" s="176" t="n"/>
-      <c r="E42" s="191" t="inlineStr">
+      <c r="E42" s="105" t="inlineStr">
         <is>
           <t>2,500</t>
         </is>
       </c>
       <c r="F42" s="176" t="n"/>
-      <c r="G42" s="191" t="inlineStr">
+      <c r="G42" s="105" t="inlineStr">
         <is>
           <t>2,300</t>
         </is>
       </c>
       <c r="H42" s="176" t="n"/>
-      <c r="I42" s="103" t="n"/>
+      <c r="I42" s="105">
+        <f>E42-G42</f>
+        <v/>
+      </c>
       <c r="J42" s="176" t="n"/>
-      <c r="K42" s="103" t="n"/>
+      <c r="K42" s="105">
+        <f>$H$35/100*($M$33-$K$33)</f>
+        <v/>
+      </c>
       <c r="L42" s="176" t="n"/>
-      <c r="M42" s="103" t="n"/>
+      <c r="M42" s="105">
+        <f>IFERROR( I42/($M$33-$K$33)*100, 0)</f>
+        <v/>
+      </c>
       <c r="N42" s="176" t="n"/>
       <c r="O42" s="41" t="n"/>
     </row>
-    <row r="43" ht="15" customHeight="1" s="27">
-      <c r="A43" s="68" t="n">
+    <row r="43" ht="15.75" customHeight="1" s="27" thickBot="1">
+      <c r="A43" s="71" t="n">
         <v>25</v>
       </c>
       <c r="B43" s="157" t="n"/>
-      <c r="C43" s="192" t="inlineStr">
+      <c r="C43" s="73" t="inlineStr">
         <is>
           <t>112,500</t>
         </is>
       </c>
       <c r="D43" s="157" t="n"/>
-      <c r="E43" s="193" t="inlineStr">
+      <c r="E43" s="76" t="inlineStr">
         <is>
           <t>212,500</t>
         </is>
       </c>
       <c r="F43" s="157" t="n"/>
-      <c r="G43" s="193" t="inlineStr">
+      <c r="G43" s="76" t="inlineStr">
         <is>
           <t>210,000</t>
         </is>
       </c>
       <c r="H43" s="157" t="n"/>
-      <c r="I43" s="69" t="n"/>
-      <c r="J43" s="157" t="n"/>
-      <c r="K43" s="69" t="n"/>
-      <c r="L43" s="157" t="n"/>
-      <c r="M43" s="69" t="n"/>
-      <c r="N43" s="157" t="n"/>
+      <c r="I43" s="105">
+        <f>E43-G43</f>
+        <v/>
+      </c>
+      <c r="J43" s="176" t="n"/>
+      <c r="K43" s="105">
+        <f>$H$35/100*($M$33-$K$33)</f>
+        <v/>
+      </c>
+      <c r="L43" s="176" t="n"/>
+      <c r="M43" s="105">
+        <f>IFERROR( I43/($M$33-$K$33)*100, 0)</f>
+        <v/>
+      </c>
+      <c r="N43" s="176" t="n"/>
       <c r="O43" s="41" t="n"/>
     </row>
-    <row r="44" ht="15" customHeight="1" s="27">
-      <c r="A44" s="68" t="n">
+    <row r="44" ht="15.75" customHeight="1" s="27" thickBot="1">
+      <c r="A44" s="71" t="n">
         <v>50</v>
       </c>
       <c r="B44" s="157" t="n"/>
-      <c r="C44" s="192" t="inlineStr">
+      <c r="C44" s="73" t="inlineStr">
         <is>
           <t>275,000</t>
         </is>
       </c>
       <c r="D44" s="157" t="n"/>
-      <c r="E44" s="193" t="inlineStr">
+      <c r="E44" s="76" t="inlineStr">
         <is>
           <t>475,000</t>
         </is>
       </c>
       <c r="F44" s="157" t="n"/>
-      <c r="G44" s="193" t="inlineStr">
+      <c r="G44" s="76" t="inlineStr">
         <is>
           <t>476,000</t>
         </is>
       </c>
       <c r="H44" s="157" t="n"/>
-      <c r="I44" s="69" t="n"/>
-      <c r="J44" s="157" t="n"/>
-      <c r="K44" s="69" t="n"/>
-      <c r="L44" s="157" t="n"/>
-      <c r="M44" s="69" t="n"/>
-      <c r="N44" s="157" t="n"/>
+      <c r="I44" s="105">
+        <f>E44-G44</f>
+        <v/>
+      </c>
+      <c r="J44" s="176" t="n"/>
+      <c r="K44" s="105">
+        <f>$H$35/100*($M$33-$K$33)</f>
+        <v/>
+      </c>
+      <c r="L44" s="176" t="n"/>
+      <c r="M44" s="105">
+        <f>IFERROR( I44/($M$33-$K$33)*100, 0)</f>
+        <v/>
+      </c>
+      <c r="N44" s="176" t="n"/>
       <c r="O44" s="41" t="n"/>
     </row>
-    <row r="45" ht="15" customHeight="1" s="27">
-      <c r="A45" s="68" t="n">
+    <row r="45" ht="15.75" customHeight="1" s="27" thickBot="1">
+      <c r="A45" s="71" t="n">
         <v>75</v>
       </c>
       <c r="B45" s="157" t="n"/>
-      <c r="C45" s="192" t="inlineStr">
+      <c r="C45" s="73" t="inlineStr">
         <is>
           <t>437,500</t>
         </is>
       </c>
       <c r="D45" s="157" t="n"/>
-      <c r="E45" s="193" t="inlineStr">
+      <c r="E45" s="76" t="inlineStr">
         <is>
           <t>737,500</t>
         </is>
       </c>
       <c r="F45" s="157" t="n"/>
-      <c r="G45" s="193" t="inlineStr">
+      <c r="G45" s="76" t="inlineStr">
         <is>
           <t>736,980</t>
         </is>
       </c>
       <c r="H45" s="157" t="n"/>
-      <c r="I45" s="69" t="n"/>
-      <c r="J45" s="157" t="n"/>
-      <c r="K45" s="69" t="n"/>
-      <c r="L45" s="157" t="n"/>
-      <c r="M45" s="69" t="n"/>
-      <c r="N45" s="157" t="n"/>
+      <c r="I45" s="105">
+        <f>E45-G45</f>
+        <v/>
+      </c>
+      <c r="J45" s="176" t="n"/>
+      <c r="K45" s="105">
+        <f>$H$35/100*($M$33-$K$33)</f>
+        <v/>
+      </c>
+      <c r="L45" s="176" t="n"/>
+      <c r="M45" s="105">
+        <f>IFERROR( I45/($M$33-$K$33)*100, 0)</f>
+        <v/>
+      </c>
+      <c r="N45" s="176" t="n"/>
       <c r="O45" s="41" t="n"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="27" thickBot="1">
@@ -2601,30 +2601,39 @@
         <v>95</v>
       </c>
       <c r="B46" s="174" t="n"/>
-      <c r="C46" s="194" t="inlineStr">
+      <c r="C46" s="58" t="inlineStr">
         <is>
           <t>567,500</t>
         </is>
       </c>
       <c r="D46" s="174" t="n"/>
-      <c r="E46" s="195" t="inlineStr">
+      <c r="E46" s="61" t="inlineStr">
         <is>
           <t>947,500</t>
         </is>
       </c>
       <c r="F46" s="174" t="n"/>
-      <c r="G46" s="195" t="inlineStr">
+      <c r="G46" s="61" t="inlineStr">
         <is>
           <t>947,600</t>
         </is>
       </c>
       <c r="H46" s="174" t="n"/>
-      <c r="I46" s="57" t="n"/>
-      <c r="J46" s="174" t="n"/>
-      <c r="K46" s="57" t="n"/>
-      <c r="L46" s="174" t="n"/>
-      <c r="M46" s="57" t="n"/>
-      <c r="N46" s="174" t="n"/>
+      <c r="I46" s="105">
+        <f>E46-G46</f>
+        <v/>
+      </c>
+      <c r="J46" s="176" t="n"/>
+      <c r="K46" s="105">
+        <f>$H$35/100*($M$33-$K$33)</f>
+        <v/>
+      </c>
+      <c r="L46" s="176" t="n"/>
+      <c r="M46" s="105">
+        <f>IFERROR( I46/($M$33-$K$33)*100, 0)</f>
+        <v/>
+      </c>
+      <c r="N46" s="176" t="n"/>
     </row>
     <row r="48" ht="12.75" customHeight="1" s="27" thickBot="1">
       <c r="A48" s="43" t="inlineStr">
@@ -2650,7 +2659,7 @@
       </c>
       <c r="I49" s="151" t="n"/>
       <c r="J49" s="151" t="n"/>
-      <c r="K49" s="196" t="inlineStr">
+      <c r="K49" s="191" t="inlineStr">
         <is>
           <t>значение</t>
         </is>
@@ -2670,7 +2679,7 @@
       <c r="H50" s="159" t="n"/>
       <c r="I50" s="159" t="n"/>
       <c r="J50" s="159" t="n"/>
-      <c r="K50" s="189" t="n"/>
+      <c r="K50" s="190" t="n"/>
       <c r="L50" s="159" t="n"/>
       <c r="M50" s="159" t="n"/>
       <c r="N50" s="160" t="n"/>
@@ -2686,22 +2695,22 @@
       <c r="D51" s="34" t="n"/>
       <c r="E51" s="34" t="n"/>
       <c r="F51" s="34" t="n"/>
-      <c r="G51" s="86" t="n"/>
+      <c r="G51" s="89" t="n"/>
       <c r="H51" s="67" t="inlineStr">
         <is>
           <t>напряжение</t>
         </is>
       </c>
-      <c r="I51" s="177" t="n"/>
-      <c r="J51" s="177" t="n"/>
-      <c r="K51" s="178" t="inlineStr">
+      <c r="I51" s="178" t="n"/>
+      <c r="J51" s="178" t="n"/>
+      <c r="K51" s="179" t="inlineStr">
         <is>
           <t>24В</t>
         </is>
       </c>
-      <c r="L51" s="177" t="n"/>
-      <c r="M51" s="177" t="n"/>
-      <c r="N51" s="179" t="n"/>
+      <c r="L51" s="178" t="n"/>
+      <c r="M51" s="178" t="n"/>
+      <c r="N51" s="180" t="n"/>
     </row>
     <row r="52" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A52" s="37" t="inlineStr">
@@ -2715,17 +2724,17 @@
       <c r="E52" s="38" t="n"/>
       <c r="F52" s="38" t="n"/>
       <c r="G52" s="39" t="n"/>
-      <c r="H52" s="181" t="inlineStr">
-        <is>
-          <t>0,480</t>
-        </is>
-      </c>
-      <c r="I52" s="182" t="n"/>
-      <c r="J52" s="182" t="n"/>
-      <c r="K52" s="182" t="n"/>
-      <c r="L52" s="182" t="n"/>
-      <c r="M52" s="182" t="n"/>
-      <c r="N52" s="183" t="n"/>
+      <c r="H52" s="182" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="I52" s="183" t="n"/>
+      <c r="J52" s="183" t="n"/>
+      <c r="K52" s="183" t="n"/>
+      <c r="L52" s="183" t="n"/>
+      <c r="M52" s="183" t="n"/>
+      <c r="N52" s="184" t="n"/>
     </row>
     <row r="53">
       <c r="C53" s="40" t="n"/>
@@ -2742,7 +2751,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="87" t="inlineStr">
+      <c r="A55" s="90" t="inlineStr">
         <is>
           <t>поверяемая точка</t>
         </is>
@@ -2750,31 +2759,31 @@
       <c r="B55" s="171" t="n"/>
       <c r="C55" s="171" t="n"/>
       <c r="D55" s="176" t="n"/>
-      <c r="E55" s="184" t="inlineStr">
+      <c r="E55" s="185" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение выходного сигнала, </t>
         </is>
       </c>
       <c r="F55" s="152" t="n"/>
-      <c r="G55" s="184" t="inlineStr">
+      <c r="G55" s="185" t="inlineStr">
         <is>
           <t xml:space="preserve">значение выходного сигнала, </t>
         </is>
       </c>
       <c r="H55" s="152" t="n"/>
-      <c r="I55" s="88" t="inlineStr">
+      <c r="I55" s="91" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное отклонение, </t>
         </is>
       </c>
       <c r="J55" s="152" t="n"/>
-      <c r="K55" s="88" t="inlineStr">
+      <c r="K55" s="91" t="inlineStr">
         <is>
           <t xml:space="preserve">допускаемое абсолютное отклонение, </t>
         </is>
       </c>
       <c r="L55" s="152" t="n"/>
-      <c r="M55" s="88" t="inlineStr">
+      <c r="M55" s="91" t="inlineStr">
         <is>
           <t>относительное отклонение (приведенное), %</t>
         </is>
@@ -2783,61 +2792,61 @@
       <c r="O55" s="41" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="100" t="inlineStr">
+      <c r="A56" s="103" t="inlineStr">
         <is>
           <t>Значение входного сигнала, %</t>
         </is>
       </c>
-      <c r="B56" s="185" t="n"/>
-      <c r="C56" s="81" t="inlineStr">
+      <c r="B56" s="186" t="n"/>
+      <c r="C56" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение входного,  </t>
         </is>
       </c>
-      <c r="D56" s="185" t="n"/>
-      <c r="E56" s="186" t="n"/>
+      <c r="D56" s="186" t="n"/>
+      <c r="E56" s="187" t="n"/>
       <c r="F56" s="161" t="n"/>
-      <c r="G56" s="186" t="n"/>
+      <c r="G56" s="187" t="n"/>
       <c r="H56" s="161" t="n"/>
-      <c r="I56" s="186" t="n"/>
+      <c r="I56" s="187" t="n"/>
       <c r="J56" s="161" t="n"/>
-      <c r="K56" s="186" t="n"/>
+      <c r="K56" s="187" t="n"/>
       <c r="L56" s="161" t="n"/>
-      <c r="M56" s="186" t="n"/>
+      <c r="M56" s="187" t="n"/>
       <c r="N56" s="161" t="n"/>
       <c r="O56" s="41" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="187" t="n"/>
+      <c r="A57" s="188" t="n"/>
       <c r="B57" s="161" t="n"/>
-      <c r="C57" s="186" t="n"/>
+      <c r="C57" s="187" t="n"/>
       <c r="D57" s="161" t="n"/>
-      <c r="E57" s="186" t="n"/>
+      <c r="E57" s="187" t="n"/>
       <c r="F57" s="161" t="n"/>
-      <c r="G57" s="186" t="n"/>
+      <c r="G57" s="187" t="n"/>
       <c r="H57" s="161" t="n"/>
-      <c r="I57" s="186" t="n"/>
+      <c r="I57" s="187" t="n"/>
       <c r="J57" s="161" t="n"/>
-      <c r="K57" s="186" t="n"/>
+      <c r="K57" s="187" t="n"/>
       <c r="L57" s="161" t="n"/>
-      <c r="M57" s="186" t="n"/>
+      <c r="M57" s="187" t="n"/>
       <c r="N57" s="161" t="n"/>
       <c r="O57" s="41" t="n"/>
     </row>
     <row r="58" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A58" s="155" t="n"/>
       <c r="B58" s="157" t="n"/>
-      <c r="C58" s="188" t="n"/>
+      <c r="C58" s="189" t="n"/>
       <c r="D58" s="157" t="n"/>
-      <c r="E58" s="189" t="n"/>
+      <c r="E58" s="190" t="n"/>
       <c r="F58" s="174" t="n"/>
-      <c r="G58" s="189" t="n"/>
+      <c r="G58" s="190" t="n"/>
       <c r="H58" s="174" t="n"/>
-      <c r="I58" s="188" t="n"/>
+      <c r="I58" s="189" t="n"/>
       <c r="J58" s="157" t="n"/>
-      <c r="K58" s="188" t="n"/>
+      <c r="K58" s="189" t="n"/>
       <c r="L58" s="157" t="n"/>
-      <c r="M58" s="188" t="n"/>
+      <c r="M58" s="189" t="n"/>
       <c r="N58" s="157" t="n"/>
       <c r="O58" s="41" t="n"/>
     </row>
@@ -2846,27 +2855,35 @@
         <v>100</v>
       </c>
       <c r="B59" s="174" t="n"/>
-      <c r="C59" s="194" t="inlineStr">
+      <c r="C59" s="58" t="inlineStr">
         <is>
           <t>24,000</t>
         </is>
       </c>
       <c r="D59" s="174" t="n"/>
-      <c r="E59" s="59" t="n">
+      <c r="E59" s="58" t="n">
         <v>24</v>
       </c>
       <c r="F59" s="174" t="n"/>
-      <c r="G59" s="195" t="inlineStr">
+      <c r="G59" s="61" t="inlineStr">
         <is>
           <t>23,510</t>
         </is>
       </c>
       <c r="H59" s="174" t="n"/>
-      <c r="I59" s="57" t="n"/>
+      <c r="I59" s="61">
+        <f>E59-G59</f>
+        <v/>
+      </c>
       <c r="J59" s="174" t="n"/>
-      <c r="K59" s="57" t="n"/>
+      <c r="K59" s="61" t="n">
+        <v>0.48</v>
+      </c>
       <c r="L59" s="174" t="n"/>
-      <c r="M59" s="57" t="n"/>
+      <c r="M59" s="61">
+        <f>I59/24*100</f>
+        <v/>
+      </c>
       <c r="N59" s="174" t="n"/>
     </row>
     <row r="61" ht="15.75" customHeight="1" s="27" thickBot="1">
@@ -2893,7 +2910,7 @@
       </c>
       <c r="I62" s="151" t="n"/>
       <c r="J62" s="151" t="n"/>
-      <c r="K62" s="196" t="inlineStr">
+      <c r="K62" s="191" t="inlineStr">
         <is>
           <t>значение</t>
         </is>
@@ -2913,7 +2930,7 @@
       <c r="H63" s="159" t="n"/>
       <c r="I63" s="159" t="n"/>
       <c r="J63" s="159" t="n"/>
-      <c r="K63" s="189" t="n"/>
+      <c r="K63" s="190" t="n"/>
       <c r="L63" s="159" t="n"/>
       <c r="M63" s="159" t="n"/>
       <c r="N63" s="160" t="n"/>
@@ -2929,22 +2946,22 @@
       <c r="D64" s="34" t="n"/>
       <c r="E64" s="34" t="n"/>
       <c r="F64" s="34" t="n"/>
-      <c r="G64" s="86" t="n"/>
+      <c r="G64" s="89" t="n"/>
       <c r="H64" s="67" t="inlineStr">
         <is>
           <t>напряжение</t>
         </is>
       </c>
-      <c r="I64" s="177" t="n"/>
-      <c r="J64" s="177" t="n"/>
-      <c r="K64" s="178" t="inlineStr">
+      <c r="I64" s="178" t="n"/>
+      <c r="J64" s="178" t="n"/>
+      <c r="K64" s="179" t="inlineStr">
         <is>
           <t>24В</t>
         </is>
       </c>
-      <c r="L64" s="177" t="n"/>
-      <c r="M64" s="177" t="n"/>
-      <c r="N64" s="179" t="n"/>
+      <c r="L64" s="178" t="n"/>
+      <c r="M64" s="178" t="n"/>
+      <c r="N64" s="180" t="n"/>
     </row>
     <row r="65" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A65" s="37" t="inlineStr">
@@ -2958,17 +2975,17 @@
       <c r="E65" s="38" t="n"/>
       <c r="F65" s="38" t="n"/>
       <c r="G65" s="39" t="n"/>
-      <c r="H65" s="181" t="inlineStr">
-        <is>
-          <t>0,480</t>
-        </is>
-      </c>
-      <c r="I65" s="182" t="n"/>
-      <c r="J65" s="182" t="n"/>
-      <c r="K65" s="182" t="n"/>
-      <c r="L65" s="182" t="n"/>
-      <c r="M65" s="182" t="n"/>
-      <c r="N65" s="183" t="n"/>
+      <c r="H65" s="182" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="I65" s="183" t="n"/>
+      <c r="J65" s="183" t="n"/>
+      <c r="K65" s="183" t="n"/>
+      <c r="L65" s="183" t="n"/>
+      <c r="M65" s="183" t="n"/>
+      <c r="N65" s="184" t="n"/>
     </row>
     <row r="66">
       <c r="C66" s="40" t="n"/>
@@ -2985,7 +3002,7 @@
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1" s="27">
-      <c r="A68" s="87" t="inlineStr">
+      <c r="A68" s="90" t="inlineStr">
         <is>
           <t>поверяемая точка</t>
         </is>
@@ -2993,31 +3010,31 @@
       <c r="B68" s="171" t="n"/>
       <c r="C68" s="171" t="n"/>
       <c r="D68" s="176" t="n"/>
-      <c r="E68" s="184" t="inlineStr">
+      <c r="E68" s="185" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение выходного сигнала, </t>
         </is>
       </c>
       <c r="F68" s="152" t="n"/>
-      <c r="G68" s="184" t="inlineStr">
+      <c r="G68" s="185" t="inlineStr">
         <is>
           <t xml:space="preserve">значение выходного сигнала, </t>
         </is>
       </c>
       <c r="H68" s="152" t="n"/>
-      <c r="I68" s="88" t="inlineStr">
+      <c r="I68" s="91" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное отклонение, </t>
         </is>
       </c>
       <c r="J68" s="152" t="n"/>
-      <c r="K68" s="88" t="inlineStr">
+      <c r="K68" s="91" t="inlineStr">
         <is>
           <t xml:space="preserve">допускаемое абсолютное отклонение, </t>
         </is>
       </c>
       <c r="L68" s="152" t="n"/>
-      <c r="M68" s="88" t="inlineStr">
+      <c r="M68" s="91" t="inlineStr">
         <is>
           <t>относительное отклонение (приведенное), %</t>
         </is>
@@ -3026,61 +3043,61 @@
       <c r="O68" s="41" t="n"/>
     </row>
     <row r="69" ht="12.75" customHeight="1" s="27">
-      <c r="A69" s="100" t="inlineStr">
+      <c r="A69" s="103" t="inlineStr">
         <is>
           <t>% от диапа-зона входного сигнала</t>
         </is>
       </c>
-      <c r="B69" s="185" t="n"/>
-      <c r="C69" s="81" t="inlineStr">
+      <c r="B69" s="186" t="n"/>
+      <c r="C69" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение входного,  </t>
         </is>
       </c>
-      <c r="D69" s="185" t="n"/>
-      <c r="E69" s="186" t="n"/>
+      <c r="D69" s="186" t="n"/>
+      <c r="E69" s="187" t="n"/>
       <c r="F69" s="161" t="n"/>
-      <c r="G69" s="186" t="n"/>
+      <c r="G69" s="187" t="n"/>
       <c r="H69" s="161" t="n"/>
-      <c r="I69" s="186" t="n"/>
+      <c r="I69" s="187" t="n"/>
       <c r="J69" s="161" t="n"/>
-      <c r="K69" s="186" t="n"/>
+      <c r="K69" s="187" t="n"/>
       <c r="L69" s="161" t="n"/>
-      <c r="M69" s="186" t="n"/>
+      <c r="M69" s="187" t="n"/>
       <c r="N69" s="161" t="n"/>
       <c r="O69" s="41" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="187" t="n"/>
+      <c r="A70" s="188" t="n"/>
       <c r="B70" s="161" t="n"/>
-      <c r="C70" s="186" t="n"/>
+      <c r="C70" s="187" t="n"/>
       <c r="D70" s="161" t="n"/>
-      <c r="E70" s="186" t="n"/>
+      <c r="E70" s="187" t="n"/>
       <c r="F70" s="161" t="n"/>
-      <c r="G70" s="186" t="n"/>
+      <c r="G70" s="187" t="n"/>
       <c r="H70" s="161" t="n"/>
-      <c r="I70" s="186" t="n"/>
+      <c r="I70" s="187" t="n"/>
       <c r="J70" s="161" t="n"/>
-      <c r="K70" s="186" t="n"/>
+      <c r="K70" s="187" t="n"/>
       <c r="L70" s="161" t="n"/>
-      <c r="M70" s="186" t="n"/>
+      <c r="M70" s="187" t="n"/>
       <c r="N70" s="161" t="n"/>
       <c r="O70" s="41" t="n"/>
     </row>
     <row r="71" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A71" s="155" t="n"/>
       <c r="B71" s="157" t="n"/>
-      <c r="C71" s="188" t="n"/>
+      <c r="C71" s="189" t="n"/>
       <c r="D71" s="157" t="n"/>
-      <c r="E71" s="189" t="n"/>
+      <c r="E71" s="190" t="n"/>
       <c r="F71" s="174" t="n"/>
-      <c r="G71" s="189" t="n"/>
+      <c r="G71" s="190" t="n"/>
       <c r="H71" s="174" t="n"/>
-      <c r="I71" s="188" t="n"/>
+      <c r="I71" s="189" t="n"/>
       <c r="J71" s="157" t="n"/>
-      <c r="K71" s="188" t="n"/>
+      <c r="K71" s="189" t="n"/>
       <c r="L71" s="157" t="n"/>
-      <c r="M71" s="188" t="n"/>
+      <c r="M71" s="189" t="n"/>
       <c r="N71" s="157" t="n"/>
       <c r="O71" s="41" t="n"/>
     </row>
@@ -3089,27 +3106,35 @@
         <v>100</v>
       </c>
       <c r="B72" s="174" t="n"/>
-      <c r="C72" s="194" t="inlineStr">
+      <c r="C72" s="58" t="inlineStr">
         <is>
           <t>24,000</t>
         </is>
       </c>
       <c r="D72" s="174" t="n"/>
-      <c r="E72" s="59" t="n">
+      <c r="E72" s="58" t="n">
         <v>24</v>
       </c>
       <c r="F72" s="174" t="n"/>
-      <c r="G72" s="195" t="inlineStr">
+      <c r="G72" s="61" t="inlineStr">
         <is>
           <t>24,480</t>
         </is>
       </c>
       <c r="H72" s="174" t="n"/>
-      <c r="I72" s="57" t="n"/>
+      <c r="I72" s="61">
+        <f>E72-G72</f>
+        <v/>
+      </c>
       <c r="J72" s="174" t="n"/>
-      <c r="K72" s="57" t="n"/>
+      <c r="K72" s="61" t="n">
+        <v>0.48</v>
+      </c>
       <c r="L72" s="174" t="n"/>
-      <c r="M72" s="57" t="n"/>
+      <c r="M72" s="61">
+        <f>I72/24*100</f>
+        <v/>
+      </c>
       <c r="N72" s="174" t="n"/>
     </row>
     <row r="74" ht="15.75" customHeight="1" s="27" thickBot="1">
@@ -3187,13 +3212,13 @@
       </c>
       <c r="I77" s="171" t="n"/>
       <c r="J77" s="171" t="n"/>
-      <c r="K77" s="103" t="inlineStr">
+      <c r="K77" s="107" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L77" s="176" t="n"/>
-      <c r="M77" s="104" t="inlineStr">
+      <c r="M77" s="177" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -3211,22 +3236,22 @@
       <c r="D78" s="34" t="n"/>
       <c r="E78" s="34" t="n"/>
       <c r="F78" s="34" t="n"/>
-      <c r="G78" s="86" t="n"/>
+      <c r="G78" s="89" t="n"/>
       <c r="H78" s="67" t="inlineStr">
         <is>
           <t>ток</t>
         </is>
       </c>
-      <c r="I78" s="177" t="n"/>
-      <c r="J78" s="177" t="n"/>
-      <c r="K78" s="178" t="inlineStr">
+      <c r="I78" s="178" t="n"/>
+      <c r="J78" s="178" t="n"/>
+      <c r="K78" s="192" t="inlineStr">
         <is>
           <t>0-5</t>
         </is>
       </c>
-      <c r="L78" s="177" t="n"/>
-      <c r="M78" s="177" t="n"/>
-      <c r="N78" s="179" t="n"/>
+      <c r="L78" s="178" t="n"/>
+      <c r="M78" s="178" t="n"/>
+      <c r="N78" s="180" t="n"/>
     </row>
     <row r="79" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A79" s="37" t="inlineStr">
@@ -3240,17 +3265,17 @@
       <c r="E79" s="38" t="n"/>
       <c r="F79" s="38" t="n"/>
       <c r="G79" s="39" t="n"/>
-      <c r="H79" s="181" t="inlineStr">
-        <is>
-          <t>0.512</t>
-        </is>
-      </c>
-      <c r="I79" s="182" t="n"/>
-      <c r="J79" s="182" t="n"/>
-      <c r="K79" s="182" t="n"/>
-      <c r="L79" s="182" t="n"/>
-      <c r="M79" s="182" t="n"/>
-      <c r="N79" s="183" t="n"/>
+      <c r="H79" s="182" t="inlineStr">
+        <is>
+          <t>0,512</t>
+        </is>
+      </c>
+      <c r="I79" s="183" t="n"/>
+      <c r="J79" s="183" t="n"/>
+      <c r="K79" s="183" t="n"/>
+      <c r="L79" s="183" t="n"/>
+      <c r="M79" s="183" t="n"/>
+      <c r="N79" s="184" t="n"/>
     </row>
     <row r="80">
       <c r="C80" s="40" t="n"/>
@@ -3267,7 +3292,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="87" t="inlineStr">
+      <c r="A82" s="90" t="inlineStr">
         <is>
           <t>поверяемая точка</t>
         </is>
@@ -3275,31 +3300,31 @@
       <c r="B82" s="171" t="n"/>
       <c r="C82" s="171" t="n"/>
       <c r="D82" s="176" t="n"/>
-      <c r="E82" s="184" t="inlineStr">
+      <c r="E82" s="185" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение выходного сигнала, </t>
         </is>
       </c>
       <c r="F82" s="152" t="n"/>
-      <c r="G82" s="184" t="inlineStr">
+      <c r="G82" s="185" t="inlineStr">
         <is>
           <t xml:space="preserve">значение выходного сигнала, </t>
         </is>
       </c>
       <c r="H82" s="152" t="n"/>
-      <c r="I82" s="88" t="inlineStr">
+      <c r="I82" s="91" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное отклонение, </t>
         </is>
       </c>
       <c r="J82" s="152" t="n"/>
-      <c r="K82" s="88" t="inlineStr">
+      <c r="K82" s="91" t="inlineStr">
         <is>
           <t xml:space="preserve">допускаемое абсолютное отклонение, </t>
         </is>
       </c>
       <c r="L82" s="152" t="n"/>
-      <c r="M82" s="88" t="inlineStr">
+      <c r="M82" s="91" t="inlineStr">
         <is>
           <t>относительное отклонение (приведенное), %</t>
         </is>
@@ -3307,179 +3332,215 @@
       <c r="N82" s="152" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="100" t="inlineStr">
+      <c r="A83" s="103" t="inlineStr">
         <is>
           <t>% от диапа-зона входного сигнала</t>
         </is>
       </c>
-      <c r="B83" s="185" t="n"/>
-      <c r="C83" s="81" t="inlineStr">
+      <c r="B83" s="186" t="n"/>
+      <c r="C83" s="84" t="inlineStr">
         <is>
           <t xml:space="preserve">абсолютное значение, </t>
         </is>
       </c>
-      <c r="D83" s="185" t="n"/>
-      <c r="E83" s="186" t="n"/>
+      <c r="D83" s="186" t="n"/>
+      <c r="E83" s="187" t="n"/>
       <c r="F83" s="161" t="n"/>
-      <c r="G83" s="186" t="n"/>
+      <c r="G83" s="187" t="n"/>
       <c r="H83" s="161" t="n"/>
-      <c r="I83" s="186" t="n"/>
+      <c r="I83" s="187" t="n"/>
       <c r="J83" s="161" t="n"/>
-      <c r="K83" s="186" t="n"/>
+      <c r="K83" s="187" t="n"/>
       <c r="L83" s="161" t="n"/>
-      <c r="M83" s="186" t="n"/>
+      <c r="M83" s="187" t="n"/>
       <c r="N83" s="161" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="187" t="n"/>
+      <c r="A84" s="188" t="n"/>
       <c r="B84" s="161" t="n"/>
-      <c r="C84" s="186" t="n"/>
+      <c r="C84" s="187" t="n"/>
       <c r="D84" s="161" t="n"/>
-      <c r="E84" s="186" t="n"/>
+      <c r="E84" s="187" t="n"/>
       <c r="F84" s="161" t="n"/>
-      <c r="G84" s="186" t="n"/>
+      <c r="G84" s="187" t="n"/>
       <c r="H84" s="161" t="n"/>
-      <c r="I84" s="186" t="n"/>
+      <c r="I84" s="187" t="n"/>
       <c r="J84" s="161" t="n"/>
-      <c r="K84" s="186" t="n"/>
+      <c r="K84" s="187" t="n"/>
       <c r="L84" s="161" t="n"/>
-      <c r="M84" s="186" t="n"/>
+      <c r="M84" s="187" t="n"/>
       <c r="N84" s="161" t="n"/>
     </row>
     <row r="85" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A85" s="155" t="n"/>
       <c r="B85" s="157" t="n"/>
-      <c r="C85" s="188" t="n"/>
+      <c r="C85" s="189" t="n"/>
       <c r="D85" s="157" t="n"/>
-      <c r="E85" s="189" t="n"/>
+      <c r="E85" s="190" t="n"/>
       <c r="F85" s="174" t="n"/>
-      <c r="G85" s="189" t="n"/>
+      <c r="G85" s="190" t="n"/>
       <c r="H85" s="174" t="n"/>
-      <c r="I85" s="188" t="n"/>
+      <c r="I85" s="189" t="n"/>
       <c r="J85" s="157" t="n"/>
-      <c r="K85" s="188" t="n"/>
+      <c r="K85" s="189" t="n"/>
       <c r="L85" s="157" t="n"/>
-      <c r="M85" s="188" t="n"/>
+      <c r="M85" s="189" t="n"/>
       <c r="N85" s="157" t="n"/>
     </row>
     <row r="86" ht="15" customHeight="1" s="27">
-      <c r="A86" s="68" t="n">
+      <c r="A86" s="71" t="n">
         <v>5</v>
       </c>
       <c r="B86" s="157" t="n"/>
-      <c r="C86" s="192" t="inlineStr">
+      <c r="C86" s="73" t="inlineStr">
         <is>
           <t>5,000</t>
         </is>
       </c>
       <c r="D86" s="157" t="n"/>
-      <c r="E86" s="193" t="inlineStr">
+      <c r="E86" s="76" t="inlineStr">
         <is>
           <t>0,250</t>
         </is>
       </c>
       <c r="F86" s="157" t="n"/>
-      <c r="G86" s="193" t="inlineStr">
+      <c r="G86" s="76" t="inlineStr">
         <is>
           <t>0,230</t>
         </is>
       </c>
       <c r="H86" s="157" t="n"/>
-      <c r="I86" s="197" t="n"/>
+      <c r="I86" s="76">
+        <f>E86-G86</f>
+        <v/>
+      </c>
       <c r="J86" s="157" t="n"/>
-      <c r="K86" s="197" t="n"/>
+      <c r="K86" s="76">
+        <f>$H$79/100*($M$77-$K$77)</f>
+        <v/>
+      </c>
       <c r="L86" s="157" t="n"/>
-      <c r="M86" s="197" t="n"/>
+      <c r="M86" s="76">
+        <f>IFERROR( I86/(IF($K$78="0-5",5,IF($K$78="0-20",20,IF($K$78="4-20",16))))*100, 0)</f>
+        <v/>
+      </c>
       <c r="N86" s="157" t="n"/>
     </row>
     <row r="87" ht="15" customHeight="1" s="27">
-      <c r="A87" s="68" t="n">
+      <c r="A87" s="71" t="n">
         <v>25</v>
       </c>
       <c r="B87" s="157" t="n"/>
-      <c r="C87" s="192" t="inlineStr">
+      <c r="C87" s="73" t="inlineStr">
         <is>
           <t>25,000</t>
         </is>
       </c>
       <c r="D87" s="157" t="n"/>
-      <c r="E87" s="193" t="inlineStr">
+      <c r="E87" s="76" t="inlineStr">
         <is>
           <t>1,250</t>
         </is>
       </c>
       <c r="F87" s="157" t="n"/>
-      <c r="G87" s="193" t="inlineStr">
+      <c r="G87" s="76" t="inlineStr">
         <is>
           <t>1,210</t>
         </is>
       </c>
       <c r="H87" s="157" t="n"/>
-      <c r="I87" s="197" t="n"/>
+      <c r="I87" s="76">
+        <f>E87-G87</f>
+        <v/>
+      </c>
       <c r="J87" s="157" t="n"/>
-      <c r="K87" s="197" t="n"/>
+      <c r="K87" s="76">
+        <f>$H$79/100*($M$77-$K$77)</f>
+        <v/>
+      </c>
       <c r="L87" s="157" t="n"/>
-      <c r="M87" s="197" t="n"/>
+      <c r="M87" s="76">
+        <f>IFERROR( I87/(IF($K$78="0-5",5,IF($K$78="0-20",20,IF($K$78="4-20",16))))*100, 0)</f>
+        <v/>
+      </c>
       <c r="N87" s="157" t="n"/>
     </row>
     <row r="88" ht="15" customHeight="1" s="27">
-      <c r="A88" s="68" t="n">
+      <c r="A88" s="71" t="n">
         <v>50</v>
       </c>
       <c r="B88" s="157" t="n"/>
-      <c r="C88" s="192" t="inlineStr">
+      <c r="C88" s="73" t="inlineStr">
         <is>
           <t>50,000</t>
         </is>
       </c>
       <c r="D88" s="157" t="n"/>
-      <c r="E88" s="193" t="inlineStr">
+      <c r="E88" s="76" t="inlineStr">
         <is>
           <t>2,500</t>
         </is>
       </c>
       <c r="F88" s="157" t="n"/>
-      <c r="G88" s="193" t="inlineStr">
+      <c r="G88" s="76" t="inlineStr">
         <is>
           <t>2,512</t>
         </is>
       </c>
       <c r="H88" s="157" t="n"/>
-      <c r="I88" s="197" t="n"/>
+      <c r="I88" s="76">
+        <f>E88-G88</f>
+        <v/>
+      </c>
       <c r="J88" s="157" t="n"/>
-      <c r="K88" s="197" t="n"/>
+      <c r="K88" s="76">
+        <f>$H$79/100*($M$77-$K$77)</f>
+        <v/>
+      </c>
       <c r="L88" s="157" t="n"/>
-      <c r="M88" s="197" t="n"/>
+      <c r="M88" s="76">
+        <f>IFERROR( I88/(IF($K$78="0-5",5,IF($K$78="0-20",20,IF($K$78="4-20",16))))*100, 0)</f>
+        <v/>
+      </c>
       <c r="N88" s="157" t="n"/>
     </row>
     <row r="89" ht="15" customHeight="1" s="27">
-      <c r="A89" s="68" t="n">
+      <c r="A89" s="71" t="n">
         <v>75</v>
       </c>
       <c r="B89" s="157" t="n"/>
-      <c r="C89" s="192" t="inlineStr">
+      <c r="C89" s="73" t="inlineStr">
         <is>
           <t>75,000</t>
         </is>
       </c>
       <c r="D89" s="157" t="n"/>
-      <c r="E89" s="193" t="inlineStr">
+      <c r="E89" s="76" t="inlineStr">
         <is>
           <t>3,750</t>
         </is>
       </c>
       <c r="F89" s="157" t="n"/>
-      <c r="G89" s="193" t="inlineStr">
+      <c r="G89" s="76" t="inlineStr">
         <is>
           <t>3,756</t>
         </is>
       </c>
       <c r="H89" s="157" t="n"/>
-      <c r="I89" s="197" t="n"/>
+      <c r="I89" s="76">
+        <f>E89-G89</f>
+        <v/>
+      </c>
       <c r="J89" s="157" t="n"/>
-      <c r="K89" s="197" t="n"/>
+      <c r="K89" s="76">
+        <f>$H$79/100*($M$77-$K$77)</f>
+        <v/>
+      </c>
       <c r="L89" s="157" t="n"/>
-      <c r="M89" s="197" t="n"/>
+      <c r="M89" s="76">
+        <f>IFERROR( I89/(IF($K$78="0-5",5,IF($K$78="0-20",20,IF($K$78="4-20",16))))*100, 0)</f>
+        <v/>
+      </c>
       <c r="N89" s="157" t="n"/>
     </row>
     <row r="90" ht="15.75" customHeight="1" s="27" thickBot="1">
@@ -3487,30 +3548,39 @@
         <v>95</v>
       </c>
       <c r="B90" s="174" t="n"/>
-      <c r="C90" s="194" t="inlineStr">
+      <c r="C90" s="58" t="inlineStr">
         <is>
           <t>95,000</t>
         </is>
       </c>
       <c r="D90" s="174" t="n"/>
-      <c r="E90" s="195" t="inlineStr">
+      <c r="E90" s="61" t="inlineStr">
         <is>
           <t>4,750</t>
         </is>
       </c>
       <c r="F90" s="174" t="n"/>
-      <c r="G90" s="195" t="inlineStr">
+      <c r="G90" s="61" t="inlineStr">
         <is>
           <t>4,780</t>
         </is>
       </c>
       <c r="H90" s="174" t="n"/>
-      <c r="I90" s="198" t="n"/>
-      <c r="J90" s="199" t="n"/>
-      <c r="K90" s="200" t="n"/>
-      <c r="L90" s="174" t="n"/>
-      <c r="M90" s="200" t="n"/>
-      <c r="N90" s="174" t="n"/>
+      <c r="I90" s="76">
+        <f>E90-G90</f>
+        <v/>
+      </c>
+      <c r="J90" s="157" t="n"/>
+      <c r="K90" s="76">
+        <f>$H$79/100*($M$77-$K$77)</f>
+        <v/>
+      </c>
+      <c r="L90" s="157" t="n"/>
+      <c r="M90" s="76">
+        <f>IFERROR( I90/(IF($K$78="0-5",5,IF($K$78="0-20",20,IF($K$78="4-20",16))))*100, 0)</f>
+        <v/>
+      </c>
+      <c r="N90" s="157" t="n"/>
     </row>
     <row r="91" ht="15" customHeight="1" s="27">
       <c r="A91" s="4" t="n"/>
@@ -3549,19 +3619,19 @@
           <t>Заключение по результатам калибровки</t>
         </is>
       </c>
-      <c r="B95" s="201" t="n"/>
-      <c r="C95" s="201" t="n"/>
-      <c r="D95" s="201" t="n"/>
-      <c r="E95" s="201" t="n"/>
-      <c r="F95" s="202" t="n"/>
-      <c r="G95" s="203" t="n"/>
-      <c r="H95" s="201" t="n"/>
-      <c r="I95" s="201" t="n"/>
-      <c r="J95" s="201" t="n"/>
-      <c r="K95" s="201" t="n"/>
-      <c r="L95" s="201" t="n"/>
-      <c r="M95" s="201" t="n"/>
-      <c r="N95" s="202" t="n"/>
+      <c r="B95" s="193" t="n"/>
+      <c r="C95" s="193" t="n"/>
+      <c r="D95" s="193" t="n"/>
+      <c r="E95" s="193" t="n"/>
+      <c r="F95" s="194" t="n"/>
+      <c r="G95" s="195" t="n"/>
+      <c r="H95" s="193" t="n"/>
+      <c r="I95" s="193" t="n"/>
+      <c r="J95" s="193" t="n"/>
+      <c r="K95" s="193" t="n"/>
+      <c r="L95" s="193" t="n"/>
+      <c r="M95" s="193" t="n"/>
+      <c r="N95" s="194" t="n"/>
     </row>
     <row r="97">
       <c r="B97" s="44" t="inlineStr">

--- a/protocols/1 ЗК-711.xlsx
+++ b/protocols/1 ЗК-711.xlsx
@@ -1755,7 +1755,7 @@
       <c r="C3" s="108" t="n"/>
       <c r="D3" s="50" t="inlineStr">
         <is>
-          <t>03.01.2021</t>
+          <t>05.01.2021</t>
         </is>
       </c>
       <c r="E3" s="108" t="n"/>

--- a/protocols/1 ЗК-711.xlsx
+++ b/protocols/1 ЗК-711.xlsx
@@ -1755,7 +1755,7 @@
       <c r="C3" s="108" t="n"/>
       <c r="D3" s="50" t="inlineStr">
         <is>
-          <t>05.01.2021</t>
+          <t>08.01.2021</t>
         </is>
       </c>
       <c r="E3" s="108" t="n"/>
@@ -1978,7 +1978,7 @@
       <c r="B17" s="22" t="n"/>
       <c r="E17" s="50" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H17" s="13" t="n"/>
@@ -2867,7 +2867,7 @@
       <c r="F59" s="174" t="n"/>
       <c r="G59" s="61" t="inlineStr">
         <is>
-          <t>23,510</t>
+          <t>24,000</t>
         </is>
       </c>
       <c r="H59" s="174" t="n"/>
@@ -3445,7 +3445,7 @@
       <c r="F87" s="157" t="n"/>
       <c r="G87" s="76" t="inlineStr">
         <is>
-          <t>1,210</t>
+          <t>1,250</t>
         </is>
       </c>
       <c r="H87" s="157" t="n"/>
@@ -3562,7 +3562,7 @@
       <c r="F90" s="174" t="n"/>
       <c r="G90" s="61" t="inlineStr">
         <is>
-          <t>4,780</t>
+          <t>4,750</t>
         </is>
       </c>
       <c r="H90" s="174" t="n"/>

--- a/protocols/1 ЗК-711.xlsx
+++ b/protocols/1 ЗК-711.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12330" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Протокол калибровки" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="0.000" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -906,472 +906,472 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="196">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="24" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="26" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="31" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="32" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="32" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="35" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="36" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="37" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="51" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="46" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="52" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="53" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="53" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="28" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="28" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="38" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="39" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="43" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="28" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="41" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="44" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="40" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="41" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="34" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="31" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="29" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="36" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="37" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="21" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="29" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="34" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="38" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="53" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="54" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="49" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="51" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="39" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="61" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="51" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="46" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="43" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="62" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="63" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="49" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="53" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="54" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="44" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="64" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="56" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="37" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="60" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="58" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="42" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="45" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="59" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="44" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="49" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="50" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1718,10 +1718,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="22" width="6.7109375"/>
-    <col customWidth="1" max="2" min="2" style="22" width="7.28515625"/>
-    <col customWidth="1" max="14" min="3" style="22" width="6.7109375"/>
-    <col customWidth="1" max="16384" min="15" style="22" width="9.140625"/>
+    <col width="6.7109375" customWidth="1" style="22" min="1" max="1"/>
+    <col width="7.28515625" customWidth="1" style="22" min="2" max="2"/>
+    <col width="6.7109375" customWidth="1" style="22" min="3" max="14"/>
+    <col width="9.140625" customWidth="1" style="22" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1731,7 +1731,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="2" s="27">
+    <row r="2" ht="12.75" customHeight="1" s="27">
       <c r="B2" s="97" t="n"/>
       <c r="C2" s="97" t="n"/>
       <c r="D2" s="97" t="n"/>
@@ -1745,7 +1745,7 @@
       <c r="L2" s="97" t="n"/>
       <c r="M2" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="3" s="27">
+    <row r="3" ht="12.75" customHeight="1" s="27">
       <c r="A3" s="22" t="inlineStr">
         <is>
           <t>Дата калибровки:</t>
@@ -1755,7 +1755,7 @@
       <c r="C3" s="97" t="n"/>
       <c r="D3" s="50" t="inlineStr">
         <is>
-          <t>15.01.2021</t>
+          <t>17.01.2021</t>
         </is>
       </c>
       <c r="E3" s="97" t="n"/>
@@ -1765,7 +1765,7 @@
       <c r="K3" s="21" t="n"/>
       <c r="M3" s="97" t="n"/>
     </row>
-    <row customHeight="1" hidden="1" ht="12.75" r="4" s="27">
+    <row r="4" hidden="1" ht="12.75" customHeight="1" s="27">
       <c r="B4" s="4" t="n"/>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="13" t="n"/>
@@ -1775,11 +1775,11 @@
       <c r="J4" s="44" t="n"/>
       <c r="K4" s="21" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="5" s="27">
+    <row r="5" ht="12.75" customHeight="1" s="27">
       <c r="C5" s="21" t="n"/>
       <c r="I5" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="6" s="27">
+    <row r="6" ht="12.75" customHeight="1" s="27">
       <c r="A6" s="43" t="inlineStr">
         <is>
           <t>МЕСТОПОЛОЖЕНИЕ</t>
@@ -1795,12 +1795,12 @@
       <c r="P6" s="22" t="n"/>
       <c r="R6" s="21" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="7" s="27">
+    <row r="7" ht="12.75" customHeight="1" s="27">
       <c r="B7" s="22" t="n"/>
       <c r="C7" s="22" t="n"/>
       <c r="D7" s="21" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="8" s="27">
+    <row r="8" ht="12.75" customHeight="1" s="27">
       <c r="A8" s="14" t="inlineStr">
         <is>
           <t>Предприятие:</t>
@@ -1824,7 +1824,7 @@
       <c r="P8" s="13" t="n"/>
       <c r="R8" s="13" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="9" s="27">
+    <row r="9" ht="12.75" customHeight="1" s="27">
       <c r="A9" s="14" t="inlineStr">
         <is>
           <t>Подразделение:</t>
@@ -1851,7 +1851,7 @@
       <c r="Q9" s="22" t="n"/>
       <c r="R9" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="10" s="27">
+    <row r="10" ht="12.75" customHeight="1" s="27">
       <c r="A10" s="14" t="inlineStr">
         <is>
           <t>Позиция:</t>
@@ -1876,13 +1876,13 @@
       <c r="Q10" s="43" t="n"/>
       <c r="R10" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="11" s="27">
+    <row r="11" ht="12.75" customHeight="1" s="27">
       <c r="E11" s="50" t="n"/>
       <c r="K11" s="21" t="n"/>
       <c r="O11" s="16" t="n"/>
       <c r="P11" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="12" s="27">
+    <row r="12" ht="12.75" customHeight="1" s="27">
       <c r="A12" s="43" t="inlineStr">
         <is>
           <t>КАЛИБРОВКА</t>
@@ -1898,7 +1898,7 @@
       <c r="I12" s="43" t="n"/>
       <c r="K12" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="13" s="27">
+    <row r="13" ht="12.75" customHeight="1" s="27">
       <c r="A13" s="22" t="n"/>
       <c r="B13" s="22" t="n"/>
       <c r="E13" s="21" t="n"/>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="21" s="27" thickBot="1">
+    <row r="21" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A21" s="22" t="n"/>
       <c r="B21" s="22" t="n"/>
       <c r="C21" s="22" t="n"/>
@@ -2055,7 +2055,7 @@
       <c r="M22" s="151" t="n"/>
       <c r="N22" s="154" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="23" s="27" thickBot="1">
+    <row r="23" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A23" s="155" t="n"/>
       <c r="B23" s="156" t="n"/>
       <c r="C23" s="156" t="n"/>
@@ -2071,7 +2071,7 @@
       <c r="M23" s="159" t="n"/>
       <c r="N23" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="24" s="27">
+    <row r="24" ht="12.75" customHeight="1" s="27">
       <c r="A24" s="110" t="inlineStr">
         <is>
           <t>Внешний осмотр</t>
@@ -2107,7 +2107,7 @@
       <c r="M25" s="164" t="n"/>
       <c r="N25" s="165" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="26" s="27">
+    <row r="26" ht="12.75" customHeight="1" s="27">
       <c r="A26" s="133" t="inlineStr">
         <is>
           <t>Опробование</t>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="N26" s="167" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="27" s="27" thickBot="1">
+    <row r="27" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A27" s="155" t="n"/>
       <c r="B27" s="156" t="n"/>
       <c r="C27" s="156" t="n"/>
@@ -2154,7 +2154,7 @@
       <c r="N28" s="24" t="n"/>
       <c r="O28" s="24" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="29" s="27" thickBot="1">
+    <row r="29" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A29" s="43" t="inlineStr">
         <is>
           <t>Проверка основной погрешности измерительного  канала ИРТ</t>
@@ -2186,7 +2186,7 @@
       <c r="M30" s="171" t="n"/>
       <c r="N30" s="172" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="31" s="27" thickBot="1">
+    <row r="31" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A31" s="158" t="n"/>
       <c r="B31" s="159" t="n"/>
       <c r="C31" s="159" t="n"/>
@@ -2298,7 +2298,7 @@
       <c r="M34" s="178" t="n"/>
       <c r="N34" s="180" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="35" s="27" thickBot="1">
+    <row r="35" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A35" s="37" t="inlineStr">
         <is>
           <t>допускаемая основная приведенная погрешность, %</t>
@@ -2329,7 +2329,7 @@
       <c r="F36" s="40" t="n"/>
       <c r="G36" s="40" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="37" s="27" thickBot="1">
+    <row r="37" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A37" s="22" t="inlineStr">
         <is>
           <t>Данные калибровки</t>
@@ -2419,7 +2419,7 @@
       <c r="N40" s="161" t="n"/>
       <c r="O40" s="41" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="41" s="27" thickBot="1">
+    <row r="41" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A41" s="155" t="n"/>
       <c r="B41" s="157" t="n"/>
       <c r="C41" s="189" t="n"/>
@@ -2436,7 +2436,7 @@
       <c r="N41" s="157" t="n"/>
       <c r="O41" s="41" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="42" s="27" thickBot="1">
+    <row r="42" ht="15.75" customHeight="1" s="27" thickBot="1">
       <c r="A42" s="88" t="n">
         <v>5</v>
       </c>
@@ -2476,7 +2476,7 @@
       <c r="N42" s="176" t="n"/>
       <c r="O42" s="41" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="43" s="27" thickBot="1">
+    <row r="43" ht="15.75" customHeight="1" s="27" thickBot="1">
       <c r="A43" s="51" t="n">
         <v>25</v>
       </c>
@@ -2516,7 +2516,7 @@
       <c r="N43" s="176" t="n"/>
       <c r="O43" s="41" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="44" s="27" thickBot="1">
+    <row r="44" ht="15.75" customHeight="1" s="27" thickBot="1">
       <c r="A44" s="51" t="n">
         <v>50</v>
       </c>
@@ -2556,7 +2556,7 @@
       <c r="N44" s="176" t="n"/>
       <c r="O44" s="41" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="45" s="27" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="27" thickBot="1">
       <c r="A45" s="51" t="n">
         <v>75</v>
       </c>
@@ -2596,7 +2596,7 @@
       <c r="N45" s="176" t="n"/>
       <c r="O45" s="41" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="46" s="27" thickBot="1">
+    <row r="46" ht="15.75" customHeight="1" s="27" thickBot="1">
       <c r="A46" s="58" t="n">
         <v>95</v>
       </c>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="N46" s="176" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="48" s="27" thickBot="1">
+    <row r="48" ht="12.75" customHeight="1" s="27" thickBot="1">
       <c r="A48" s="43" t="inlineStr">
         <is>
           <t>Встроенный источник напряжения 24В(без нагрузки)</t>
@@ -2644,7 +2644,7 @@
       <c r="B48" s="22" t="n"/>
       <c r="C48" s="26" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="49" s="27">
+    <row r="49" ht="12.75" customHeight="1" s="27">
       <c r="A49" s="168" t="n"/>
       <c r="B49" s="151" t="n"/>
       <c r="C49" s="151" t="n"/>
@@ -2668,7 +2668,7 @@
       <c r="M49" s="151" t="n"/>
       <c r="N49" s="154" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="50" s="27" thickBot="1">
+    <row r="50" ht="15.75" customHeight="1" s="27" thickBot="1">
       <c r="A50" s="158" t="n"/>
       <c r="B50" s="159" t="n"/>
       <c r="C50" s="159" t="n"/>
@@ -2684,7 +2684,7 @@
       <c r="M50" s="159" t="n"/>
       <c r="N50" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="51" s="27">
+    <row r="51" ht="15" customHeight="1" s="27">
       <c r="A51" s="32" t="inlineStr">
         <is>
           <t>выходной сигнал</t>
@@ -2712,7 +2712,7 @@
       <c r="M51" s="178" t="n"/>
       <c r="N51" s="180" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="52" s="27" thickBot="1">
+    <row r="52" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A52" s="37" t="inlineStr">
         <is>
           <t>допускаемая основная приведенная погрешность, %</t>
@@ -2743,7 +2743,7 @@
       <c r="F53" s="40" t="n"/>
       <c r="G53" s="40" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="54" s="27" thickBot="1">
+    <row r="54" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A54" s="22" t="inlineStr">
         <is>
           <t>Данные калибровки</t>
@@ -2833,7 +2833,7 @@
       <c r="N57" s="161" t="n"/>
       <c r="O57" s="41" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="58" s="27" thickBot="1">
+    <row r="58" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A58" s="155" t="n"/>
       <c r="B58" s="157" t="n"/>
       <c r="C58" s="189" t="n"/>
@@ -2850,7 +2850,7 @@
       <c r="N58" s="157" t="n"/>
       <c r="O58" s="41" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="59" s="27" thickBot="1">
+    <row r="59" ht="15.75" customHeight="1" s="27" thickBot="1">
       <c r="A59" s="58" t="n">
         <v>100</v>
       </c>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="N59" s="174" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="61" s="27" thickBot="1">
+    <row r="61" ht="15.75" customHeight="1" s="27" thickBot="1">
       <c r="A61" s="43" t="inlineStr">
         <is>
           <t>Встроенный источник напряжения 24В(под нагрузкой 820 Ом)</t>
@@ -2895,7 +2895,7 @@
       <c r="B61" s="22" t="n"/>
       <c r="C61" s="26" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="62" s="27">
+    <row r="62" ht="12.75" customHeight="1" s="27">
       <c r="A62" s="168" t="n"/>
       <c r="B62" s="151" t="n"/>
       <c r="C62" s="151" t="n"/>
@@ -2919,7 +2919,7 @@
       <c r="M62" s="151" t="n"/>
       <c r="N62" s="154" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="63" s="27" thickBot="1">
+    <row r="63" ht="15.75" customHeight="1" s="27" thickBot="1">
       <c r="A63" s="158" t="n"/>
       <c r="B63" s="159" t="n"/>
       <c r="C63" s="159" t="n"/>
@@ -2963,7 +2963,7 @@
       <c r="M64" s="178" t="n"/>
       <c r="N64" s="180" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="65" s="27" thickBot="1">
+    <row r="65" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A65" s="37" t="inlineStr">
         <is>
           <t>допускаемая основная приведенная погрешность, %</t>
@@ -2994,14 +2994,14 @@
       <c r="F66" s="40" t="n"/>
       <c r="G66" s="40" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="67" s="27" thickBot="1">
+    <row r="67" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A67" s="22" t="inlineStr">
         <is>
           <t>Данные калибровки</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="68" s="27">
+    <row r="68" ht="12.75" customHeight="1" s="27">
       <c r="A68" s="65" t="inlineStr">
         <is>
           <t>поверяемая точка</t>
@@ -3042,7 +3042,7 @@
       <c r="N68" s="152" t="n"/>
       <c r="O68" s="41" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="69" s="27">
+    <row r="69" ht="12.75" customHeight="1" s="27">
       <c r="A69" s="78" t="inlineStr">
         <is>
           <t>% от диапа-зона входного сигнала</t>
@@ -3084,7 +3084,7 @@
       <c r="N70" s="161" t="n"/>
       <c r="O70" s="41" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="71" s="27" thickBot="1">
+    <row r="71" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A71" s="155" t="n"/>
       <c r="B71" s="157" t="n"/>
       <c r="C71" s="189" t="n"/>
@@ -3101,7 +3101,7 @@
       <c r="N71" s="157" t="n"/>
       <c r="O71" s="41" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="72" s="27" thickBot="1">
+    <row r="72" ht="15.75" customHeight="1" s="27" thickBot="1">
       <c r="A72" s="58" t="n">
         <v>100</v>
       </c>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="N72" s="174" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="74" s="27" thickBot="1">
+    <row r="74" ht="15.75" customHeight="1" s="27" thickBot="1">
       <c r="A74" s="43" t="inlineStr">
         <is>
           <t>Унифицированный выходной сигнал постоянного тока</t>
@@ -3169,7 +3169,7 @@
       <c r="M75" s="171" t="n"/>
       <c r="N75" s="172" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="76" s="27" thickBot="1">
+    <row r="76" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A76" s="158" t="n"/>
       <c r="B76" s="159" t="n"/>
       <c r="C76" s="159" t="n"/>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="N76" s="160" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="77" s="27">
+    <row r="77" ht="13.5" customHeight="1" s="27">
       <c r="A77" s="28" t="inlineStr">
         <is>
           <t>входной сигнал</t>
@@ -3253,7 +3253,7 @@
       <c r="M78" s="178" t="n"/>
       <c r="N78" s="180" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="79" s="27" thickBot="1">
+    <row r="79" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A79" s="37" t="inlineStr">
         <is>
           <t>допускаемая основная приведенная погрешность, %</t>
@@ -3284,7 +3284,7 @@
       <c r="F80" s="40" t="n"/>
       <c r="G80" s="40" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="81" s="27" thickBot="1">
+    <row r="81" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A81" s="22" t="inlineStr">
         <is>
           <t>Данные калибровки</t>
@@ -3371,7 +3371,7 @@
       <c r="M84" s="187" t="n"/>
       <c r="N84" s="161" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="85" s="27" thickBot="1">
+    <row r="85" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A85" s="155" t="n"/>
       <c r="B85" s="157" t="n"/>
       <c r="C85" s="189" t="n"/>
@@ -3387,7 +3387,7 @@
       <c r="M85" s="189" t="n"/>
       <c r="N85" s="157" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="86" s="27">
+    <row r="86" ht="15" customHeight="1" s="27">
       <c r="A86" s="51" t="n">
         <v>5</v>
       </c>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="N86" s="157" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="87" s="27">
+    <row r="87" ht="15" customHeight="1" s="27">
       <c r="A87" s="51" t="n">
         <v>25</v>
       </c>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="N87" s="157" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="88" s="27">
+    <row r="88" ht="15" customHeight="1" s="27">
       <c r="A88" s="51" t="n">
         <v>50</v>
       </c>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="N88" s="157" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="89" s="27">
+    <row r="89" ht="15" customHeight="1" s="27">
       <c r="A89" s="51" t="n">
         <v>75</v>
       </c>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="N89" s="157" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="90" s="27" thickBot="1">
+    <row r="90" ht="15.75" customHeight="1" s="27" thickBot="1">
       <c r="A90" s="58" t="n">
         <v>95</v>
       </c>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="N90" s="157" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="91" s="27">
+    <row r="91" ht="15" customHeight="1" s="27">
       <c r="A91" s="4" t="n"/>
       <c r="B91" s="4" t="n"/>
       <c r="C91" s="42" t="n"/>
@@ -3612,8 +3612,8 @@
       <c r="H93" s="43" t="n"/>
       <c r="I93" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="94" s="27" thickBot="1"/>
-    <row customHeight="1" ht="13.5" r="95" s="27" thickBot="1">
+    <row r="94" ht="13.5" customHeight="1" s="27" thickBot="1"/>
+    <row r="95" ht="13.5" customHeight="1" s="27" thickBot="1">
       <c r="A95" s="146" t="inlineStr">
         <is>
           <t>Заключение по результатам калибровки</t>
@@ -3836,7 +3836,7 @@
     <mergeCell ref="K90:L90"/>
     <mergeCell ref="M90:N90"/>
   </mergeCells>
-  <pageMargins bottom="0.1968503937007874" footer="0" header="0" left="0.5905511811023623" right="0.1968503937007874" top="0.5905511811023623"/>
+  <pageMargins left="0.5905511811023623" right="0.1968503937007874" top="0.5905511811023623" bottom="0.1968503937007874" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/protocols/1 ЗК-711.xlsx
+++ b/protocols/1 ЗК-711.xlsx
@@ -1755,7 +1755,7 @@
       <c r="C3" s="97" t="n"/>
       <c r="D3" s="50" t="inlineStr">
         <is>
-          <t>17.01.2021</t>
+          <t>18,02,2021</t>
         </is>
       </c>
       <c r="E3" s="97" t="n"/>
@@ -1962,7 +1962,7 @@
       <c r="B16" s="22" t="n"/>
       <c r="E16" s="50" t="inlineStr">
         <is>
-          <t>23.2</t>
+          <t>23,2</t>
         </is>
       </c>
       <c r="H16" s="13" t="n"/>
@@ -1978,7 +1978,7 @@
       <c r="B17" s="22" t="n"/>
       <c r="E17" s="50" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>83,1</t>
         </is>
       </c>
       <c r="H17" s="13" t="n"/>
@@ -1994,7 +1994,7 @@
       <c r="B18" s="22" t="n"/>
       <c r="E18" s="50" t="inlineStr">
         <is>
-          <t>92.6</t>
+          <t>92,6</t>
         </is>
       </c>
       <c r="H18" s="13" t="n"/>

--- a/protocols/1 ЗК-711.xlsx
+++ b/protocols/1 ЗК-711.xlsx
@@ -2263,13 +2263,13 @@
       <c r="J33" s="178" t="n"/>
       <c r="K33" s="132" t="inlineStr">
         <is>
-          <t>-50</t>
+          <t>-50,0</t>
         </is>
       </c>
       <c r="L33" s="178" t="n"/>
       <c r="M33" s="179" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1000,0</t>
         </is>
       </c>
       <c r="N33" s="180" t="n"/>
@@ -2312,7 +2312,7 @@
       <c r="G35" s="39" t="n"/>
       <c r="H35" s="182" t="inlineStr">
         <is>
-          <t>0,595</t>
+          <t>0,510</t>
         </is>
       </c>
       <c r="I35" s="183" t="n"/>

--- a/protocols/1 ЗК-711.xlsx
+++ b/protocols/1 ЗК-711.xlsx
@@ -1755,7 +1755,7 @@
       <c r="C3" s="97" t="n"/>
       <c r="D3" s="50" t="inlineStr">
         <is>
-          <t>18,02,2021</t>
+          <t>19.02.2021</t>
         </is>
       </c>
       <c r="E3" s="97" t="n"/>
@@ -1962,7 +1962,7 @@
       <c r="B16" s="22" t="n"/>
       <c r="E16" s="50" t="inlineStr">
         <is>
-          <t>23,2</t>
+          <t>23.2</t>
         </is>
       </c>
       <c r="H16" s="13" t="n"/>
@@ -1978,7 +1978,7 @@
       <c r="B17" s="22" t="n"/>
       <c r="E17" s="50" t="inlineStr">
         <is>
-          <t>83,1</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="H17" s="13" t="n"/>
@@ -1994,7 +1994,7 @@
       <c r="B18" s="22" t="n"/>
       <c r="E18" s="50" t="inlineStr">
         <is>
-          <t>92,6</t>
+          <t>92.6</t>
         </is>
       </c>
       <c r="H18" s="13" t="n"/>
@@ -2263,13 +2263,13 @@
       <c r="J33" s="178" t="n"/>
       <c r="K33" s="132" t="inlineStr">
         <is>
-          <t>-50,0</t>
+          <t>-50,000</t>
         </is>
       </c>
       <c r="L33" s="178" t="n"/>
       <c r="M33" s="179" t="inlineStr">
         <is>
-          <t>1000,0</t>
+          <t>1000,000</t>
         </is>
       </c>
       <c r="N33" s="180" t="n"/>

--- a/protocols/1 ЗК-711.xlsx
+++ b/protocols/1 ЗК-711.xlsx
@@ -1755,7 +1755,7 @@
       <c r="C3" s="97" t="n"/>
       <c r="D3" s="50" t="inlineStr">
         <is>
-          <t>19.02.2021</t>
+          <t>20.03.2021</t>
         </is>
       </c>
       <c r="E3" s="97" t="n"/>
@@ -2312,7 +2312,7 @@
       <c r="G35" s="39" t="n"/>
       <c r="H35" s="182" t="inlineStr">
         <is>
-          <t>0,510</t>
+          <t>0,595</t>
         </is>
       </c>
       <c r="I35" s="183" t="n"/>
@@ -2455,7 +2455,7 @@
       <c r="F42" s="176" t="n"/>
       <c r="G42" s="93" t="inlineStr">
         <is>
-          <t>2,300</t>
+          <t>2,898</t>
         </is>
       </c>
       <c r="H42" s="176" t="n"/>
@@ -2495,7 +2495,7 @@
       <c r="F43" s="157" t="n"/>
       <c r="G43" s="56" t="inlineStr">
         <is>
-          <t>210,000</t>
+          <t>212,116</t>
         </is>
       </c>
       <c r="H43" s="157" t="n"/>
@@ -2535,7 +2535,7 @@
       <c r="F44" s="157" t="n"/>
       <c r="G44" s="56" t="inlineStr">
         <is>
-          <t>476,000</t>
+          <t>473,769</t>
         </is>
       </c>
       <c r="H44" s="157" t="n"/>
@@ -2575,7 +2575,7 @@
       <c r="F45" s="157" t="n"/>
       <c r="G45" s="56" t="inlineStr">
         <is>
-          <t>736,980</t>
+          <t>737,632</t>
         </is>
       </c>
       <c r="H45" s="157" t="n"/>
@@ -2615,7 +2615,7 @@
       <c r="F46" s="174" t="n"/>
       <c r="G46" s="144" t="inlineStr">
         <is>
-          <t>947,600</t>
+          <t>948,421</t>
         </is>
       </c>
       <c r="H46" s="174" t="n"/>
@@ -2867,7 +2867,7 @@
       <c r="F59" s="174" t="n"/>
       <c r="G59" s="144" t="inlineStr">
         <is>
-          <t>23,510</t>
+          <t>24,336</t>
         </is>
       </c>
       <c r="H59" s="174" t="n"/>
@@ -3118,7 +3118,7 @@
       <c r="F72" s="174" t="n"/>
       <c r="G72" s="144" t="inlineStr">
         <is>
-          <t>24,480</t>
+          <t>24,222</t>
         </is>
       </c>
       <c r="H72" s="174" t="n"/>
@@ -3406,7 +3406,7 @@
       <c r="F86" s="157" t="n"/>
       <c r="G86" s="56" t="inlineStr">
         <is>
-          <t>0,230</t>
+          <t>0,247</t>
         </is>
       </c>
       <c r="H86" s="157" t="n"/>
@@ -3445,7 +3445,7 @@
       <c r="F87" s="157" t="n"/>
       <c r="G87" s="56" t="inlineStr">
         <is>
-          <t>1,210</t>
+          <t>1,250</t>
         </is>
       </c>
       <c r="H87" s="157" t="n"/>
@@ -3484,7 +3484,7 @@
       <c r="F88" s="157" t="n"/>
       <c r="G88" s="56" t="inlineStr">
         <is>
-          <t>2,512</t>
+          <t>2,503</t>
         </is>
       </c>
       <c r="H88" s="157" t="n"/>
@@ -3523,7 +3523,7 @@
       <c r="F89" s="157" t="n"/>
       <c r="G89" s="56" t="inlineStr">
         <is>
-          <t>3,756</t>
+          <t>3,751</t>
         </is>
       </c>
       <c r="H89" s="157" t="n"/>
@@ -3562,7 +3562,7 @@
       <c r="F90" s="174" t="n"/>
       <c r="G90" s="144" t="inlineStr">
         <is>
-          <t>4,780</t>
+          <t>4,754</t>
         </is>
       </c>
       <c r="H90" s="174" t="n"/>
